--- a/datasets/MigratoryModel/CombinedMigratoryModel_GuthrieZone_Path.xlsx
+++ b/datasets/MigratoryModel/CombinedMigratoryModel_GuthrieZone_Path.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby Ford\Desktop\BantuMigration\Github\datasets\MigratoryModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D5BF33-B23E-4237-AB5F-829492D4F610}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" xr2:uid="{48220AAF-5FA7-46D3-8056-2130CE6EF7AB}"/>
   </bookViews>
@@ -16,7 +17,7 @@
     <sheet name="ZoneCenterLocations" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MigratoryModel_TableauData!$A$1:$H$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MigratoryModel_TableauData!$A$1:$I$231</definedName>
   </definedNames>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="83">
   <si>
     <t>A</t>
   </si>
@@ -274,6 +275,9 @@
   </si>
   <si>
     <t>Reference Work</t>
+  </si>
+  <si>
+    <t>Current Work - Haversine Only</t>
   </si>
 </sst>
 </file>
@@ -625,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7D369B-DF5B-472F-B73D-7CCA41A92755}">
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:I231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="K197" sqref="K197"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,7 +794,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -799,16 +803,16 @@
         <v>35</v>
       </c>
       <c r="D6">
-        <v>-5.5714285714285703</v>
+        <v>-0.40769230769230752</v>
       </c>
       <c r="E6">
-        <v>15.75</v>
+        <v>21.388461538461538</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" t="s">
         <v>70</v>
@@ -819,7 +823,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -828,16 +832,16 @@
         <v>35</v>
       </c>
       <c r="D7">
-        <v>-0.40769230769230752</v>
+        <v>-1.78</v>
       </c>
       <c r="E7">
-        <v>21.388461538461538</v>
+        <v>27.603999999999996</v>
       </c>
       <c r="F7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
         <v>70</v>
@@ -848,7 +852,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -857,16 +861,16 @@
         <v>35</v>
       </c>
       <c r="D8">
-        <v>-0.40769230769230752</v>
+        <v>-1.78</v>
       </c>
       <c r="E8">
-        <v>21.388461538461538</v>
+        <v>27.603999999999996</v>
       </c>
       <c r="F8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
         <v>70</v>
@@ -877,7 +881,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -886,16 +890,16 @@
         <v>35</v>
       </c>
       <c r="D9">
-        <v>-1.78</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E9">
-        <v>27.603999999999996</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" t="s">
         <v>70</v>
@@ -906,7 +910,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -935,7 +939,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -944,13 +948,13 @@
         <v>35</v>
       </c>
       <c r="D11">
-        <v>-1.44444444444444</v>
+        <v>-9.16</v>
       </c>
       <c r="E11">
-        <v>30.911111111111115</v>
+        <v>26.439999999999998</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -964,25 +968,25 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12">
-        <v>-1.78</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E12">
-        <v>27.603999999999996</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H12" t="s">
         <v>70</v>
@@ -993,25 +997,25 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13">
-        <v>-9.16</v>
+        <v>-5.85</v>
       </c>
       <c r="E13">
-        <v>26.439999999999998</v>
+        <v>37.712499999999999</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H13" t="s">
         <v>70</v>
@@ -1022,25 +1026,25 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14">
-        <v>-1.44444444444444</v>
+        <v>-2.35</v>
       </c>
       <c r="E14">
-        <v>30.911111111111115</v>
+        <v>38.449999999999996</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H14" t="s">
         <v>70</v>
@@ -1051,25 +1055,25 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15">
-        <v>-3.7333333333333329</v>
+        <v>-5.85</v>
       </c>
       <c r="E15">
-        <v>33</v>
+        <v>37.712499999999999</v>
       </c>
       <c r="F15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H15" t="s">
         <v>70</v>
@@ -1080,25 +1084,25 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16">
-        <v>-3.7333333333333329</v>
+        <v>-0.40769230769230752</v>
       </c>
       <c r="E16">
-        <v>33</v>
+        <v>21.388461538461538</v>
       </c>
       <c r="F16" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H16" t="s">
         <v>70</v>
@@ -1109,25 +1113,25 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17">
-        <v>-5.85</v>
+        <v>-5.5714285714285703</v>
       </c>
       <c r="E17">
-        <v>37.712499999999999</v>
+        <v>15.75</v>
       </c>
       <c r="F17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G17">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H17" t="s">
         <v>70</v>
@@ -1138,25 +1142,25 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18">
-        <v>-5.85</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E18">
-        <v>37.712499999999999</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H18" t="s">
         <v>70</v>
@@ -1167,25 +1171,25 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19">
-        <v>-2.35</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E19">
-        <v>38.449999999999996</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F19" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H19" t="s">
         <v>70</v>
@@ -1196,7 +1200,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1205,16 +1209,16 @@
         <v>35</v>
       </c>
       <c r="D20">
-        <v>-9.16</v>
+        <v>-12.962999999999999</v>
       </c>
       <c r="E20">
-        <v>26.439999999999998</v>
+        <v>22.224999999999998</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H20" t="s">
         <v>70</v>
@@ -1225,7 +1229,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1234,16 +1238,16 @@
         <v>35</v>
       </c>
       <c r="D21">
-        <v>-12.962999999999999</v>
+        <v>-15.824999999999999</v>
       </c>
       <c r="E21">
-        <v>22.224999999999998</v>
+        <v>15.45</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H21" t="s">
         <v>70</v>
@@ -1254,10 +1258,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
@@ -1283,25 +1287,25 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
       </c>
       <c r="D23">
-        <v>-15.824999999999999</v>
+        <v>-9.16</v>
       </c>
       <c r="E23">
-        <v>15.45</v>
+        <v>26.439999999999998</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H23" t="s">
         <v>70</v>
@@ -1370,7 +1374,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1399,7 +1403,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1408,13 +1412,13 @@
         <v>35</v>
       </c>
       <c r="D27">
-        <v>-23.125</v>
+        <v>-13.557142857142859</v>
       </c>
       <c r="E27">
-        <v>29.665624999999999</v>
+        <v>33.514285714285712</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>8</v>
@@ -1428,7 +1432,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1457,7 +1461,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1466,13 +1470,13 @@
         <v>35</v>
       </c>
       <c r="D29">
-        <v>-13.557142857142859</v>
+        <v>-23.125</v>
       </c>
       <c r="E29">
-        <v>33.514285714285712</v>
+        <v>29.665624999999999</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G29">
         <v>8</v>
@@ -1565,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I32" t="s">
         <v>80</v>
@@ -1594,7 +1598,7 @@
         <v>2</v>
       </c>
       <c r="H33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s">
         <v>80</v>
@@ -1623,7 +1627,7 @@
         <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I34" t="s">
         <v>80</v>
@@ -1652,7 +1656,7 @@
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I35" t="s">
         <v>80</v>
@@ -1660,28 +1664,28 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D36">
-        <v>-5.5714285714285703</v>
+        <v>-0.40769230769230752</v>
       </c>
       <c r="E36">
-        <v>15.75</v>
+        <v>21.388461538461538</v>
       </c>
       <c r="F36" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I36" t="s">
         <v>80</v>
@@ -1689,28 +1693,28 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37">
-        <v>-0.40769230769230752</v>
+        <v>-1.78</v>
       </c>
       <c r="E37">
-        <v>21.388461538461538</v>
+        <v>27.603999999999996</v>
       </c>
       <c r="F37" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I37" t="s">
         <v>80</v>
@@ -1718,28 +1722,28 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38">
-        <v>-0.40769230769230752</v>
+        <v>-1.78</v>
       </c>
       <c r="E38">
-        <v>21.388461538461538</v>
+        <v>27.603999999999996</v>
       </c>
       <c r="F38" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I38" t="s">
         <v>80</v>
@@ -1747,28 +1751,28 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D39">
-        <v>-1.78</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E39">
-        <v>27.603999999999996</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F39" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I39" t="s">
         <v>80</v>
@@ -1776,7 +1780,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1797,7 +1801,7 @@
         <v>5</v>
       </c>
       <c r="H40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I40" t="s">
         <v>80</v>
@@ -1805,7 +1809,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -1814,19 +1818,19 @@
         <v>36</v>
       </c>
       <c r="D41">
-        <v>-1.44444444444444</v>
+        <v>-12.962999999999999</v>
       </c>
       <c r="E41">
-        <v>30.911111111111115</v>
+        <v>22.224999999999998</v>
       </c>
       <c r="F41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G41">
         <v>6</v>
       </c>
       <c r="H41" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I41" t="s">
         <v>80</v>
@@ -1834,7 +1838,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1843,19 +1847,19 @@
         <v>36</v>
       </c>
       <c r="D42">
-        <v>-1.44444444444444</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E42">
-        <v>30.911111111111115</v>
+        <v>33</v>
       </c>
       <c r="F42" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H42" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I42" t="s">
         <v>80</v>
@@ -1863,7 +1867,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -1872,19 +1876,19 @@
         <v>36</v>
       </c>
       <c r="D43">
-        <v>-3.7333333333333329</v>
+        <v>-5.85</v>
       </c>
       <c r="E43">
-        <v>33</v>
+        <v>37.712499999999999</v>
       </c>
       <c r="F43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G43">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H43" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I43" t="s">
         <v>80</v>
@@ -1892,28 +1896,28 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D44">
-        <v>-3.7333333333333329</v>
+        <v>-2.35</v>
       </c>
       <c r="E44">
-        <v>33</v>
+        <v>38.449999999999996</v>
       </c>
       <c r="F44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G44">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H44" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I44" t="s">
         <v>80</v>
@@ -1921,13 +1925,13 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D45">
         <v>-5.85</v>
@@ -1942,7 +1946,7 @@
         <v>8</v>
       </c>
       <c r="H45" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I45" t="s">
         <v>80</v>
@@ -1950,28 +1954,28 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
         <v>35</v>
       </c>
       <c r="D46">
-        <v>-5.85</v>
+        <v>-0.40769230769230752</v>
       </c>
       <c r="E46">
-        <v>37.712499999999999</v>
+        <v>21.388461538461538</v>
       </c>
       <c r="F46" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G46">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H46" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s">
         <v>80</v>
@@ -1979,28 +1983,28 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
         <v>35</v>
       </c>
       <c r="D47">
-        <v>-2.35</v>
+        <v>-5.5714285714285703</v>
       </c>
       <c r="E47">
-        <v>38.449999999999996</v>
+        <v>15.75</v>
       </c>
       <c r="F47" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G47">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I47" t="s">
         <v>80</v>
@@ -2008,28 +2012,28 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" t="s">
         <v>36</v>
       </c>
       <c r="D48">
-        <v>-1.44444444444444</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E48">
-        <v>30.911111111111115</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G48">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H48" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I48" t="s">
         <v>80</v>
@@ -2037,28 +2041,28 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
         <v>36</v>
       </c>
       <c r="D49">
-        <v>-13.122222222222224</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E49">
-        <v>29.1944444444444</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H49" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I49" t="s">
         <v>80</v>
@@ -2066,7 +2070,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -2075,19 +2079,19 @@
         <v>36</v>
       </c>
       <c r="D50">
-        <v>-13.122222222222224</v>
+        <v>-12.962999999999999</v>
       </c>
       <c r="E50">
-        <v>29.1944444444444</v>
+        <v>22.224999999999998</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H50" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I50" t="s">
         <v>80</v>
@@ -2095,7 +2099,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -2113,10 +2117,10 @@
         <v>10</v>
       </c>
       <c r="G51">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H51" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I51" t="s">
         <v>80</v>
@@ -2124,28 +2128,28 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D52">
-        <v>-9.16</v>
+        <v>-12.962999999999999</v>
       </c>
       <c r="E52">
-        <v>26.439999999999998</v>
+        <v>22.224999999999998</v>
       </c>
       <c r="F52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G52">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I52" t="s">
         <v>80</v>
@@ -2153,28 +2157,28 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B53">
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D53">
-        <v>-12.962999999999999</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E53">
-        <v>22.224999999999998</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F53" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G53">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I53" t="s">
         <v>80</v>
@@ -2200,10 +2204,10 @@
         <v>9</v>
       </c>
       <c r="G54">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I54" t="s">
         <v>80</v>
@@ -2229,10 +2233,10 @@
         <v>14</v>
       </c>
       <c r="G55">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I55" t="s">
         <v>80</v>
@@ -2240,7 +2244,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -2258,10 +2262,10 @@
         <v>11</v>
       </c>
       <c r="G56">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I56" t="s">
         <v>80</v>
@@ -2269,7 +2273,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -2278,19 +2282,19 @@
         <v>35</v>
       </c>
       <c r="D57">
-        <v>-23.125</v>
+        <v>-13.557142857142859</v>
       </c>
       <c r="E57">
-        <v>29.665624999999999</v>
+        <v>33.514285714285712</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G57">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I57" t="s">
         <v>80</v>
@@ -2298,7 +2302,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -2316,10 +2320,10 @@
         <v>11</v>
       </c>
       <c r="G58">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H58" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I58" t="s">
         <v>80</v>
@@ -2327,7 +2331,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -2336,19 +2340,19 @@
         <v>35</v>
       </c>
       <c r="D59">
-        <v>-13.557142857142859</v>
+        <v>-23.125</v>
       </c>
       <c r="E59">
-        <v>33.514285714285712</v>
+        <v>29.665624999999999</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G59">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H59" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I59" t="s">
         <v>80</v>
@@ -2374,10 +2378,10 @@
         <v>12</v>
       </c>
       <c r="G60">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H60" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I60" t="s">
         <v>80</v>
@@ -2403,10 +2407,10 @@
         <v>13</v>
       </c>
       <c r="G61">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H61" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I61" t="s">
         <v>80</v>
@@ -2435,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I62" t="s">
         <v>80</v>
@@ -2464,7 +2468,7 @@
         <v>2</v>
       </c>
       <c r="H63" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I63" t="s">
         <v>80</v>
@@ -2472,13 +2476,13 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D64">
         <v>-1.753125</v>
@@ -2493,7 +2497,7 @@
         <v>2</v>
       </c>
       <c r="H64" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I64" t="s">
         <v>80</v>
@@ -2501,28 +2505,28 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B65">
         <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D65">
-        <v>-0.40769230769230752</v>
+        <v>-5.5714285714285703</v>
       </c>
       <c r="E65">
-        <v>21.388461538461538</v>
+        <v>15.75</v>
       </c>
       <c r="F65" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G65">
         <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I65" t="s">
         <v>80</v>
@@ -2548,10 +2552,10 @@
         <v>2</v>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H66" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I66" t="s">
         <v>80</v>
@@ -2577,10 +2581,10 @@
         <v>3</v>
       </c>
       <c r="G67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H67" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I67" t="s">
         <v>80</v>
@@ -2588,7 +2592,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -2597,19 +2601,19 @@
         <v>36</v>
       </c>
       <c r="D68">
-        <v>-0.40769230769230752</v>
+        <v>-1.78</v>
       </c>
       <c r="E68">
-        <v>21.388461538461538</v>
+        <v>27.603999999999996</v>
       </c>
       <c r="F68" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H68" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I68" t="s">
         <v>80</v>
@@ -2617,7 +2621,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -2626,19 +2630,19 @@
         <v>36</v>
       </c>
       <c r="D69">
-        <v>-5.5714285714285703</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E69">
-        <v>15.75</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G69">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H69" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I69" t="s">
         <v>80</v>
@@ -2646,13 +2650,13 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D70">
         <v>-1.78</v>
@@ -2664,10 +2668,10 @@
         <v>3</v>
       </c>
       <c r="G70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H70" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I70" t="s">
         <v>80</v>
@@ -2675,28 +2679,28 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="B71">
         <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D71">
-        <v>-1.44444444444444</v>
+        <v>-12.962999999999999</v>
       </c>
       <c r="E71">
-        <v>30.911111111111115</v>
+        <v>22.224999999999998</v>
       </c>
       <c r="F71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G71">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H71" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I71" t="s">
         <v>80</v>
@@ -2704,7 +2708,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -2713,19 +2717,19 @@
         <v>36</v>
       </c>
       <c r="D72">
-        <v>-1.44444444444444</v>
+        <v>-2.35</v>
       </c>
       <c r="E72">
-        <v>30.911111111111115</v>
+        <v>38.449999999999996</v>
       </c>
       <c r="F72" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72">
         <v>8</v>
       </c>
-      <c r="G72">
-        <v>5</v>
-      </c>
       <c r="H72" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I72" t="s">
         <v>80</v>
@@ -2733,7 +2737,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -2742,19 +2746,19 @@
         <v>36</v>
       </c>
       <c r="D73">
-        <v>-2.35</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E73">
-        <v>38.449999999999996</v>
+        <v>33</v>
       </c>
       <c r="F73" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G73">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H73" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I73" t="s">
         <v>80</v>
@@ -2780,10 +2784,10 @@
         <v>4</v>
       </c>
       <c r="G74">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H74" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I74" t="s">
         <v>80</v>
@@ -2809,10 +2813,10 @@
         <v>6</v>
       </c>
       <c r="G75">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H75" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I75" t="s">
         <v>80</v>
@@ -2820,28 +2824,28 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C76" t="s">
         <v>36</v>
       </c>
       <c r="D76">
-        <v>-2.35</v>
+        <v>-0.40769230769230752</v>
       </c>
       <c r="E76">
-        <v>38.449999999999996</v>
+        <v>21.388461538461538</v>
       </c>
       <c r="F76" t="s">
+        <v>2</v>
+      </c>
+      <c r="G76">
         <v>4</v>
       </c>
-      <c r="G76">
-        <v>6</v>
-      </c>
       <c r="H76" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I76" t="s">
         <v>80</v>
@@ -2849,28 +2853,28 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C77" t="s">
         <v>36</v>
       </c>
       <c r="D77">
-        <v>-3.7333333333333329</v>
+        <v>-5.5714285714285703</v>
       </c>
       <c r="E77">
-        <v>33</v>
+        <v>15.75</v>
       </c>
       <c r="F77" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G77">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H77" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I77" t="s">
         <v>80</v>
@@ -2878,28 +2882,28 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C78" t="s">
         <v>36</v>
       </c>
       <c r="D78">
-        <v>-1.78</v>
+        <v>-2.35</v>
       </c>
       <c r="E78">
-        <v>27.603999999999996</v>
+        <v>38.449999999999996</v>
       </c>
       <c r="F78" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G78">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H78" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I78" t="s">
         <v>80</v>
@@ -2907,28 +2911,28 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="B79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C79" t="s">
         <v>36</v>
       </c>
       <c r="D79">
-        <v>-9.16</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E79">
-        <v>26.439999999999998</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F79" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H79" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I79" t="s">
         <v>80</v>
@@ -2936,28 +2940,28 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D80">
-        <v>-9.16</v>
+        <v>-12.962999999999999</v>
       </c>
       <c r="E80">
-        <v>26.439999999999998</v>
+        <v>22.224999999999998</v>
       </c>
       <c r="F80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G80">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H80" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I80" t="s">
         <v>80</v>
@@ -2965,28 +2969,28 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B81">
         <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D81">
-        <v>-12.962999999999999</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E81">
-        <v>22.224999999999998</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F81" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G81">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H81" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I81" t="s">
         <v>80</v>
@@ -3000,7 +3004,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D82">
         <v>-12.962999999999999</v>
@@ -3015,7 +3019,7 @@
         <v>6</v>
       </c>
       <c r="H82" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I82" t="s">
         <v>80</v>
@@ -3029,7 +3033,7 @@
         <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D83">
         <v>-15.824999999999999</v>
@@ -3044,7 +3048,7 @@
         <v>7</v>
       </c>
       <c r="H83" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I83" t="s">
         <v>80</v>
@@ -3052,10 +3056,10 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C84" t="s">
         <v>36</v>
@@ -3070,10 +3074,10 @@
         <v>10</v>
       </c>
       <c r="G84">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H84" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I84" t="s">
         <v>80</v>
@@ -3081,10 +3085,10 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C85" t="s">
         <v>36</v>
@@ -3099,10 +3103,10 @@
         <v>11</v>
       </c>
       <c r="G85">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H85" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I85" t="s">
         <v>80</v>
@@ -3110,7 +3114,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -3128,10 +3132,10 @@
         <v>11</v>
       </c>
       <c r="G86">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H86" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I86" t="s">
         <v>80</v>
@@ -3139,7 +3143,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -3148,19 +3152,19 @@
         <v>35</v>
       </c>
       <c r="D87">
-        <v>-23.125</v>
+        <v>-13.557142857142859</v>
       </c>
       <c r="E87">
-        <v>29.665624999999999</v>
+        <v>33.514285714285712</v>
       </c>
       <c r="F87" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G87">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H87" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I87" t="s">
         <v>80</v>
@@ -3168,13 +3172,13 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D88">
         <v>-13.122222222222224</v>
@@ -3186,10 +3190,10 @@
         <v>11</v>
       </c>
       <c r="G88">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H88" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I88" t="s">
         <v>80</v>
@@ -3197,28 +3201,28 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B89">
         <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D89">
-        <v>-13.557142857142859</v>
+        <v>-23.125</v>
       </c>
       <c r="E89">
-        <v>33.514285714285712</v>
+        <v>29.665624999999999</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G89">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H89" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I89" t="s">
         <v>80</v>
@@ -3244,10 +3248,10 @@
         <v>12</v>
       </c>
       <c r="G90">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H90" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I90" t="s">
         <v>80</v>
@@ -3273,10 +3277,10 @@
         <v>13</v>
       </c>
       <c r="G91">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H91" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I91" t="s">
         <v>80</v>
@@ -3305,7 +3309,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I92" t="s">
         <v>80</v>
@@ -3334,7 +3338,7 @@
         <v>2</v>
       </c>
       <c r="H93" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I93" t="s">
         <v>80</v>
@@ -3342,13 +3346,13 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D94">
         <v>-1.753125</v>
@@ -3363,7 +3367,7 @@
         <v>2</v>
       </c>
       <c r="H94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I94" t="s">
         <v>80</v>
@@ -3371,28 +3375,28 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B95">
         <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D95">
-        <v>-5.5714285714285703</v>
+        <v>-0.40769230769230752</v>
       </c>
       <c r="E95">
-        <v>15.75</v>
+        <v>21.388461538461538</v>
       </c>
       <c r="F95" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G95">
         <v>3</v>
       </c>
       <c r="H95" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I95" t="s">
         <v>80</v>
@@ -3400,28 +3404,28 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D96">
-        <v>-5.5714285714285703</v>
+        <v>-0.40769230769230752</v>
       </c>
       <c r="E96">
-        <v>15.75</v>
+        <v>21.388461538461538</v>
       </c>
       <c r="F96" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G96">
         <v>3</v>
       </c>
       <c r="H96" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I96" t="s">
         <v>80</v>
@@ -3429,28 +3433,28 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B97">
         <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D97">
-        <v>-0.40769230769230752</v>
+        <v>-1.78</v>
       </c>
       <c r="E97">
-        <v>21.388461538461538</v>
+        <v>27.603999999999996</v>
       </c>
       <c r="F97" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G97">
         <v>4</v>
       </c>
       <c r="H97" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I97" t="s">
         <v>80</v>
@@ -3458,13 +3462,13 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D98">
         <v>-0.40769230769230752</v>
@@ -3476,10 +3480,10 @@
         <v>2</v>
       </c>
       <c r="G98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H98" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I98" t="s">
         <v>80</v>
@@ -3487,28 +3491,28 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="B99">
         <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D99">
-        <v>-1.78</v>
+        <v>-5.5714285714285703</v>
       </c>
       <c r="E99">
-        <v>27.603999999999996</v>
+        <v>15.75</v>
       </c>
       <c r="F99" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H99" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I99" t="s">
         <v>80</v>
@@ -3516,13 +3520,13 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D100">
         <v>-1.78</v>
@@ -3534,10 +3538,10 @@
         <v>3</v>
       </c>
       <c r="G100">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H100" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I100" t="s">
         <v>80</v>
@@ -3545,28 +3549,28 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B101">
         <v>2</v>
       </c>
       <c r="C101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D101">
-        <v>-12.962999999999999</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E101">
-        <v>22.224999999999998</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G101">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H101" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I101" t="s">
         <v>80</v>
@@ -3574,28 +3578,28 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D102">
-        <v>-12.962999999999999</v>
+        <v>-1.78</v>
       </c>
       <c r="E102">
-        <v>22.224999999999998</v>
+        <v>27.603999999999996</v>
       </c>
       <c r="F102" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G102">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H102" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I102" t="s">
         <v>80</v>
@@ -3603,28 +3607,28 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B103">
         <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D103">
-        <v>-15.824999999999999</v>
+        <v>-9.16</v>
       </c>
       <c r="E103">
-        <v>15.45</v>
+        <v>26.439999999999998</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G103">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H103" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I103" t="s">
         <v>80</v>
@@ -3632,7 +3636,7 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -3641,19 +3645,19 @@
         <v>36</v>
       </c>
       <c r="D104">
-        <v>-12.962999999999999</v>
+        <v>-2.35</v>
       </c>
       <c r="E104">
-        <v>22.224999999999998</v>
+        <v>38.449999999999996</v>
       </c>
       <c r="F104" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G104">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H104" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I104" t="s">
         <v>80</v>
@@ -3661,7 +3665,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -3670,19 +3674,19 @@
         <v>36</v>
       </c>
       <c r="D105">
-        <v>-13.122222222222224</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E105">
-        <v>29.1944444444444</v>
+        <v>33</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G105">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H105" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I105" t="s">
         <v>80</v>
@@ -3690,28 +3694,28 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D106">
-        <v>-13.122222222222224</v>
+        <v>-2.35</v>
       </c>
       <c r="E106">
-        <v>29.1944444444444</v>
+        <v>38.449999999999996</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G106">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H106" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I106" t="s">
         <v>80</v>
@@ -3719,28 +3723,28 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="B107">
         <v>2</v>
       </c>
       <c r="C107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D107">
-        <v>-23.125</v>
+        <v>-5.85</v>
       </c>
       <c r="E107">
-        <v>29.665624999999999</v>
+        <v>37.712499999999999</v>
       </c>
       <c r="F107" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G107">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H107" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I107" t="s">
         <v>80</v>
@@ -3748,28 +3752,28 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D108">
-        <v>-13.122222222222224</v>
+        <v>-2.35</v>
       </c>
       <c r="E108">
-        <v>29.1944444444444</v>
+        <v>38.449999999999996</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G108">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H108" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I108" t="s">
         <v>80</v>
@@ -3777,28 +3781,28 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D109">
-        <v>-13.557142857142859</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E109">
-        <v>33.514285714285712</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G109">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H109" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I109" t="s">
         <v>80</v>
@@ -3806,7 +3810,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -3815,19 +3819,19 @@
         <v>35</v>
       </c>
       <c r="D110">
-        <v>-13.557142857142859</v>
+        <v>-12.962999999999999</v>
       </c>
       <c r="E110">
-        <v>33.514285714285712</v>
+        <v>22.224999999999998</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G110">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H110" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I110" t="s">
         <v>80</v>
@@ -3835,7 +3839,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -3844,19 +3848,19 @@
         <v>35</v>
       </c>
       <c r="D111">
-        <v>-13.3</v>
+        <v>-15.824999999999999</v>
       </c>
       <c r="E111">
-        <v>39.125</v>
+        <v>15.45</v>
       </c>
       <c r="F111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G111">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H111" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I111" t="s">
         <v>80</v>
@@ -3864,13 +3868,13 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D112">
         <v>-12.962999999999999</v>
@@ -3885,7 +3889,7 @@
         <v>6</v>
       </c>
       <c r="H112" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I112" t="s">
         <v>80</v>
@@ -3893,13 +3897,13 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="B113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D113">
         <v>-9.16</v>
@@ -3911,10 +3915,10 @@
         <v>10</v>
       </c>
       <c r="G113">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H113" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I113" t="s">
         <v>80</v>
@@ -3922,28 +3926,28 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D114">
-        <v>-1.78</v>
+        <v>-9.16</v>
       </c>
       <c r="E114">
-        <v>27.603999999999996</v>
+        <v>26.439999999999998</v>
       </c>
       <c r="F114" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G114">
         <v>5</v>
       </c>
       <c r="H114" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I114" t="s">
         <v>80</v>
@@ -3951,28 +3955,28 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B115">
         <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D115">
-        <v>-1.44444444444444</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E115">
-        <v>30.911111111111115</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F115" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G115">
         <v>6</v>
       </c>
       <c r="H115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I115" t="s">
         <v>80</v>
@@ -3980,7 +3984,7 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -3989,19 +3993,19 @@
         <v>36</v>
       </c>
       <c r="D116">
-        <v>-1.44444444444444</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E116">
-        <v>30.911111111111115</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F116" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G116">
         <v>6</v>
       </c>
       <c r="H116" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I116" t="s">
         <v>80</v>
@@ -4009,7 +4013,7 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -4018,19 +4022,19 @@
         <v>36</v>
       </c>
       <c r="D117">
-        <v>-3.7333333333333329</v>
+        <v>-13.557142857142859</v>
       </c>
       <c r="E117">
-        <v>33</v>
+        <v>33.514285714285712</v>
       </c>
       <c r="F117" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G117">
         <v>7</v>
       </c>
       <c r="H117" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I117" t="s">
         <v>80</v>
@@ -4038,28 +4042,28 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D118">
-        <v>-3.7333333333333329</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E118">
-        <v>33</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F118" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G118">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H118" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I118" t="s">
         <v>80</v>
@@ -4067,28 +4071,28 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B119">
         <v>2</v>
       </c>
       <c r="C119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D119">
-        <v>-5.85</v>
+        <v>-23.125</v>
       </c>
       <c r="E119">
-        <v>37.712499999999999</v>
+        <v>29.665624999999999</v>
       </c>
       <c r="F119" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G119">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H119" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I119" t="s">
         <v>80</v>
@@ -4096,7 +4100,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -4105,19 +4109,19 @@
         <v>35</v>
       </c>
       <c r="D120">
-        <v>-5.85</v>
+        <v>-13.557142857142859</v>
       </c>
       <c r="E120">
-        <v>37.712499999999999</v>
+        <v>33.514285714285712</v>
       </c>
       <c r="F120" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G120">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H120" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I120" t="s">
         <v>80</v>
@@ -4125,7 +4129,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B121">
         <v>2</v>
@@ -4134,19 +4138,19 @@
         <v>35</v>
       </c>
       <c r="D121">
-        <v>-2.35</v>
+        <v>-13.3</v>
       </c>
       <c r="E121">
-        <v>38.449999999999996</v>
+        <v>39.125</v>
       </c>
       <c r="F121" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G121">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H121" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I121" t="s">
         <v>80</v>
@@ -4159,6 +4163,9 @@
       <c r="B122">
         <v>1</v>
       </c>
+      <c r="C122" t="s">
+        <v>35</v>
+      </c>
       <c r="D122">
         <v>2.3488888888888888</v>
       </c>
@@ -4172,10 +4179,10 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I122" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -4185,6 +4192,9 @@
       <c r="B123">
         <v>2</v>
       </c>
+      <c r="C123" t="s">
+        <v>35</v>
+      </c>
       <c r="D123">
         <v>-1.753125</v>
       </c>
@@ -4198,642 +4208,717 @@
         <v>2</v>
       </c>
       <c r="H123" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I123" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
+      <c r="C124" t="s">
+        <v>35</v>
+      </c>
       <c r="D124">
-        <v>2.3488888888888888</v>
+        <v>-1.753125</v>
       </c>
       <c r="E124">
-        <v>10.31111111111111</v>
+        <v>13.153124999999999</v>
       </c>
       <c r="F124" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H124" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I124" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B125">
         <v>2</v>
       </c>
+      <c r="C125" t="s">
+        <v>35</v>
+      </c>
       <c r="D125">
-        <v>-1.44444444444444</v>
+        <v>-5.5714285714285703</v>
       </c>
       <c r="E125">
-        <v>30.911111111111115</v>
+        <v>15.75</v>
       </c>
       <c r="F125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H125" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I125" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B126">
         <v>1</v>
       </c>
+      <c r="C126" t="s">
+        <v>36</v>
+      </c>
       <c r="D126">
-        <v>-1.753125</v>
+        <v>-0.40769230769230752</v>
       </c>
       <c r="E126">
-        <v>13.153124999999999</v>
+        <v>21.388461538461538</v>
       </c>
       <c r="F126" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H126" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I126" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B127">
         <v>2</v>
       </c>
+      <c r="C127" t="s">
+        <v>36</v>
+      </c>
       <c r="D127">
-        <v>-5.5714285714285703</v>
+        <v>-1.78</v>
       </c>
       <c r="E127">
-        <v>15.75</v>
+        <v>27.603999999999996</v>
       </c>
       <c r="F127" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G127">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H127" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I127" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
+      <c r="C128" t="s">
+        <v>36</v>
+      </c>
       <c r="D128">
-        <v>-1.753125</v>
+        <v>-1.78</v>
       </c>
       <c r="E128">
-        <v>13.153124999999999</v>
+        <v>27.603999999999996</v>
       </c>
       <c r="F128" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G128">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H128" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I128" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B129">
         <v>2</v>
       </c>
+      <c r="C129" t="s">
+        <v>36</v>
+      </c>
       <c r="D129">
-        <v>-0.40769230769230752</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E129">
-        <v>21.388461538461538</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F129" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G129">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H129" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I129" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
+      <c r="C130" t="s">
+        <v>36</v>
+      </c>
       <c r="D130">
-        <v>-1.753125</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E130">
-        <v>13.153124999999999</v>
+        <v>33</v>
       </c>
       <c r="F130" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G130">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H130" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I130" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B131">
         <v>2</v>
       </c>
+      <c r="C131" t="s">
+        <v>36</v>
+      </c>
       <c r="D131">
-        <v>-12.962999999999999</v>
+        <v>-5.85</v>
       </c>
       <c r="E131">
-        <v>22.224999999999998</v>
+        <v>37.712499999999999</v>
       </c>
       <c r="F131" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G131">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H131" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I131" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C132" t="s">
+        <v>35</v>
       </c>
       <c r="D132">
-        <v>-1.44444444444444</v>
+        <v>-2.35</v>
       </c>
       <c r="E132">
-        <v>30.911111111111115</v>
+        <v>38.449999999999996</v>
       </c>
       <c r="F132" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G132">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H132" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I132" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B133">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C133" t="s">
+        <v>35</v>
       </c>
       <c r="D133">
-        <v>-9.16</v>
+        <v>-5.85</v>
       </c>
       <c r="E133">
-        <v>26.439999999999998</v>
+        <v>37.712499999999999</v>
       </c>
       <c r="F133" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G133">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H133" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I133" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C134" t="s">
+        <v>36</v>
       </c>
       <c r="D134">
-        <v>-1.44444444444444</v>
+        <v>-0.40769230769230752</v>
       </c>
       <c r="E134">
-        <v>30.911111111111115</v>
+        <v>21.388461538461538</v>
       </c>
       <c r="F134" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G134">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H134" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I134" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B135">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C135" t="s">
+        <v>36</v>
       </c>
       <c r="D135">
-        <v>-13.122222222222224</v>
+        <v>-5.5714285714285703</v>
       </c>
       <c r="E135">
-        <v>29.1944444444444</v>
+        <v>15.75</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G135">
         <v>3</v>
       </c>
       <c r="H135" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I135" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C136" t="s">
+        <v>36</v>
       </c>
       <c r="D136">
-        <v>-1.44444444444444</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E136">
-        <v>30.911111111111115</v>
+        <v>33</v>
       </c>
       <c r="F136" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G136">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H136" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I136" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B137">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
+        <v>36</v>
       </c>
       <c r="D137">
-        <v>-13.3</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E137">
-        <v>39.125</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F137" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G137">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H137" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I137" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
+      <c r="C138" t="s">
+        <v>36</v>
+      </c>
       <c r="D138">
-        <v>2.3488888888888888</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E138">
-        <v>10.31111111111111</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F138" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H138" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="I138" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B139">
         <v>2</v>
       </c>
+      <c r="C139" t="s">
+        <v>36</v>
+      </c>
       <c r="D139">
-        <v>-1.753125</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E139">
-        <v>13.153124999999999</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F139" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G139">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H139" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="I139" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
+      <c r="C140" t="s">
+        <v>35</v>
+      </c>
       <c r="D140">
-        <v>-1.753125</v>
+        <v>-12.962999999999999</v>
       </c>
       <c r="E140">
-        <v>13.153124999999999</v>
+        <v>22.224999999999998</v>
       </c>
       <c r="F140" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G140">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H140" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="I140" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B141">
         <v>2</v>
       </c>
+      <c r="C141" t="s">
+        <v>35</v>
+      </c>
       <c r="D141">
-        <v>-5.5714285714285703</v>
+        <v>-15.824999999999999</v>
       </c>
       <c r="E141">
-        <v>15.75</v>
+        <v>15.45</v>
       </c>
       <c r="F141" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G141">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H141" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="I141" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C142" t="s">
+        <v>35</v>
       </c>
       <c r="D142">
-        <v>-1.753125</v>
+        <v>-12.962999999999999</v>
       </c>
       <c r="E142">
-        <v>13.153124999999999</v>
+        <v>22.224999999999998</v>
       </c>
       <c r="F142" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G142">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H142" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="I142" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C143" t="s">
+        <v>35</v>
       </c>
       <c r="D143">
-        <v>-0.40769230769230752</v>
+        <v>-9.16</v>
       </c>
       <c r="E143">
-        <v>21.388461538461538</v>
+        <v>26.439999999999998</v>
       </c>
       <c r="F143" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G143">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H143" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="I143" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C144" t="s">
+        <v>36</v>
       </c>
       <c r="D144">
-        <v>-1.753125</v>
+        <v>-9.16</v>
       </c>
       <c r="E144">
-        <v>13.153124999999999</v>
+        <v>26.439999999999998</v>
       </c>
       <c r="F144" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G144">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H144" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="I144" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B145">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C145" t="s">
+        <v>36</v>
       </c>
       <c r="D145">
-        <v>-12.962999999999999</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E145">
-        <v>22.224999999999998</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F145" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G145">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H145" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="I145" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B146">
         <v>1</v>
       </c>
+      <c r="C146" t="s">
+        <v>35</v>
+      </c>
       <c r="D146">
-        <v>-1.753125</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E146">
-        <v>13.153124999999999</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F146" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G146">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H146" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="I146" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B147">
         <v>2</v>
       </c>
+      <c r="C147" t="s">
+        <v>35</v>
+      </c>
       <c r="D147">
-        <v>-13.122222222222224</v>
+        <v>-13.557142857142859</v>
       </c>
       <c r="E147">
-        <v>29.1944444444444</v>
+        <v>33.514285714285712</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G147">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H147" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="I147" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B148">
         <v>1</v>
+      </c>
+      <c r="C148" t="s">
+        <v>35</v>
       </c>
       <c r="D148">
         <v>-13.122222222222224</v>
@@ -4845,114 +4930,123 @@
         <v>11</v>
       </c>
       <c r="G148">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H148" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="I148" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B149">
         <v>2</v>
       </c>
+      <c r="C149" t="s">
+        <v>35</v>
+      </c>
       <c r="D149">
-        <v>-1.44444444444444</v>
+        <v>-23.125</v>
       </c>
       <c r="E149">
-        <v>30.911111111111115</v>
+        <v>29.665624999999999</v>
       </c>
       <c r="F149" t="s">
+        <v>15</v>
+      </c>
+      <c r="G149">
         <v>8</v>
       </c>
-      <c r="G149">
-        <v>4</v>
-      </c>
       <c r="H149" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="I149" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B150">
         <v>1</v>
       </c>
+      <c r="C150" t="s">
+        <v>35</v>
+      </c>
       <c r="D150">
-        <v>-13.122222222222224</v>
+        <v>-13.557142857142859</v>
       </c>
       <c r="E150">
-        <v>29.1944444444444</v>
+        <v>33.514285714285712</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G150">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H150" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="I150" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B151">
         <v>2</v>
       </c>
+      <c r="C151" t="s">
+        <v>35</v>
+      </c>
       <c r="D151">
-        <v>-3.7333333333333329</v>
+        <v>-13.3</v>
       </c>
       <c r="E151">
-        <v>33</v>
+        <v>39.125</v>
       </c>
       <c r="F151" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G151">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H151" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="I151" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>-13.122222222222224</v>
+        <v>2.3488888888888888</v>
       </c>
       <c r="E152">
-        <v>29.1944444444444</v>
+        <v>10.31111111111111</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H152" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I152" t="s">
         <v>81</v>
@@ -4960,25 +5054,25 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B153">
         <v>2</v>
       </c>
       <c r="D153">
-        <v>-13.557142857142859</v>
+        <v>-0.40769230769230752</v>
       </c>
       <c r="E153">
-        <v>33.514285714285712</v>
+        <v>21.388461538461538</v>
       </c>
       <c r="F153" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G153">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H153" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I153" t="s">
         <v>81</v>
@@ -4986,25 +5080,25 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>-13.122222222222224</v>
+        <v>-1.753125</v>
       </c>
       <c r="E154">
-        <v>29.1944444444444</v>
+        <v>13.153124999999999</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G154">
         <v>3</v>
       </c>
       <c r="H154" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I154" t="s">
         <v>81</v>
@@ -5012,25 +5106,25 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B155">
         <v>2</v>
       </c>
       <c r="D155">
-        <v>-9.16</v>
+        <v>-12.962999999999999</v>
       </c>
       <c r="E155">
-        <v>26.439999999999998</v>
+        <v>22.224999999999998</v>
       </c>
       <c r="F155" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G155">
         <v>4</v>
       </c>
       <c r="H155" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I155" t="s">
         <v>81</v>
@@ -5038,22 +5132,22 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156">
-        <v>2.3488888888888888</v>
+        <v>-1.753125</v>
       </c>
       <c r="E156">
-        <v>10.31111111111111</v>
+        <v>13.153124999999999</v>
       </c>
       <c r="F156" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H156" t="s">
         <v>60</v>
@@ -5064,10 +5158,10 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D157">
         <v>-0.40769230769230752</v>
@@ -5090,22 +5184,22 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>-0.40769230769230752</v>
+        <v>-1.78</v>
       </c>
       <c r="E158">
-        <v>21.388461538461538</v>
+        <v>27.603999999999996</v>
       </c>
       <c r="F158" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G158">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H158" t="s">
         <v>60</v>
@@ -5116,22 +5210,22 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B159">
         <v>2</v>
       </c>
       <c r="D159">
-        <v>-1.753125</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E159">
-        <v>13.153124999999999</v>
+        <v>33</v>
       </c>
       <c r="F159" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G159">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H159" t="s">
         <v>60</v>
@@ -5142,22 +5236,22 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D160">
-        <v>-1.753125</v>
+        <v>-2.35</v>
       </c>
       <c r="E160">
-        <v>13.153124999999999</v>
+        <v>38.449999999999996</v>
       </c>
       <c r="F160" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G160">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H160" t="s">
         <v>60</v>
@@ -5168,22 +5262,22 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D161">
-        <v>-12.962999999999999</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E161">
-        <v>22.224999999999998</v>
+        <v>33</v>
       </c>
       <c r="F161" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G161">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H161" t="s">
         <v>60</v>
@@ -5194,22 +5288,22 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>-12.962999999999999</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E162">
-        <v>22.224999999999998</v>
+        <v>33</v>
       </c>
       <c r="F162" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G162">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H162" t="s">
         <v>60</v>
@@ -5220,22 +5314,22 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B163">
         <v>2</v>
       </c>
       <c r="D163">
-        <v>-1.78</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E163">
-        <v>27.603999999999996</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F163" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G163">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H163" t="s">
         <v>60</v>
@@ -5246,22 +5340,22 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>-1.78</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E164">
-        <v>27.603999999999996</v>
+        <v>33</v>
       </c>
       <c r="F164" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G164">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H164" t="s">
         <v>60</v>
@@ -5272,22 +5366,22 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B165">
         <v>2</v>
       </c>
       <c r="D165">
-        <v>-3.7333333333333329</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E165">
-        <v>33</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F165" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G165">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H165" t="s">
         <v>60</v>
@@ -5298,22 +5392,22 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166">
-        <v>-3.7333333333333329</v>
+        <v>-1.78</v>
       </c>
       <c r="E166">
-        <v>33</v>
+        <v>27.603999999999996</v>
       </c>
       <c r="F166" t="s">
+        <v>3</v>
+      </c>
+      <c r="G166">
         <v>5</v>
-      </c>
-      <c r="G166">
-        <v>6</v>
       </c>
       <c r="H166" t="s">
         <v>60</v>
@@ -5324,22 +5418,22 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>-1.44444444444444</v>
+        <v>-12.962999999999999</v>
       </c>
       <c r="E167">
-        <v>30.911111111111115</v>
+        <v>22.224999999999998</v>
       </c>
       <c r="F167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G167">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H167" t="s">
         <v>60</v>
@@ -5350,22 +5444,22 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>-3.7333333333333329</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E168">
-        <v>33</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F168" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G168">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H168" t="s">
         <v>60</v>
@@ -5376,22 +5470,22 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B169">
         <v>2</v>
       </c>
       <c r="D169">
-        <v>-2.35</v>
+        <v>-13.557142857142859</v>
       </c>
       <c r="E169">
-        <v>38.449999999999996</v>
+        <v>33.514285714285712</v>
       </c>
       <c r="F169" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G169">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H169" t="s">
         <v>60</v>
@@ -5402,22 +5496,22 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>-3.7333333333333329</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E170">
-        <v>33</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F170" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G170">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H170" t="s">
         <v>60</v>
@@ -5428,22 +5522,22 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B171">
         <v>2</v>
       </c>
       <c r="D171">
-        <v>-13.122222222222224</v>
+        <v>-23.125</v>
       </c>
       <c r="E171">
-        <v>29.1944444444444</v>
+        <v>29.665624999999999</v>
       </c>
       <c r="F171" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G171">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H171" t="s">
         <v>60</v>
@@ -5454,22 +5548,22 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>-13.122222222222224</v>
+        <v>-13.557142857142859</v>
       </c>
       <c r="E172">
-        <v>29.1944444444444</v>
+        <v>33.514285714285712</v>
       </c>
       <c r="F172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G172">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H172" t="s">
         <v>60</v>
@@ -5480,22 +5574,22 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B173">
         <v>2</v>
       </c>
       <c r="D173">
-        <v>-23.125</v>
+        <v>-13.3</v>
       </c>
       <c r="E173">
-        <v>29.665624999999999</v>
+        <v>39.125</v>
       </c>
       <c r="F173" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G173">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H173" t="s">
         <v>60</v>
@@ -5506,25 +5600,25 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>-13.122222222222224</v>
+        <v>2.3488888888888888</v>
       </c>
       <c r="E174">
-        <v>29.1944444444444</v>
+        <v>10.31111111111111</v>
       </c>
       <c r="F174" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G174">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H174" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I174" t="s">
         <v>81</v>
@@ -5532,25 +5626,25 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B175">
         <v>2</v>
       </c>
       <c r="D175">
-        <v>-13.557142857142859</v>
+        <v>-1.753125</v>
       </c>
       <c r="E175">
-        <v>33.514285714285712</v>
+        <v>13.153124999999999</v>
       </c>
       <c r="F175" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G175">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H175" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I175" t="s">
         <v>81</v>
@@ -5558,25 +5652,25 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>-13.557142857142859</v>
+        <v>2.3488888888888888</v>
       </c>
       <c r="E176">
-        <v>33.514285714285712</v>
+        <v>10.31111111111111</v>
       </c>
       <c r="F176" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G176">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H176" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I176" t="s">
         <v>81</v>
@@ -5584,25 +5678,25 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B177">
         <v>2</v>
       </c>
       <c r="D177">
-        <v>-13.3</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E177">
-        <v>39.125</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F177" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G177">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H177" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I177" t="s">
         <v>81</v>
@@ -5610,25 +5704,25 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>2.3488888888888888</v>
+        <v>-1.753125</v>
       </c>
       <c r="E178">
-        <v>10.31111111111111</v>
+        <v>13.153124999999999</v>
       </c>
       <c r="F178" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H178" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="I178" t="s">
         <v>81</v>
@@ -5636,25 +5730,25 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B179">
         <v>2</v>
       </c>
       <c r="D179">
-        <v>-1.753125</v>
+        <v>-0.40769230769230752</v>
       </c>
       <c r="E179">
-        <v>13.153124999999999</v>
+        <v>21.388461538461538</v>
       </c>
       <c r="F179" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H179" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="I179" t="s">
         <v>81</v>
@@ -5662,7 +5756,7 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -5680,7 +5774,7 @@
         <v>2</v>
       </c>
       <c r="H180" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="I180" t="s">
         <v>81</v>
@@ -5688,25 +5782,25 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B181">
         <v>2</v>
       </c>
       <c r="D181">
-        <v>-0.40769230769230752</v>
+        <v>-5.5714285714285703</v>
       </c>
       <c r="E181">
-        <v>21.388461538461538</v>
+        <v>15.75</v>
       </c>
       <c r="F181" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G181">
         <v>3</v>
       </c>
       <c r="H181" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="I181" t="s">
         <v>81</v>
@@ -5714,25 +5808,25 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>-0.40769230769230752</v>
+        <v>-1.753125</v>
       </c>
       <c r="E182">
-        <v>21.388461538461538</v>
+        <v>13.153124999999999</v>
       </c>
       <c r="F182" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G182">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H182" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="I182" t="s">
         <v>81</v>
@@ -5740,25 +5834,25 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B183">
         <v>2</v>
       </c>
       <c r="D183">
-        <v>-5.5714285714285703</v>
+        <v>-12.962999999999999</v>
       </c>
       <c r="E183">
-        <v>15.75</v>
+        <v>22.224999999999998</v>
       </c>
       <c r="F183" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G183">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H183" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="I183" t="s">
         <v>81</v>
@@ -5766,25 +5860,25 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>-5.5714285714285703</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E184">
-        <v>15.75</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G184">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H184" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="I184" t="s">
         <v>81</v>
@@ -5792,25 +5886,25 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B185">
         <v>2</v>
       </c>
       <c r="D185">
-        <v>-12.962999999999999</v>
+        <v>-9.16</v>
       </c>
       <c r="E185">
-        <v>22.224999999999998</v>
+        <v>26.439999999999998</v>
       </c>
       <c r="F185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G185">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H185" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="I185" t="s">
         <v>81</v>
@@ -5818,25 +5912,25 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>-12.962999999999999</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E186">
-        <v>22.224999999999998</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F186" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G186">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H186" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="I186" t="s">
         <v>81</v>
@@ -5844,25 +5938,25 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B187">
         <v>2</v>
       </c>
       <c r="D187">
-        <v>-9.16</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E187">
-        <v>26.439999999999998</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G187">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H187" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="I187" t="s">
         <v>81</v>
@@ -5870,25 +5964,25 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>-9.16</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E188">
-        <v>26.439999999999998</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F188" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G188">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H188" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="I188" t="s">
         <v>81</v>
@@ -5896,25 +5990,25 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B189">
         <v>2</v>
       </c>
       <c r="D189">
-        <v>-3.7333333333333329</v>
+        <v>-13.3</v>
       </c>
       <c r="E189">
-        <v>33</v>
+        <v>39.125</v>
       </c>
       <c r="F189" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G189">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H189" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="I189" t="s">
         <v>81</v>
@@ -5922,25 +6016,25 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="B190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>-3.7333333333333329</v>
+        <v>2.3488888888888888</v>
       </c>
       <c r="E190">
-        <v>33</v>
+        <v>10.31111111111111</v>
       </c>
       <c r="F190" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G190">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I190" t="s">
         <v>81</v>
@@ -5948,25 +6042,25 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="B191">
         <v>2</v>
       </c>
       <c r="D191">
-        <v>-1.44444444444444</v>
+        <v>-1.753125</v>
       </c>
       <c r="E191">
-        <v>30.911111111111115</v>
+        <v>13.153124999999999</v>
       </c>
       <c r="F191" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G191">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H191" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I191" t="s">
         <v>81</v>
@@ -5974,25 +6068,25 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>-3.7333333333333329</v>
+        <v>-1.753125</v>
       </c>
       <c r="E192">
-        <v>33</v>
+        <v>13.153124999999999</v>
       </c>
       <c r="F192" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G192">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H192" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I192" t="s">
         <v>81</v>
@@ -6000,25 +6094,25 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B193">
         <v>2</v>
       </c>
       <c r="D193">
-        <v>-5.85</v>
+        <v>-0.40769230769230752</v>
       </c>
       <c r="E193">
-        <v>37.712499999999999</v>
+        <v>21.388461538461538</v>
       </c>
       <c r="F193" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G193">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H193" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I193" t="s">
         <v>81</v>
@@ -6026,25 +6120,25 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>-5.85</v>
+        <v>-1.753125</v>
       </c>
       <c r="E194">
-        <v>37.712499999999999</v>
+        <v>13.153124999999999</v>
       </c>
       <c r="F194" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G194">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H194" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I194" t="s">
         <v>81</v>
@@ -6052,25 +6146,25 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B195">
         <v>2</v>
       </c>
       <c r="D195">
-        <v>-2.35</v>
+        <v>-5.5714285714285703</v>
       </c>
       <c r="E195">
-        <v>38.449999999999996</v>
+        <v>15.75</v>
       </c>
       <c r="F195" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G195">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H195" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I195" t="s">
         <v>81</v>
@@ -6078,25 +6172,25 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>-5.85</v>
+        <v>-1.753125</v>
       </c>
       <c r="E196">
-        <v>37.712499999999999</v>
+        <v>13.153124999999999</v>
       </c>
       <c r="F196" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G196">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H196" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I196" t="s">
         <v>81</v>
@@ -6104,25 +6198,25 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B197">
         <v>2</v>
       </c>
       <c r="D197">
-        <v>-13.557142857142859</v>
+        <v>-12.962999999999999</v>
       </c>
       <c r="E197">
-        <v>33.514285714285712</v>
+        <v>22.224999999999998</v>
       </c>
       <c r="F197" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G197">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H197" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I197" t="s">
         <v>81</v>
@@ -6130,25 +6224,25 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>-5.85</v>
+        <v>-1.753125</v>
       </c>
       <c r="E198">
-        <v>37.712499999999999</v>
+        <v>13.153124999999999</v>
       </c>
       <c r="F198" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G198">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H198" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I198" t="s">
         <v>81</v>
@@ -6156,25 +6250,25 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B199">
         <v>2</v>
       </c>
       <c r="D199">
-        <v>-13.3</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E199">
-        <v>39.125</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F199" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G199">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H199" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I199" t="s">
         <v>81</v>
@@ -6182,25 +6276,25 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D200">
-        <v>-13.557142857142859</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E200">
-        <v>33.514285714285712</v>
+        <v>33</v>
       </c>
       <c r="F200" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G200">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H200" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I200" t="s">
         <v>81</v>
@@ -6208,32 +6302,816 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>52</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>-13.122222222222224</v>
+      </c>
+      <c r="E201">
+        <v>29.1944444444444</v>
+      </c>
+      <c r="F201" t="s">
+        <v>11</v>
+      </c>
+      <c r="G201">
+        <v>3</v>
+      </c>
+      <c r="H201" t="s">
+        <v>49</v>
+      </c>
+      <c r="I201" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>51</v>
+      </c>
+      <c r="B202">
+        <v>2</v>
+      </c>
+      <c r="D202">
+        <v>-1.44444444444444</v>
+      </c>
+      <c r="E202">
+        <v>30.911111111111115</v>
+      </c>
+      <c r="F202" t="s">
+        <v>8</v>
+      </c>
+      <c r="G202">
+        <v>4</v>
+      </c>
+      <c r="H202" t="s">
+        <v>49</v>
+      </c>
+      <c r="I202" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>51</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>-13.122222222222224</v>
+      </c>
+      <c r="E203">
+        <v>29.1944444444444</v>
+      </c>
+      <c r="F203" t="s">
+        <v>11</v>
+      </c>
+      <c r="G203">
+        <v>3</v>
+      </c>
+      <c r="H203" t="s">
+        <v>49</v>
+      </c>
+      <c r="I203" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>53</v>
+      </c>
+      <c r="B204">
+        <v>2</v>
+      </c>
+      <c r="D204">
+        <v>-9.16</v>
+      </c>
+      <c r="E204">
+        <v>26.439999999999998</v>
+      </c>
+      <c r="F204" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204">
+        <v>4</v>
+      </c>
+      <c r="H204" t="s">
+        <v>49</v>
+      </c>
+      <c r="I204" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>53</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>-13.122222222222224</v>
+      </c>
+      <c r="E205">
+        <v>29.1944444444444</v>
+      </c>
+      <c r="F205" t="s">
+        <v>11</v>
+      </c>
+      <c r="G205">
+        <v>3</v>
+      </c>
+      <c r="H205" t="s">
+        <v>49</v>
+      </c>
+      <c r="I205" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>31</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>-13.122222222222224</v>
+      </c>
+      <c r="E206">
+        <v>29.1944444444444</v>
+      </c>
+      <c r="F206" t="s">
+        <v>11</v>
+      </c>
+      <c r="G206">
+        <v>3</v>
+      </c>
+      <c r="H206" t="s">
+        <v>49</v>
+      </c>
+      <c r="I206" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>31</v>
+      </c>
+      <c r="B207">
+        <v>2</v>
+      </c>
+      <c r="D207">
+        <v>-13.557142857142859</v>
+      </c>
+      <c r="E207">
+        <v>33.514285714285712</v>
+      </c>
+      <c r="F207" t="s">
+        <v>12</v>
+      </c>
+      <c r="G207">
+        <v>4</v>
+      </c>
+      <c r="H207" t="s">
+        <v>49</v>
+      </c>
+      <c r="I207" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>18</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>2.3488888888888888</v>
+      </c>
+      <c r="E208">
+        <v>10.31111111111111</v>
+      </c>
+      <c r="F208" t="s">
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+      <c r="H208" t="s">
+        <v>62</v>
+      </c>
+      <c r="I208" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>18</v>
+      </c>
+      <c r="B209">
+        <v>2</v>
+      </c>
+      <c r="D209">
+        <v>-1.753125</v>
+      </c>
+      <c r="E209">
+        <v>13.153124999999999</v>
+      </c>
+      <c r="F209" t="s">
+        <v>1</v>
+      </c>
+      <c r="G209">
+        <v>2</v>
+      </c>
+      <c r="H209" t="s">
+        <v>62</v>
+      </c>
+      <c r="I209" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>44</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>-1.753125</v>
+      </c>
+      <c r="E210">
+        <v>13.153124999999999</v>
+      </c>
+      <c r="F210" t="s">
+        <v>1</v>
+      </c>
+      <c r="G210">
+        <v>2</v>
+      </c>
+      <c r="H210" t="s">
+        <v>62</v>
+      </c>
+      <c r="I210" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>44</v>
+      </c>
+      <c r="B211">
+        <v>2</v>
+      </c>
+      <c r="D211">
+        <v>-0.40769230769230752</v>
+      </c>
+      <c r="E211">
+        <v>21.388461538461538</v>
+      </c>
+      <c r="F211" t="s">
+        <v>2</v>
+      </c>
+      <c r="G211">
+        <v>3</v>
+      </c>
+      <c r="H211" t="s">
+        <v>62</v>
+      </c>
+      <c r="I211" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>63</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>-0.40769230769230752</v>
+      </c>
+      <c r="E212">
+        <v>21.388461538461538</v>
+      </c>
+      <c r="F212" t="s">
+        <v>2</v>
+      </c>
+      <c r="G212">
+        <v>3</v>
+      </c>
+      <c r="H212" t="s">
+        <v>62</v>
+      </c>
+      <c r="I212" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>63</v>
+      </c>
+      <c r="B213">
+        <v>2</v>
+      </c>
+      <c r="D213">
+        <v>-5.5714285714285703</v>
+      </c>
+      <c r="E213">
+        <v>15.75</v>
+      </c>
+      <c r="F213" t="s">
+        <v>7</v>
+      </c>
+      <c r="G213">
+        <v>4</v>
+      </c>
+      <c r="H213" t="s">
+        <v>62</v>
+      </c>
+      <c r="I213" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>25</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>-3.7333333333333329</v>
+      </c>
+      <c r="E214">
+        <v>33</v>
+      </c>
+      <c r="F214" t="s">
+        <v>5</v>
+      </c>
+      <c r="G214">
+        <v>7</v>
+      </c>
+      <c r="H214" t="s">
+        <v>62</v>
+      </c>
+      <c r="I214" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>25</v>
+      </c>
+      <c r="B215">
+        <v>2</v>
+      </c>
+      <c r="D215">
+        <v>-5.85</v>
+      </c>
+      <c r="E215">
+        <v>37.712499999999999</v>
+      </c>
+      <c r="F215" t="s">
+        <v>6</v>
+      </c>
+      <c r="G215">
+        <v>8</v>
+      </c>
+      <c r="H215" t="s">
+        <v>62</v>
+      </c>
+      <c r="I215" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>58</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>-3.7333333333333329</v>
+      </c>
+      <c r="E216">
+        <v>33</v>
+      </c>
+      <c r="F216" t="s">
+        <v>5</v>
+      </c>
+      <c r="G216">
+        <v>7</v>
+      </c>
+      <c r="H216" t="s">
+        <v>62</v>
+      </c>
+      <c r="I216" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>58</v>
+      </c>
+      <c r="B217">
+        <v>2</v>
+      </c>
+      <c r="D217">
+        <v>-1.44444444444444</v>
+      </c>
+      <c r="E217">
+        <v>30.911111111111115</v>
+      </c>
+      <c r="F217" t="s">
+        <v>8</v>
+      </c>
+      <c r="G217">
+        <v>8</v>
+      </c>
+      <c r="H217" t="s">
+        <v>62</v>
+      </c>
+      <c r="I217" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>26</v>
+      </c>
+      <c r="B218">
+        <v>2</v>
+      </c>
+      <c r="D218">
+        <v>-2.35</v>
+      </c>
+      <c r="E218">
+        <v>38.449999999999996</v>
+      </c>
+      <c r="F218" t="s">
+        <v>4</v>
+      </c>
+      <c r="G218">
+        <v>9</v>
+      </c>
+      <c r="H218" t="s">
+        <v>62</v>
+      </c>
+      <c r="I218" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>26</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>-5.85</v>
+      </c>
+      <c r="E219">
+        <v>37.712499999999999</v>
+      </c>
+      <c r="F219" t="s">
+        <v>6</v>
+      </c>
+      <c r="G219">
+        <v>8</v>
+      </c>
+      <c r="H219" t="s">
+        <v>62</v>
+      </c>
+      <c r="I219" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>67</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>-5.85</v>
+      </c>
+      <c r="E220">
+        <v>37.712499999999999</v>
+      </c>
+      <c r="F220" t="s">
+        <v>6</v>
+      </c>
+      <c r="G220">
+        <v>8</v>
+      </c>
+      <c r="H220" t="s">
+        <v>62</v>
+      </c>
+      <c r="I220" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>67</v>
+      </c>
+      <c r="B221">
+        <v>2</v>
+      </c>
+      <c r="D221">
+        <v>-13.557142857142859</v>
+      </c>
+      <c r="E221">
+        <v>33.514285714285712</v>
+      </c>
+      <c r="F221" t="s">
+        <v>12</v>
+      </c>
+      <c r="G221">
+        <v>9</v>
+      </c>
+      <c r="H221" t="s">
+        <v>62</v>
+      </c>
+      <c r="I221" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>68</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>-5.85</v>
+      </c>
+      <c r="E222">
+        <v>37.712499999999999</v>
+      </c>
+      <c r="F222" t="s">
+        <v>6</v>
+      </c>
+      <c r="G222">
+        <v>8</v>
+      </c>
+      <c r="H222" t="s">
+        <v>62</v>
+      </c>
+      <c r="I222" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>68</v>
+      </c>
+      <c r="B223">
+        <v>2</v>
+      </c>
+      <c r="D223">
+        <v>-13.3</v>
+      </c>
+      <c r="E223">
+        <v>39.125</v>
+      </c>
+      <c r="F223" t="s">
+        <v>13</v>
+      </c>
+      <c r="G223">
+        <v>9</v>
+      </c>
+      <c r="H223" t="s">
+        <v>62</v>
+      </c>
+      <c r="I223" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>64</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>-5.5714285714285703</v>
+      </c>
+      <c r="E224">
+        <v>15.75</v>
+      </c>
+      <c r="F224" t="s">
+        <v>7</v>
+      </c>
+      <c r="G224">
+        <v>4</v>
+      </c>
+      <c r="H224" t="s">
+        <v>62</v>
+      </c>
+      <c r="I224" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>64</v>
+      </c>
+      <c r="B225">
+        <v>2</v>
+      </c>
+      <c r="D225">
+        <v>-12.962999999999999</v>
+      </c>
+      <c r="E225">
+        <v>22.224999999999998</v>
+      </c>
+      <c r="F225" t="s">
+        <v>9</v>
+      </c>
+      <c r="G225">
+        <v>5</v>
+      </c>
+      <c r="H225" t="s">
+        <v>62</v>
+      </c>
+      <c r="I225" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>65</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>-12.962999999999999</v>
+      </c>
+      <c r="E226">
+        <v>22.224999999999998</v>
+      </c>
+      <c r="F226" t="s">
+        <v>9</v>
+      </c>
+      <c r="G226">
+        <v>5</v>
+      </c>
+      <c r="H226" t="s">
+        <v>62</v>
+      </c>
+      <c r="I226" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>65</v>
+      </c>
+      <c r="B227">
+        <v>2</v>
+      </c>
+      <c r="D227">
+        <v>-9.16</v>
+      </c>
+      <c r="E227">
+        <v>26.439999999999998</v>
+      </c>
+      <c r="F227" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227">
+        <v>6</v>
+      </c>
+      <c r="H227" t="s">
+        <v>62</v>
+      </c>
+      <c r="I227" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>66</v>
+      </c>
+      <c r="B228">
+        <v>2</v>
+      </c>
+      <c r="D228">
+        <v>-3.7333333333333329</v>
+      </c>
+      <c r="E228">
+        <v>33</v>
+      </c>
+      <c r="F228" t="s">
+        <v>5</v>
+      </c>
+      <c r="G228">
+        <v>7</v>
+      </c>
+      <c r="H228" t="s">
+        <v>62</v>
+      </c>
+      <c r="I228" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>66</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <v>-9.16</v>
+      </c>
+      <c r="E229">
+        <v>26.439999999999998</v>
+      </c>
+      <c r="F229" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229">
+        <v>6</v>
+      </c>
+      <c r="H229" t="s">
+        <v>62</v>
+      </c>
+      <c r="I229" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>69</v>
       </c>
-      <c r="B201">
-        <v>2</v>
-      </c>
-      <c r="D201">
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>-13.557142857142859</v>
+      </c>
+      <c r="E230">
+        <v>33.514285714285712</v>
+      </c>
+      <c r="F230" t="s">
+        <v>12</v>
+      </c>
+      <c r="G230">
+        <v>9</v>
+      </c>
+      <c r="H230" t="s">
+        <v>62</v>
+      </c>
+      <c r="I230" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>69</v>
+      </c>
+      <c r="B231">
+        <v>2</v>
+      </c>
+      <c r="D231">
         <v>-23.125</v>
       </c>
-      <c r="E201">
+      <c r="E231">
         <v>29.665624999999999</v>
       </c>
-      <c r="F201" t="s">
+      <c r="F231" t="s">
         <v>15</v>
       </c>
-      <c r="G201">
+      <c r="G231">
         <v>10</v>
       </c>
-      <c r="H201" t="s">
+      <c r="H231" t="s">
         <v>62</v>
       </c>
-      <c r="I201" t="s">
+      <c r="I231" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H201" xr:uid="{391668FD-0506-404B-BFDB-E3EF9515BE5F}"/>
+  <autoFilter ref="A1:I231" xr:uid="{072A6FB6-0869-4E3C-ACA6-94071C505926}">
+    <sortState ref="A2:I231">
+      <sortCondition ref="H1:H231"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/datasets/MigratoryModel/CombinedMigratoryModel_GuthrieZone_Path.xlsx
+++ b/datasets/MigratoryModel/CombinedMigratoryModel_GuthrieZone_Path.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby Ford\Desktop\BantuMigration\Github\datasets\MigratoryModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D5BF33-B23E-4237-AB5F-829492D4F610}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EC6ABE-42D3-4AE1-B185-29BCAB29D522}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" xr2:uid="{48220AAF-5FA7-46D3-8056-2130CE6EF7AB}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="ZoneCenterLocations" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MigratoryModel_TableauData!$A$1:$I$231</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MigratoryModel_TableauData!$A$1:$I$291</definedName>
   </definedNames>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="86">
   <si>
     <t>A</t>
   </si>
@@ -278,6 +278,15 @@
   </si>
   <si>
     <t>Current Work - Haversine Only</t>
+  </si>
+  <si>
+    <t>D-M</t>
+  </si>
+  <si>
+    <t>Current Work - Guthrie Only</t>
+  </si>
+  <si>
+    <t>Current Work - Y-Chromosomal (1,000 reps)</t>
   </si>
 </sst>
 </file>
@@ -629,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7D369B-DF5B-472F-B73D-7CCA41A92755}">
-  <dimension ref="A1:I231"/>
+  <dimension ref="A1:I291"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,25 +774,25 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
       </c>
       <c r="D5">
-        <v>-5.5714285714285703</v>
+        <v>-0.40769230769230752</v>
       </c>
       <c r="E5">
-        <v>15.75</v>
+        <v>21.388461538461538</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" t="s">
         <v>70</v>
@@ -794,10 +803,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
@@ -881,25 +890,25 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
       </c>
       <c r="D9">
-        <v>-1.44444444444444</v>
+        <v>-1.78</v>
       </c>
       <c r="E9">
-        <v>30.911111111111115</v>
+        <v>27.603999999999996</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H9" t="s">
         <v>70</v>
@@ -910,25 +919,25 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
       </c>
       <c r="D10">
-        <v>-1.78</v>
+        <v>-2.35</v>
       </c>
       <c r="E10">
-        <v>27.603999999999996</v>
+        <v>38.449999999999996</v>
       </c>
       <c r="F10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H10" t="s">
         <v>70</v>
@@ -939,25 +948,25 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>-9.16</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E11">
-        <v>26.439999999999998</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H11" t="s">
         <v>70</v>
@@ -968,10 +977,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -1029,22 +1038,22 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
       </c>
       <c r="D14">
-        <v>-2.35</v>
+        <v>-5.85</v>
       </c>
       <c r="E14">
-        <v>38.449999999999996</v>
+        <v>37.712499999999999</v>
       </c>
       <c r="F14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H14" t="s">
         <v>70</v>
@@ -1055,25 +1064,25 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
         <v>35</v>
       </c>
       <c r="D15">
-        <v>-5.85</v>
+        <v>-5.5714285714285703</v>
       </c>
       <c r="E15">
-        <v>37.712499999999999</v>
+        <v>15.75</v>
       </c>
       <c r="F15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G15">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H15" t="s">
         <v>70</v>
@@ -1087,22 +1096,22 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>35</v>
       </c>
       <c r="D16">
-        <v>-0.40769230769230752</v>
+        <v>-5.5714285714285703</v>
       </c>
       <c r="E16">
-        <v>21.388461538461538</v>
+        <v>15.75</v>
       </c>
       <c r="F16" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16" t="s">
         <v>70</v>
@@ -1113,25 +1122,25 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
       </c>
       <c r="D17">
-        <v>-5.5714285714285703</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E17">
-        <v>15.75</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H17" t="s">
         <v>70</v>
@@ -1145,22 +1154,22 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
       </c>
       <c r="D18">
-        <v>-3.7333333333333329</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E18">
-        <v>33</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H18" t="s">
         <v>70</v>
@@ -1171,25 +1180,25 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19">
-        <v>-1.44444444444444</v>
+        <v>-12.962999999999999</v>
       </c>
       <c r="E19">
-        <v>30.911111111111115</v>
+        <v>22.224999999999998</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H19" t="s">
         <v>70</v>
@@ -1200,10 +1209,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
@@ -1229,7 +1238,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1238,16 +1247,16 @@
         <v>35</v>
       </c>
       <c r="D21">
-        <v>-15.824999999999999</v>
+        <v>-9.16</v>
       </c>
       <c r="E21">
-        <v>15.45</v>
+        <v>26.439999999999998</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H21" t="s">
         <v>70</v>
@@ -1261,22 +1270,22 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
       </c>
       <c r="D22">
-        <v>-12.962999999999999</v>
+        <v>-9.16</v>
       </c>
       <c r="E22">
-        <v>22.224999999999998</v>
+        <v>26.439999999999998</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H22" t="s">
         <v>70</v>
@@ -1287,7 +1296,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1319,22 +1328,22 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
       </c>
       <c r="D24">
-        <v>-9.16</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E24">
-        <v>26.439999999999998</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H24" t="s">
         <v>70</v>
@@ -1345,10 +1354,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
@@ -1374,7 +1383,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1432,7 +1441,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1441,16 +1450,16 @@
         <v>35</v>
       </c>
       <c r="D28">
-        <v>-13.122222222222224</v>
+        <v>-13.557142857142859</v>
       </c>
       <c r="E28">
-        <v>29.1944444444444</v>
+        <v>33.514285714285712</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H28" t="s">
         <v>70</v>
@@ -1461,7 +1470,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1470,16 +1479,16 @@
         <v>35</v>
       </c>
       <c r="D29">
-        <v>-23.125</v>
+        <v>-13.3</v>
       </c>
       <c r="E29">
-        <v>29.665624999999999</v>
+        <v>39.125</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H29" t="s">
         <v>70</v>
@@ -1490,22 +1499,22 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
         <v>35</v>
       </c>
       <c r="D30">
-        <v>-13.557142857142859</v>
+        <v>-15.824999999999999</v>
       </c>
       <c r="E30">
-        <v>33.514285714285712</v>
+        <v>15.45</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G30">
         <v>8</v>
@@ -1519,7 +1528,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -1528,16 +1537,16 @@
         <v>35</v>
       </c>
       <c r="D31">
-        <v>-13.3</v>
+        <v>-23.125</v>
       </c>
       <c r="E31">
-        <v>39.125</v>
+        <v>29.665624999999999</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H31" t="s">
         <v>70</v>
@@ -1635,25 +1644,25 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" t="s">
         <v>35</v>
       </c>
       <c r="D35">
-        <v>-5.5714285714285703</v>
+        <v>-0.40769230769230752</v>
       </c>
       <c r="E35">
-        <v>15.75</v>
+        <v>21.388461538461538</v>
       </c>
       <c r="F35" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H35" t="s">
         <v>78</v>
@@ -1664,10 +1673,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
         <v>35</v>
@@ -1751,25 +1760,25 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D39">
-        <v>-1.44444444444444</v>
+        <v>-1.78</v>
       </c>
       <c r="E39">
-        <v>30.911111111111115</v>
+        <v>27.603999999999996</v>
       </c>
       <c r="F39" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H39" t="s">
         <v>78</v>
@@ -1780,25 +1789,25 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D40">
-        <v>-1.78</v>
+        <v>-2.35</v>
       </c>
       <c r="E40">
-        <v>27.603999999999996</v>
+        <v>38.449999999999996</v>
       </c>
       <c r="F40" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G40">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H40" t="s">
         <v>78</v>
@@ -1809,25 +1818,25 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
         <v>36</v>
       </c>
       <c r="D41">
-        <v>-12.962999999999999</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E41">
-        <v>22.224999999999998</v>
+        <v>33</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G41">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H41" t="s">
         <v>78</v>
@@ -1838,10 +1847,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
         <v>36</v>
@@ -1899,22 +1908,22 @@
         <v>26</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
         <v>35</v>
       </c>
       <c r="D44">
-        <v>-2.35</v>
+        <v>-5.85</v>
       </c>
       <c r="E44">
-        <v>38.449999999999996</v>
+        <v>37.712499999999999</v>
       </c>
       <c r="F44" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G44">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H44" t="s">
         <v>78</v>
@@ -1925,25 +1934,25 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
         <v>35</v>
       </c>
       <c r="D45">
-        <v>-5.85</v>
+        <v>-5.5714285714285703</v>
       </c>
       <c r="E45">
-        <v>37.712499999999999</v>
+        <v>15.75</v>
       </c>
       <c r="F45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G45">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H45" t="s">
         <v>78</v>
@@ -1957,22 +1966,22 @@
         <v>20</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
         <v>35</v>
       </c>
       <c r="D46">
-        <v>-0.40769230769230752</v>
+        <v>-5.5714285714285703</v>
       </c>
       <c r="E46">
-        <v>21.388461538461538</v>
+        <v>15.75</v>
       </c>
       <c r="F46" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H46" t="s">
         <v>78</v>
@@ -1983,25 +1992,25 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
         <v>35</v>
       </c>
       <c r="D47">
-        <v>-5.5714285714285703</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E47">
-        <v>15.75</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H47" t="s">
         <v>78</v>
@@ -2015,22 +2024,22 @@
         <v>24</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
         <v>36</v>
       </c>
       <c r="D48">
-        <v>-3.7333333333333329</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E48">
-        <v>33</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F48" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H48" t="s">
         <v>78</v>
@@ -2041,22 +2050,22 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" t="s">
         <v>36</v>
       </c>
       <c r="D49">
-        <v>-1.44444444444444</v>
+        <v>-12.962999999999999</v>
       </c>
       <c r="E49">
-        <v>30.911111111111115</v>
+        <v>22.224999999999998</v>
       </c>
       <c r="F49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G49">
         <v>6</v>
@@ -2099,22 +2108,22 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
         <v>36</v>
       </c>
       <c r="D51">
-        <v>-9.16</v>
+        <v>-12.962999999999999</v>
       </c>
       <c r="E51">
-        <v>26.439999999999998</v>
+        <v>22.224999999999998</v>
       </c>
       <c r="F51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G51">
         <v>7</v>
@@ -2128,13 +2137,13 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D52">
         <v>-12.962999999999999</v>
@@ -2146,7 +2155,7 @@
         <v>9</v>
       </c>
       <c r="G52">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H52" t="s">
         <v>78</v>
@@ -2157,7 +2166,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -2166,16 +2175,16 @@
         <v>36</v>
       </c>
       <c r="D53">
-        <v>-13.122222222222224</v>
+        <v>-9.16</v>
       </c>
       <c r="E53">
-        <v>29.1944444444444</v>
+        <v>26.439999999999998</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G53">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H53" t="s">
         <v>78</v>
@@ -2186,25 +2195,25 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D54">
-        <v>-12.962999999999999</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E54">
-        <v>22.224999999999998</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F54" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G54">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H54" t="s">
         <v>78</v>
@@ -2215,25 +2224,25 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" t="s">
         <v>35</v>
       </c>
       <c r="D55">
-        <v>-15.824999999999999</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E55">
-        <v>15.45</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G55">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H55" t="s">
         <v>78</v>
@@ -2244,7 +2253,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -2302,7 +2311,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -2311,16 +2320,16 @@
         <v>35</v>
       </c>
       <c r="D58">
-        <v>-13.122222222222224</v>
+        <v>-13.557142857142859</v>
       </c>
       <c r="E58">
-        <v>29.1944444444444</v>
+        <v>33.514285714285712</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G58">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H58" t="s">
         <v>78</v>
@@ -2331,7 +2340,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -2340,16 +2349,16 @@
         <v>35</v>
       </c>
       <c r="D59">
-        <v>-23.125</v>
+        <v>-13.3</v>
       </c>
       <c r="E59">
-        <v>29.665624999999999</v>
+        <v>39.125</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G59">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H59" t="s">
         <v>78</v>
@@ -2360,25 +2369,25 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" t="s">
         <v>35</v>
       </c>
       <c r="D60">
-        <v>-13.557142857142859</v>
+        <v>-15.824999999999999</v>
       </c>
       <c r="E60">
-        <v>33.514285714285712</v>
+        <v>15.45</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G60">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H60" t="s">
         <v>78</v>
@@ -2389,7 +2398,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -2398,16 +2407,16 @@
         <v>35</v>
       </c>
       <c r="D61">
-        <v>-13.3</v>
+        <v>-23.125</v>
       </c>
       <c r="E61">
-        <v>39.125</v>
+        <v>29.665624999999999</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G61">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H61" t="s">
         <v>78</v>
@@ -2439,7 +2448,7 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I62" t="s">
         <v>80</v>
@@ -2468,7 +2477,7 @@
         <v>2</v>
       </c>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I63" t="s">
         <v>80</v>
@@ -2497,7 +2506,7 @@
         <v>2</v>
       </c>
       <c r="H64" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I64" t="s">
         <v>80</v>
@@ -2505,7 +2514,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -2514,19 +2523,19 @@
         <v>35</v>
       </c>
       <c r="D65">
-        <v>-5.5714285714285703</v>
+        <v>-0.40769230769230752</v>
       </c>
       <c r="E65">
-        <v>15.75</v>
+        <v>21.388461538461538</v>
       </c>
       <c r="F65" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H65" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I65" t="s">
         <v>80</v>
@@ -2555,7 +2564,7 @@
         <v>4</v>
       </c>
       <c r="H66" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I66" t="s">
         <v>80</v>
@@ -2584,7 +2593,7 @@
         <v>5</v>
       </c>
       <c r="H67" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I67" t="s">
         <v>80</v>
@@ -2598,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D68">
         <v>-1.78</v>
@@ -2613,7 +2622,7 @@
         <v>5</v>
       </c>
       <c r="H68" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I68" t="s">
         <v>80</v>
@@ -2621,28 +2630,28 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69" t="s">
         <v>36</v>
       </c>
       <c r="D69">
-        <v>-1.44444444444444</v>
+        <v>-1.78</v>
       </c>
       <c r="E69">
-        <v>30.911111111111115</v>
+        <v>27.603999999999996</v>
       </c>
       <c r="F69" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G69">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H69" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I69" t="s">
         <v>80</v>
@@ -2650,28 +2659,28 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D70">
-        <v>-1.78</v>
+        <v>-2.35</v>
       </c>
       <c r="E70">
-        <v>27.603999999999996</v>
+        <v>38.449999999999996</v>
       </c>
       <c r="F70" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G70">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H70" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I70" t="s">
         <v>80</v>
@@ -2679,7 +2688,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -2688,19 +2697,19 @@
         <v>36</v>
       </c>
       <c r="D71">
-        <v>-12.962999999999999</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E71">
-        <v>22.224999999999998</v>
+        <v>33</v>
       </c>
       <c r="F71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G71">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H71" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I71" t="s">
         <v>80</v>
@@ -2708,7 +2717,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -2717,19 +2726,19 @@
         <v>36</v>
       </c>
       <c r="D72">
-        <v>-2.35</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E72">
-        <v>38.449999999999996</v>
+        <v>33</v>
       </c>
       <c r="F72" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G72">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H72" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I72" t="s">
         <v>80</v>
@@ -2737,7 +2746,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -2746,19 +2755,19 @@
         <v>36</v>
       </c>
       <c r="D73">
-        <v>-3.7333333333333329</v>
+        <v>-5.85</v>
       </c>
       <c r="E73">
-        <v>33</v>
+        <v>37.712499999999999</v>
       </c>
       <c r="F73" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G73">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H73" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I73" t="s">
         <v>80</v>
@@ -2766,28 +2775,28 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D74">
-        <v>-2.35</v>
+        <v>-5.85</v>
       </c>
       <c r="E74">
-        <v>38.449999999999996</v>
+        <v>37.712499999999999</v>
       </c>
       <c r="F74" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G74">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H74" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I74" t="s">
         <v>80</v>
@@ -2795,28 +2804,28 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="B75">
         <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D75">
-        <v>-5.85</v>
+        <v>-5.5714285714285703</v>
       </c>
       <c r="E75">
-        <v>37.712499999999999</v>
+        <v>15.75</v>
       </c>
       <c r="F75" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G75">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I75" t="s">
         <v>80</v>
@@ -2827,25 +2836,25 @@
         <v>20</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D76">
-        <v>-0.40769230769230752</v>
+        <v>-5.5714285714285703</v>
       </c>
       <c r="E76">
-        <v>21.388461538461538</v>
+        <v>15.75</v>
       </c>
       <c r="F76" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H76" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I76" t="s">
         <v>80</v>
@@ -2853,28 +2862,28 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D77">
-        <v>-5.5714285714285703</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E77">
-        <v>15.75</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H77" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I77" t="s">
         <v>80</v>
@@ -2882,28 +2891,28 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C78" t="s">
         <v>36</v>
       </c>
       <c r="D78">
-        <v>-2.35</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E78">
-        <v>38.449999999999996</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F78" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G78">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H78" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I78" t="s">
         <v>80</v>
@@ -2911,28 +2920,28 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C79" t="s">
         <v>36</v>
       </c>
       <c r="D79">
-        <v>-1.44444444444444</v>
+        <v>-12.962999999999999</v>
       </c>
       <c r="E79">
-        <v>30.911111111111115</v>
+        <v>22.224999999999998</v>
       </c>
       <c r="F79" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79">
         <v>8</v>
       </c>
-      <c r="G79">
-        <v>6</v>
-      </c>
       <c r="H79" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I79" t="s">
         <v>80</v>
@@ -2940,7 +2949,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -2958,10 +2967,10 @@
         <v>9</v>
       </c>
       <c r="G80">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H80" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I80" t="s">
         <v>80</v>
@@ -2969,7 +2978,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -2978,19 +2987,19 @@
         <v>36</v>
       </c>
       <c r="D81">
-        <v>-13.122222222222224</v>
+        <v>-9.16</v>
       </c>
       <c r="E81">
-        <v>29.1944444444444</v>
+        <v>26.439999999999998</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G81">
         <v>7</v>
       </c>
       <c r="H81" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I81" t="s">
         <v>80</v>
@@ -2998,7 +3007,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -3007,19 +3016,19 @@
         <v>36</v>
       </c>
       <c r="D82">
-        <v>-12.962999999999999</v>
+        <v>-9.16</v>
       </c>
       <c r="E82">
-        <v>22.224999999999998</v>
+        <v>26.439999999999998</v>
       </c>
       <c r="F82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G82">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H82" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I82" t="s">
         <v>80</v>
@@ -3027,7 +3036,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -3036,19 +3045,19 @@
         <v>36</v>
       </c>
       <c r="D83">
-        <v>-15.824999999999999</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E83">
-        <v>15.45</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G83">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H83" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I83" t="s">
         <v>80</v>
@@ -3059,25 +3068,25 @@
         <v>53</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C84" t="s">
         <v>36</v>
       </c>
       <c r="D84">
-        <v>-9.16</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E84">
-        <v>26.439999999999998</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G84">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H84" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I84" t="s">
         <v>80</v>
@@ -3085,7 +3094,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -3103,10 +3112,10 @@
         <v>11</v>
       </c>
       <c r="G85">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H85" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I85" t="s">
         <v>80</v>
@@ -3120,7 +3129,7 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D86">
         <v>-13.122222222222224</v>
@@ -3132,10 +3141,10 @@
         <v>11</v>
       </c>
       <c r="G86">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H86" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I86" t="s">
         <v>80</v>
@@ -3149,7 +3158,7 @@
         <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D87">
         <v>-13.557142857142859</v>
@@ -3161,10 +3170,10 @@
         <v>12</v>
       </c>
       <c r="G87">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H87" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I87" t="s">
         <v>80</v>
@@ -3172,7 +3181,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -3181,19 +3190,19 @@
         <v>35</v>
       </c>
       <c r="D88">
-        <v>-13.122222222222224</v>
+        <v>-13.557142857142859</v>
       </c>
       <c r="E88">
-        <v>29.1944444444444</v>
+        <v>33.514285714285712</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G88">
         <v>7</v>
       </c>
       <c r="H88" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I88" t="s">
         <v>80</v>
@@ -3201,7 +3210,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -3210,19 +3219,19 @@
         <v>35</v>
       </c>
       <c r="D89">
-        <v>-23.125</v>
+        <v>-13.3</v>
       </c>
       <c r="E89">
-        <v>29.665624999999999</v>
+        <v>39.125</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G89">
         <v>8</v>
       </c>
       <c r="H89" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I89" t="s">
         <v>80</v>
@@ -3230,28 +3239,28 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D90">
-        <v>-13.557142857142859</v>
+        <v>-15.824999999999999</v>
       </c>
       <c r="E90">
-        <v>33.514285714285712</v>
+        <v>15.45</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G90">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H90" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I90" t="s">
         <v>80</v>
@@ -3259,28 +3268,28 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B91">
         <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D91">
-        <v>-13.3</v>
+        <v>-23.125</v>
       </c>
       <c r="E91">
-        <v>39.125</v>
+        <v>29.665624999999999</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G91">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H91" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I91" t="s">
         <v>80</v>
@@ -3309,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I92" t="s">
         <v>80</v>
@@ -3338,7 +3347,7 @@
         <v>2</v>
       </c>
       <c r="H93" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I93" t="s">
         <v>80</v>
@@ -3346,13 +3355,13 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D94">
         <v>-1.753125</v>
@@ -3367,7 +3376,7 @@
         <v>2</v>
       </c>
       <c r="H94" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I94" t="s">
         <v>80</v>
@@ -3375,10 +3384,10 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" t="s">
         <v>36</v>
@@ -3393,10 +3402,10 @@
         <v>2</v>
       </c>
       <c r="G95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H95" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I95" t="s">
         <v>80</v>
@@ -3404,10 +3413,10 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C96" t="s">
         <v>36</v>
@@ -3422,10 +3431,10 @@
         <v>2</v>
       </c>
       <c r="G96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H96" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I96" t="s">
         <v>80</v>
@@ -3451,10 +3460,10 @@
         <v>3</v>
       </c>
       <c r="G97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H97" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I97" t="s">
         <v>80</v>
@@ -3462,7 +3471,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -3471,19 +3480,19 @@
         <v>36</v>
       </c>
       <c r="D98">
-        <v>-0.40769230769230752</v>
+        <v>-1.78</v>
       </c>
       <c r="E98">
-        <v>21.388461538461538</v>
+        <v>27.603999999999996</v>
       </c>
       <c r="F98" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G98">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H98" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I98" t="s">
         <v>80</v>
@@ -3491,28 +3500,28 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C99" t="s">
         <v>36</v>
       </c>
       <c r="D99">
-        <v>-5.5714285714285703</v>
+        <v>-1.78</v>
       </c>
       <c r="E99">
-        <v>15.75</v>
+        <v>27.603999999999996</v>
       </c>
       <c r="F99" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G99">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H99" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I99" t="s">
         <v>80</v>
@@ -3520,28 +3529,28 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D100">
-        <v>-1.78</v>
+        <v>-2.35</v>
       </c>
       <c r="E100">
-        <v>27.603999999999996</v>
+        <v>38.449999999999996</v>
       </c>
       <c r="F100" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G100">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H100" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I100" t="s">
         <v>80</v>
@@ -3549,28 +3558,28 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D101">
-        <v>-1.44444444444444</v>
+        <v>-2.35</v>
       </c>
       <c r="E101">
-        <v>30.911111111111115</v>
+        <v>38.449999999999996</v>
       </c>
       <c r="F101" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G101">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H101" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I101" t="s">
         <v>80</v>
@@ -3578,28 +3587,28 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C102" t="s">
         <v>36</v>
       </c>
       <c r="D102">
-        <v>-1.78</v>
+        <v>-2.35</v>
       </c>
       <c r="E102">
-        <v>27.603999999999996</v>
+        <v>38.449999999999996</v>
       </c>
       <c r="F102" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G102">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H102" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I102" t="s">
         <v>80</v>
@@ -3607,7 +3616,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="B103">
         <v>2</v>
@@ -3616,19 +3625,19 @@
         <v>36</v>
       </c>
       <c r="D103">
-        <v>-9.16</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E103">
-        <v>26.439999999999998</v>
+        <v>33</v>
       </c>
       <c r="F103" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G103">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H103" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I103" t="s">
         <v>80</v>
@@ -3636,28 +3645,28 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C104" t="s">
         <v>36</v>
       </c>
       <c r="D104">
-        <v>-2.35</v>
+        <v>-5.85</v>
       </c>
       <c r="E104">
-        <v>38.449999999999996</v>
+        <v>37.712499999999999</v>
       </c>
       <c r="F104" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G104">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H104" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I104" t="s">
         <v>80</v>
@@ -3665,28 +3674,28 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="B105">
         <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D105">
-        <v>-3.7333333333333329</v>
+        <v>-5.5714285714285703</v>
       </c>
       <c r="E105">
-        <v>33</v>
+        <v>15.75</v>
       </c>
       <c r="F105" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G105">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H105" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I105" t="s">
         <v>80</v>
@@ -3694,7 +3703,7 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -3703,19 +3712,19 @@
         <v>36</v>
       </c>
       <c r="D106">
-        <v>-2.35</v>
+        <v>-5.5714285714285703</v>
       </c>
       <c r="E106">
-        <v>38.449999999999996</v>
+        <v>15.75</v>
       </c>
       <c r="F106" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G106">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H106" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I106" t="s">
         <v>80</v>
@@ -3723,7 +3732,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -3732,19 +3741,19 @@
         <v>36</v>
       </c>
       <c r="D107">
-        <v>-5.85</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E107">
-        <v>37.712499999999999</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F107" t="s">
+        <v>8</v>
+      </c>
+      <c r="G107">
         <v>6</v>
       </c>
-      <c r="G107">
-        <v>7</v>
-      </c>
       <c r="H107" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I107" t="s">
         <v>80</v>
@@ -3755,25 +3764,25 @@
         <v>71</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C108" t="s">
         <v>36</v>
       </c>
       <c r="D108">
-        <v>-2.35</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E108">
-        <v>38.449999999999996</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F108" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G108">
         <v>6</v>
       </c>
       <c r="H108" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I108" t="s">
         <v>80</v>
@@ -3781,28 +3790,28 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C109" t="s">
         <v>36</v>
       </c>
       <c r="D109">
-        <v>-1.44444444444444</v>
+        <v>-12.962999999999999</v>
       </c>
       <c r="E109">
-        <v>30.911111111111115</v>
+        <v>22.224999999999998</v>
       </c>
       <c r="F109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G109">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H109" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I109" t="s">
         <v>80</v>
@@ -3810,13 +3819,13 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D110">
         <v>-12.962999999999999</v>
@@ -3831,7 +3840,7 @@
         <v>6</v>
       </c>
       <c r="H110" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I110" t="s">
         <v>80</v>
@@ -3842,25 +3851,25 @@
         <v>28</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D111">
-        <v>-15.824999999999999</v>
+        <v>-12.962999999999999</v>
       </c>
       <c r="E111">
-        <v>15.45</v>
+        <v>22.224999999999998</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G111">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H111" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I111" t="s">
         <v>80</v>
@@ -3868,28 +3877,28 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B112">
         <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D112">
-        <v>-12.962999999999999</v>
+        <v>-9.16</v>
       </c>
       <c r="E112">
-        <v>22.224999999999998</v>
+        <v>26.439999999999998</v>
       </c>
       <c r="F112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G112">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H112" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I112" t="s">
         <v>80</v>
@@ -3897,28 +3906,28 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D113">
-        <v>-9.16</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E113">
-        <v>26.439999999999998</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G113">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H113" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I113" t="s">
         <v>80</v>
@@ -3926,7 +3935,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -3935,19 +3944,19 @@
         <v>36</v>
       </c>
       <c r="D114">
-        <v>-9.16</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E114">
-        <v>26.439999999999998</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G114">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H114" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I114" t="s">
         <v>80</v>
@@ -3955,13 +3964,13 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D115">
         <v>-13.122222222222224</v>
@@ -3973,10 +3982,10 @@
         <v>11</v>
       </c>
       <c r="G115">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H115" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I115" t="s">
         <v>80</v>
@@ -3984,13 +3993,13 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B116">
         <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D116">
         <v>-13.122222222222224</v>
@@ -4002,10 +4011,10 @@
         <v>11</v>
       </c>
       <c r="G116">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H116" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I116" t="s">
         <v>80</v>
@@ -4019,7 +4028,7 @@
         <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D117">
         <v>-13.557142857142859</v>
@@ -4031,10 +4040,10 @@
         <v>12</v>
       </c>
       <c r="G117">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H117" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I117" t="s">
         <v>80</v>
@@ -4042,7 +4051,7 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -4051,19 +4060,19 @@
         <v>35</v>
       </c>
       <c r="D118">
-        <v>-13.122222222222224</v>
+        <v>-13.557142857142859</v>
       </c>
       <c r="E118">
-        <v>29.1944444444444</v>
+        <v>33.514285714285712</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G118">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H118" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I118" t="s">
         <v>80</v>
@@ -4071,7 +4080,7 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B119">
         <v>2</v>
@@ -4080,19 +4089,19 @@
         <v>35</v>
       </c>
       <c r="D119">
-        <v>-23.125</v>
+        <v>-13.3</v>
       </c>
       <c r="E119">
-        <v>29.665624999999999</v>
+        <v>39.125</v>
       </c>
       <c r="F119" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G119">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H119" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I119" t="s">
         <v>80</v>
@@ -4100,28 +4109,28 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D120">
-        <v>-13.557142857142859</v>
+        <v>-15.824999999999999</v>
       </c>
       <c r="E120">
-        <v>33.514285714285712</v>
+        <v>15.45</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G120">
         <v>7</v>
       </c>
       <c r="H120" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I120" t="s">
         <v>80</v>
@@ -4129,7 +4138,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B121">
         <v>2</v>
@@ -4138,19 +4147,19 @@
         <v>35</v>
       </c>
       <c r="D121">
-        <v>-13.3</v>
+        <v>-23.125</v>
       </c>
       <c r="E121">
-        <v>39.125</v>
+        <v>29.665624999999999</v>
       </c>
       <c r="F121" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G121">
         <v>8</v>
       </c>
       <c r="H121" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I121" t="s">
         <v>80</v>
@@ -4179,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I122" t="s">
         <v>80</v>
@@ -4208,7 +4217,7 @@
         <v>2</v>
       </c>
       <c r="H123" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I123" t="s">
         <v>80</v>
@@ -4216,13 +4225,13 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D124">
         <v>-1.753125</v>
@@ -4237,7 +4246,7 @@
         <v>2</v>
       </c>
       <c r="H124" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I124" t="s">
         <v>80</v>
@@ -4245,28 +4254,28 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B125">
         <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D125">
-        <v>-5.5714285714285703</v>
+        <v>-0.40769230769230752</v>
       </c>
       <c r="E125">
-        <v>15.75</v>
+        <v>21.388461538461538</v>
       </c>
       <c r="F125" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G125">
         <v>3</v>
       </c>
       <c r="H125" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I125" t="s">
         <v>80</v>
@@ -4292,10 +4301,10 @@
         <v>2</v>
       </c>
       <c r="G126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H126" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I126" t="s">
         <v>80</v>
@@ -4303,28 +4312,28 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="B127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C127" t="s">
         <v>36</v>
       </c>
       <c r="D127">
-        <v>-1.78</v>
+        <v>-0.40769230769230752</v>
       </c>
       <c r="E127">
-        <v>27.603999999999996</v>
+        <v>21.388461538461538</v>
       </c>
       <c r="F127" t="s">
+        <v>2</v>
+      </c>
+      <c r="G127">
         <v>3</v>
       </c>
-      <c r="G127">
-        <v>5</v>
-      </c>
       <c r="H127" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I127" t="s">
         <v>80</v>
@@ -4332,10 +4341,10 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C128" t="s">
         <v>36</v>
@@ -4350,10 +4359,10 @@
         <v>3</v>
       </c>
       <c r="G128">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H128" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I128" t="s">
         <v>80</v>
@@ -4364,25 +4373,25 @@
         <v>22</v>
       </c>
       <c r="B129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D129">
-        <v>-1.44444444444444</v>
+        <v>-1.78</v>
       </c>
       <c r="E129">
-        <v>30.911111111111115</v>
+        <v>27.603999999999996</v>
       </c>
       <c r="F129" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G129">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H129" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I129" t="s">
         <v>80</v>
@@ -4390,7 +4399,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -4399,19 +4408,19 @@
         <v>36</v>
       </c>
       <c r="D130">
-        <v>-3.7333333333333329</v>
+        <v>-1.78</v>
       </c>
       <c r="E130">
-        <v>33</v>
+        <v>27.603999999999996</v>
       </c>
       <c r="F130" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G130">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H130" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I130" t="s">
         <v>80</v>
@@ -4419,28 +4428,28 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C131" t="s">
         <v>36</v>
       </c>
       <c r="D131">
-        <v>-5.85</v>
+        <v>-2.35</v>
       </c>
       <c r="E131">
-        <v>37.712499999999999</v>
+        <v>38.449999999999996</v>
       </c>
       <c r="F131" t="s">
+        <v>4</v>
+      </c>
+      <c r="G131">
         <v>6</v>
       </c>
-      <c r="G131">
-        <v>8</v>
-      </c>
       <c r="H131" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I131" t="s">
         <v>80</v>
@@ -4448,13 +4457,13 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D132">
         <v>-2.35</v>
@@ -4466,10 +4475,10 @@
         <v>4</v>
       </c>
       <c r="G132">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H132" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I132" t="s">
         <v>80</v>
@@ -4477,28 +4486,28 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D133">
-        <v>-5.85</v>
+        <v>-2.35</v>
       </c>
       <c r="E133">
-        <v>37.712499999999999</v>
+        <v>38.449999999999996</v>
       </c>
       <c r="F133" t="s">
+        <v>4</v>
+      </c>
+      <c r="G133">
         <v>6</v>
       </c>
-      <c r="G133">
-        <v>8</v>
-      </c>
       <c r="H133" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I133" t="s">
         <v>80</v>
@@ -4506,7 +4515,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="B134">
         <v>2</v>
@@ -4515,19 +4524,19 @@
         <v>36</v>
       </c>
       <c r="D134">
-        <v>-0.40769230769230752</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E134">
-        <v>21.388461538461538</v>
+        <v>33</v>
       </c>
       <c r="F134" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G134">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H134" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I134" t="s">
         <v>80</v>
@@ -4535,28 +4544,28 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C135" t="s">
         <v>36</v>
       </c>
       <c r="D135">
-        <v>-5.5714285714285703</v>
+        <v>-5.85</v>
       </c>
       <c r="E135">
-        <v>15.75</v>
+        <v>37.712499999999999</v>
       </c>
       <c r="F135" t="s">
+        <v>6</v>
+      </c>
+      <c r="G135">
         <v>7</v>
       </c>
-      <c r="G135">
-        <v>3</v>
-      </c>
       <c r="H135" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I135" t="s">
         <v>80</v>
@@ -4564,7 +4573,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="B136">
         <v>2</v>
@@ -4573,19 +4582,19 @@
         <v>36</v>
       </c>
       <c r="D136">
-        <v>-3.7333333333333329</v>
+        <v>-5.5714285714285703</v>
       </c>
       <c r="E136">
-        <v>33</v>
+        <v>15.75</v>
       </c>
       <c r="F136" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G136">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H136" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I136" t="s">
         <v>80</v>
@@ -4593,13 +4602,13 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D137">
         <v>-1.44444444444444</v>
@@ -4611,10 +4620,10 @@
         <v>8</v>
       </c>
       <c r="G137">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H137" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I137" t="s">
         <v>80</v>
@@ -4622,7 +4631,7 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -4640,10 +4649,10 @@
         <v>8</v>
       </c>
       <c r="G138">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H138" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I138" t="s">
         <v>80</v>
@@ -4651,28 +4660,28 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D139">
-        <v>-13.122222222222224</v>
+        <v>-12.962999999999999</v>
       </c>
       <c r="E139">
-        <v>29.1944444444444</v>
+        <v>22.224999999999998</v>
       </c>
       <c r="F139" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G139">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H139" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I139" t="s">
         <v>80</v>
@@ -4680,10 +4689,10 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C140" t="s">
         <v>35</v>
@@ -4698,10 +4707,10 @@
         <v>9</v>
       </c>
       <c r="G140">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H140" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I140" t="s">
         <v>80</v>
@@ -4709,28 +4718,28 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B141">
         <v>2</v>
       </c>
       <c r="C141" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D141">
-        <v>-15.824999999999999</v>
+        <v>-9.16</v>
       </c>
       <c r="E141">
-        <v>15.45</v>
+        <v>26.439999999999998</v>
       </c>
       <c r="F141" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G141">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H141" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I141" t="s">
         <v>80</v>
@@ -4741,25 +4750,25 @@
         <v>27</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C142" t="s">
         <v>35</v>
       </c>
       <c r="D142">
-        <v>-12.962999999999999</v>
+        <v>-9.16</v>
       </c>
       <c r="E142">
-        <v>22.224999999999998</v>
+        <v>26.439999999999998</v>
       </c>
       <c r="F142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G142">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H142" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I142" t="s">
         <v>80</v>
@@ -4767,13 +4776,13 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B143">
         <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D143">
         <v>-9.16</v>
@@ -4785,10 +4794,10 @@
         <v>10</v>
       </c>
       <c r="G143">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H143" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I143" t="s">
         <v>80</v>
@@ -4796,7 +4805,7 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B144">
         <v>2</v>
@@ -4805,19 +4814,19 @@
         <v>36</v>
       </c>
       <c r="D144">
-        <v>-9.16</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E144">
-        <v>26.439999999999998</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G144">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H144" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I144" t="s">
         <v>80</v>
@@ -4825,7 +4834,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -4843,10 +4852,10 @@
         <v>11</v>
       </c>
       <c r="G145">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H145" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I145" t="s">
         <v>80</v>
@@ -4854,7 +4863,7 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -4872,10 +4881,10 @@
         <v>11</v>
       </c>
       <c r="G146">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H146" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I146" t="s">
         <v>80</v>
@@ -4889,7 +4898,7 @@
         <v>2</v>
       </c>
       <c r="C147" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D147">
         <v>-13.557142857142859</v>
@@ -4901,10 +4910,10 @@
         <v>12</v>
       </c>
       <c r="G147">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H147" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I147" t="s">
         <v>80</v>
@@ -4912,7 +4921,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -4921,19 +4930,19 @@
         <v>35</v>
       </c>
       <c r="D148">
-        <v>-13.122222222222224</v>
+        <v>-13.557142857142859</v>
       </c>
       <c r="E148">
-        <v>29.1944444444444</v>
+        <v>33.514285714285712</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G148">
         <v>7</v>
       </c>
       <c r="H148" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I148" t="s">
         <v>80</v>
@@ -4941,7 +4950,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B149">
         <v>2</v>
@@ -4950,19 +4959,19 @@
         <v>35</v>
       </c>
       <c r="D149">
-        <v>-23.125</v>
+        <v>-13.3</v>
       </c>
       <c r="E149">
-        <v>29.665624999999999</v>
+        <v>39.125</v>
       </c>
       <c r="F149" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G149">
         <v>8</v>
       </c>
       <c r="H149" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I149" t="s">
         <v>80</v>
@@ -4970,28 +4979,28 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C150" t="s">
         <v>35</v>
       </c>
       <c r="D150">
-        <v>-13.557142857142859</v>
+        <v>-15.824999999999999</v>
       </c>
       <c r="E150">
-        <v>33.514285714285712</v>
+        <v>15.45</v>
       </c>
       <c r="F150" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G150">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H150" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I150" t="s">
         <v>80</v>
@@ -4999,7 +5008,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B151">
         <v>2</v>
@@ -5008,19 +5017,19 @@
         <v>35</v>
       </c>
       <c r="D151">
-        <v>-13.3</v>
+        <v>-23.125</v>
       </c>
       <c r="E151">
-        <v>39.125</v>
+        <v>29.665624999999999</v>
       </c>
       <c r="F151" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G151">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H151" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I151" t="s">
         <v>80</v>
@@ -5028,10 +5037,13 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B152">
         <v>1</v>
+      </c>
+      <c r="C152" t="s">
+        <v>35</v>
       </c>
       <c r="D152">
         <v>2.3488888888888888</v>
@@ -5046,44 +5058,50 @@
         <v>1</v>
       </c>
       <c r="H152" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I152" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B153">
         <v>2</v>
       </c>
+      <c r="C153" t="s">
+        <v>35</v>
+      </c>
       <c r="D153">
-        <v>-0.40769230769230752</v>
+        <v>-1.753125</v>
       </c>
       <c r="E153">
-        <v>21.388461538461538</v>
+        <v>13.153124999999999</v>
       </c>
       <c r="F153" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G153">
         <v>2</v>
       </c>
       <c r="H153" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I153" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B154">
         <v>1</v>
+      </c>
+      <c r="C154" t="s">
+        <v>35</v>
       </c>
       <c r="D154">
         <v>-1.753125</v>
@@ -5095,99 +5113,111 @@
         <v>1</v>
       </c>
       <c r="G154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H154" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I154" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B155">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C155" t="s">
+        <v>36</v>
       </c>
       <c r="D155">
-        <v>-12.962999999999999</v>
+        <v>-0.40769230769230752</v>
       </c>
       <c r="E155">
-        <v>22.224999999999998</v>
+        <v>21.388461538461538</v>
       </c>
       <c r="F155" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G155">
         <v>4</v>
       </c>
       <c r="H155" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I155" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B156">
         <v>2</v>
       </c>
+      <c r="C156" t="s">
+        <v>36</v>
+      </c>
       <c r="D156">
-        <v>-1.753125</v>
+        <v>-0.40769230769230752</v>
       </c>
       <c r="E156">
-        <v>13.153124999999999</v>
+        <v>21.388461538461538</v>
       </c>
       <c r="F156" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G156">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H156" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I156" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C157" t="s">
+        <v>36</v>
       </c>
       <c r="D157">
-        <v>-0.40769230769230752</v>
+        <v>-1.78</v>
       </c>
       <c r="E157">
-        <v>21.388461538461538</v>
+        <v>27.603999999999996</v>
       </c>
       <c r="F157" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G157">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H157" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I157" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B158">
         <v>1</v>
+      </c>
+      <c r="C158" t="s">
+        <v>36</v>
       </c>
       <c r="D158">
         <v>-1.78</v>
@@ -5202,70 +5232,79 @@
         <v>5</v>
       </c>
       <c r="H158" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I158" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B159">
         <v>2</v>
       </c>
+      <c r="C159" t="s">
+        <v>35</v>
+      </c>
       <c r="D159">
-        <v>-3.7333333333333329</v>
+        <v>-2.35</v>
       </c>
       <c r="E159">
-        <v>33</v>
+        <v>38.449999999999996</v>
       </c>
       <c r="F159" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G159">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H159" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I159" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B160">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C160" t="s">
+        <v>36</v>
       </c>
       <c r="D160">
-        <v>-2.35</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E160">
-        <v>38.449999999999996</v>
+        <v>33</v>
       </c>
       <c r="F160" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G160">
         <v>7</v>
       </c>
       <c r="H160" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I160" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C161" t="s">
+        <v>36</v>
       </c>
       <c r="D161">
         <v>-3.7333333333333329</v>
@@ -5277,871 +5316,970 @@
         <v>5</v>
       </c>
       <c r="G161">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H161" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I161" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C162" t="s">
+        <v>36</v>
       </c>
       <c r="D162">
-        <v>-3.7333333333333329</v>
+        <v>-5.85</v>
       </c>
       <c r="E162">
-        <v>33</v>
+        <v>37.712499999999999</v>
       </c>
       <c r="F162" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G162">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H162" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I162" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="B163">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C163" t="s">
+        <v>35</v>
       </c>
       <c r="D163">
-        <v>-1.44444444444444</v>
+        <v>-5.85</v>
       </c>
       <c r="E163">
-        <v>30.911111111111115</v>
+        <v>37.712499999999999</v>
       </c>
       <c r="F163" t="s">
+        <v>6</v>
+      </c>
+      <c r="G163">
         <v>8</v>
       </c>
-      <c r="G163">
-        <v>7</v>
-      </c>
       <c r="H163" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I163" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C164" t="s">
+        <v>35</v>
       </c>
       <c r="D164">
-        <v>-3.7333333333333329</v>
+        <v>-5.5714285714285703</v>
       </c>
       <c r="E164">
-        <v>33</v>
+        <v>15.75</v>
       </c>
       <c r="F164" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G164">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H164" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I164" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C165" t="s">
+        <v>36</v>
       </c>
       <c r="D165">
-        <v>-13.122222222222224</v>
+        <v>-5.5714285714285703</v>
       </c>
       <c r="E165">
-        <v>29.1944444444444</v>
+        <v>15.75</v>
       </c>
       <c r="F165" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G165">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H165" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I165" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B166">
         <v>2</v>
       </c>
+      <c r="C166" t="s">
+        <v>36</v>
+      </c>
       <c r="D166">
-        <v>-1.78</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E166">
-        <v>27.603999999999996</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F166" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G166">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H166" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I166" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="B167">
         <v>1</v>
       </c>
+      <c r="C167" t="s">
+        <v>36</v>
+      </c>
       <c r="D167">
-        <v>-12.962999999999999</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E167">
-        <v>22.224999999999998</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F167" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G167">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H167" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I167" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B168">
         <v>1</v>
       </c>
+      <c r="C168" t="s">
+        <v>36</v>
+      </c>
       <c r="D168">
-        <v>-13.122222222222224</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E168">
-        <v>29.1944444444444</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F168" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G168">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H168" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I168" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B169">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C169" t="s">
+        <v>35</v>
       </c>
       <c r="D169">
-        <v>-13.557142857142859</v>
+        <v>-12.962999999999999</v>
       </c>
       <c r="E169">
-        <v>33.514285714285712</v>
+        <v>22.224999999999998</v>
       </c>
       <c r="F169" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G169">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H169" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I169" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C170" t="s">
+        <v>35</v>
       </c>
       <c r="D170">
-        <v>-13.122222222222224</v>
+        <v>-12.962999999999999</v>
       </c>
       <c r="E170">
-        <v>29.1944444444444</v>
+        <v>22.224999999999998</v>
       </c>
       <c r="F170" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G170">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H170" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I170" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B171">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C171" t="s">
+        <v>35</v>
       </c>
       <c r="D171">
-        <v>-23.125</v>
+        <v>-9.16</v>
       </c>
       <c r="E171">
-        <v>29.665624999999999</v>
+        <v>26.439999999999998</v>
       </c>
       <c r="F171" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G171">
         <v>8</v>
       </c>
       <c r="H171" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I171" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C172" t="s">
+        <v>36</v>
       </c>
       <c r="D172">
-        <v>-13.557142857142859</v>
+        <v>-9.16</v>
       </c>
       <c r="E172">
-        <v>33.514285714285712</v>
+        <v>26.439999999999998</v>
       </c>
       <c r="F172" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G172">
         <v>8</v>
       </c>
       <c r="H172" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I172" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B173">
         <v>2</v>
       </c>
+      <c r="C173" t="s">
+        <v>36</v>
+      </c>
       <c r="D173">
-        <v>-13.3</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E173">
-        <v>39.125</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F173" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G173">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H173" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I173" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B174">
         <v>1</v>
       </c>
+      <c r="C174" t="s">
+        <v>36</v>
+      </c>
       <c r="D174">
-        <v>2.3488888888888888</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E174">
-        <v>10.31111111111111</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F174" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G174">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H174" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I174" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B175">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C175" t="s">
+        <v>35</v>
       </c>
       <c r="D175">
-        <v>-1.753125</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E175">
-        <v>13.153124999999999</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F175" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G175">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H175" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I175" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B176">
         <v>1</v>
       </c>
+      <c r="C176" t="s">
+        <v>35</v>
+      </c>
       <c r="D176">
-        <v>2.3488888888888888</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E176">
-        <v>10.31111111111111</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F176" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G176">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H176" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I176" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B177">
         <v>2</v>
       </c>
+      <c r="C177" t="s">
+        <v>35</v>
+      </c>
       <c r="D177">
-        <v>-1.44444444444444</v>
+        <v>-13.557142857142859</v>
       </c>
       <c r="E177">
-        <v>30.911111111111115</v>
+        <v>33.514285714285712</v>
       </c>
       <c r="F177" t="s">
+        <v>12</v>
+      </c>
+      <c r="G177">
         <v>8</v>
       </c>
-      <c r="G177">
-        <v>2</v>
-      </c>
       <c r="H177" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I177" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B178">
         <v>1</v>
       </c>
+      <c r="C178" t="s">
+        <v>35</v>
+      </c>
       <c r="D178">
-        <v>-1.753125</v>
+        <v>-13.557142857142859</v>
       </c>
       <c r="E178">
-        <v>13.153124999999999</v>
+        <v>33.514285714285712</v>
       </c>
       <c r="F178" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G178">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H178" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I178" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B179">
         <v>2</v>
       </c>
+      <c r="C179" t="s">
+        <v>35</v>
+      </c>
       <c r="D179">
-        <v>-0.40769230769230752</v>
+        <v>-13.3</v>
       </c>
       <c r="E179">
-        <v>21.388461538461538</v>
+        <v>39.125</v>
       </c>
       <c r="F179" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G179">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H179" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I179" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C180" t="s">
+        <v>35</v>
       </c>
       <c r="D180">
-        <v>-1.753125</v>
+        <v>-15.824999999999999</v>
       </c>
       <c r="E180">
-        <v>13.153124999999999</v>
+        <v>15.45</v>
       </c>
       <c r="F180" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G180">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H180" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I180" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B181">
         <v>2</v>
       </c>
+      <c r="C181" t="s">
+        <v>35</v>
+      </c>
       <c r="D181">
-        <v>-5.5714285714285703</v>
+        <v>-23.125</v>
       </c>
       <c r="E181">
-        <v>15.75</v>
+        <v>29.665624999999999</v>
       </c>
       <c r="F181" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G181">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H181" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I181" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B182">
         <v>1</v>
       </c>
+      <c r="C182" t="s">
+        <v>35</v>
+      </c>
       <c r="D182">
-        <v>-1.753125</v>
+        <v>2.3488888888888888</v>
       </c>
       <c r="E182">
-        <v>13.153124999999999</v>
+        <v>10.31111111111111</v>
       </c>
       <c r="F182" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="I182" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B183">
         <v>2</v>
       </c>
+      <c r="C183" t="s">
+        <v>35</v>
+      </c>
       <c r="D183">
-        <v>-12.962999999999999</v>
+        <v>-1.753125</v>
       </c>
       <c r="E183">
-        <v>22.224999999999998</v>
+        <v>13.153124999999999</v>
       </c>
       <c r="F183" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H183" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="I183" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B184">
         <v>1</v>
       </c>
+      <c r="C184" t="s">
+        <v>35</v>
+      </c>
       <c r="D184">
-        <v>-1.44444444444444</v>
+        <v>-1.753125</v>
       </c>
       <c r="E184">
-        <v>30.911111111111115</v>
+        <v>13.153124999999999</v>
       </c>
       <c r="F184" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G184">
         <v>2</v>
       </c>
       <c r="H184" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="I184" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B185">
         <v>2</v>
       </c>
+      <c r="C185" t="s">
+        <v>35</v>
+      </c>
       <c r="D185">
-        <v>-9.16</v>
+        <v>-0.40769230769230752</v>
       </c>
       <c r="E185">
-        <v>26.439999999999998</v>
+        <v>21.388461538461538</v>
       </c>
       <c r="F185" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G185">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H185" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="I185" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="B186">
         <v>1</v>
       </c>
+      <c r="C186" t="s">
+        <v>35</v>
+      </c>
       <c r="D186">
-        <v>-1.44444444444444</v>
+        <v>-0.40769230769230752</v>
       </c>
       <c r="E186">
-        <v>30.911111111111115</v>
+        <v>21.388461538461538</v>
       </c>
       <c r="F186" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G186">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H186" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="I186" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="B187">
         <v>2</v>
       </c>
+      <c r="C187" t="s">
+        <v>35</v>
+      </c>
       <c r="D187">
-        <v>-13.122222222222224</v>
+        <v>-1.78</v>
       </c>
       <c r="E187">
-        <v>29.1944444444444</v>
+        <v>27.603999999999996</v>
       </c>
       <c r="F187" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G187">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H187" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="I187" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B188">
         <v>1</v>
       </c>
+      <c r="C188" t="s">
+        <v>35</v>
+      </c>
       <c r="D188">
-        <v>-1.44444444444444</v>
+        <v>-1.78</v>
       </c>
       <c r="E188">
-        <v>30.911111111111115</v>
+        <v>27.603999999999996</v>
       </c>
       <c r="F188" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G188">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H188" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="I188" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B189">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C189" t="s">
+        <v>35</v>
       </c>
       <c r="D189">
-        <v>-13.3</v>
+        <v>-1.78</v>
       </c>
       <c r="E189">
-        <v>39.125</v>
+        <v>27.603999999999996</v>
       </c>
       <c r="F189" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G189">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H189" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="I189" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C190" t="s">
+        <v>35</v>
       </c>
       <c r="D190">
-        <v>2.3488888888888888</v>
+        <v>-2.35</v>
       </c>
       <c r="E190">
-        <v>10.31111111111111</v>
+        <v>38.449999999999996</v>
       </c>
       <c r="F190" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G190">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H190" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="I190" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B191">
         <v>2</v>
       </c>
+      <c r="C191" t="s">
+        <v>36</v>
+      </c>
       <c r="D191">
-        <v>-1.753125</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E191">
-        <v>13.153124999999999</v>
+        <v>33</v>
       </c>
       <c r="F191" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G191">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H191" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="I191" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B192">
         <v>1</v>
       </c>
+      <c r="C192" t="s">
+        <v>36</v>
+      </c>
       <c r="D192">
-        <v>-1.753125</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E192">
-        <v>13.153124999999999</v>
+        <v>33</v>
       </c>
       <c r="F192" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G192">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H192" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="I192" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B193">
         <v>2</v>
       </c>
+      <c r="C193" t="s">
+        <v>36</v>
+      </c>
       <c r="D193">
-        <v>-0.40769230769230752</v>
+        <v>-5.85</v>
       </c>
       <c r="E193">
-        <v>21.388461538461538</v>
+        <v>37.712499999999999</v>
       </c>
       <c r="F193" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G193">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H193" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="I193" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B194">
         <v>1</v>
       </c>
+      <c r="C194" t="s">
+        <v>35</v>
+      </c>
       <c r="D194">
-        <v>-1.753125</v>
+        <v>-5.85</v>
       </c>
       <c r="E194">
-        <v>13.153124999999999</v>
+        <v>37.712499999999999</v>
       </c>
       <c r="F194" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G194">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H194" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="I194" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -6151,6 +6289,9 @@
       <c r="B195">
         <v>2</v>
       </c>
+      <c r="C195" t="s">
+        <v>35</v>
+      </c>
       <c r="D195">
         <v>-5.5714285714285703</v>
       </c>
@@ -6164,252 +6305,282 @@
         <v>3</v>
       </c>
       <c r="H195" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="I195" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B196">
         <v>1</v>
       </c>
+      <c r="C196" t="s">
+        <v>35</v>
+      </c>
       <c r="D196">
-        <v>-1.753125</v>
+        <v>-5.5714285714285703</v>
       </c>
       <c r="E196">
-        <v>13.153124999999999</v>
+        <v>15.75</v>
       </c>
       <c r="F196" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G196">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H196" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="I196" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B197">
         <v>2</v>
       </c>
+      <c r="C197" t="s">
+        <v>35</v>
+      </c>
       <c r="D197">
-        <v>-12.962999999999999</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E197">
-        <v>22.224999999999998</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F197" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G197">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H197" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="I197" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B198">
         <v>1</v>
       </c>
+      <c r="C198" t="s">
+        <v>36</v>
+      </c>
       <c r="D198">
-        <v>-1.753125</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E198">
-        <v>13.153124999999999</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F198" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G198">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H198" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="I198" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B199">
         <v>2</v>
       </c>
+      <c r="C199" t="s">
+        <v>35</v>
+      </c>
       <c r="D199">
-        <v>-13.122222222222224</v>
+        <v>-12.962999999999999</v>
       </c>
       <c r="E199">
-        <v>29.1944444444444</v>
+        <v>22.224999999999998</v>
       </c>
       <c r="F199" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G199">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H199" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="I199" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B200">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C200" t="s">
+        <v>35</v>
       </c>
       <c r="D200">
-        <v>-3.7333333333333329</v>
+        <v>-12.962999999999999</v>
       </c>
       <c r="E200">
-        <v>33</v>
+        <v>22.224999999999998</v>
       </c>
       <c r="F200" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G200">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H200" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="I200" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C201" t="s">
+        <v>35</v>
       </c>
       <c r="D201">
-        <v>-13.122222222222224</v>
+        <v>-9.16</v>
       </c>
       <c r="E201">
-        <v>29.1944444444444</v>
+        <v>26.439999999999998</v>
       </c>
       <c r="F201" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G201">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H201" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="I201" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B202">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C202" t="s">
+        <v>35</v>
       </c>
       <c r="D202">
-        <v>-1.44444444444444</v>
+        <v>-9.16</v>
       </c>
       <c r="E202">
-        <v>30.911111111111115</v>
+        <v>26.439999999999998</v>
       </c>
       <c r="F202" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G202">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H202" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="I202" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B203">
         <v>1</v>
       </c>
+      <c r="C203" t="s">
+        <v>35</v>
+      </c>
       <c r="D203">
-        <v>-13.122222222222224</v>
+        <v>-9.16</v>
       </c>
       <c r="E203">
-        <v>29.1944444444444</v>
+        <v>26.439999999999998</v>
       </c>
       <c r="F203" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G203">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H203" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="I203" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B204">
         <v>2</v>
       </c>
+      <c r="C204" t="s">
+        <v>35</v>
+      </c>
       <c r="D204">
-        <v>-9.16</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E204">
-        <v>26.439999999999998</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G204">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H204" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="I204" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B205">
         <v>1</v>
+      </c>
+      <c r="C205" t="s">
+        <v>35</v>
       </c>
       <c r="D205">
         <v>-13.122222222222224</v>
@@ -6421,13 +6592,13 @@
         <v>11</v>
       </c>
       <c r="G205">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H205" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="I205" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -6437,6 +6608,9 @@
       <c r="B206">
         <v>1</v>
       </c>
+      <c r="C206" t="s">
+        <v>35</v>
+      </c>
       <c r="D206">
         <v>-13.122222222222224</v>
       </c>
@@ -6447,13 +6621,13 @@
         <v>11</v>
       </c>
       <c r="G206">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H206" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="I206" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -6463,6 +6637,9 @@
       <c r="B207">
         <v>2</v>
       </c>
+      <c r="C207" t="s">
+        <v>35</v>
+      </c>
       <c r="D207">
         <v>-13.557142857142859</v>
       </c>
@@ -6473,140 +6650,152 @@
         <v>12</v>
       </c>
       <c r="G207">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H207" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="I207" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B208">
         <v>1</v>
       </c>
+      <c r="C208" t="s">
+        <v>35</v>
+      </c>
       <c r="D208">
-        <v>2.3488888888888888</v>
+        <v>-13.557142857142859</v>
       </c>
       <c r="E208">
-        <v>10.31111111111111</v>
+        <v>33.514285714285712</v>
       </c>
       <c r="F208" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G208">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H208" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="I208" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B209">
         <v>2</v>
       </c>
+      <c r="C209" t="s">
+        <v>35</v>
+      </c>
       <c r="D209">
-        <v>-1.753125</v>
+        <v>-13.3</v>
       </c>
       <c r="E209">
-        <v>13.153124999999999</v>
+        <v>39.125</v>
       </c>
       <c r="F209" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G209">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H209" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="I209" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C210" t="s">
+        <v>35</v>
       </c>
       <c r="D210">
-        <v>-1.753125</v>
+        <v>-15.824999999999999</v>
       </c>
       <c r="E210">
-        <v>13.153124999999999</v>
+        <v>15.45</v>
       </c>
       <c r="F210" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G210">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H210" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="I210" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B211">
         <v>2</v>
       </c>
+      <c r="C211" t="s">
+        <v>35</v>
+      </c>
       <c r="D211">
-        <v>-0.40769230769230752</v>
+        <v>-23.125</v>
       </c>
       <c r="E211">
-        <v>21.388461538461538</v>
+        <v>29.665624999999999</v>
       </c>
       <c r="F211" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G211">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H211" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="I211" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>-0.40769230769230752</v>
+        <v>2.3488888888888888</v>
       </c>
       <c r="E212">
-        <v>21.388461538461538</v>
+        <v>10.31111111111111</v>
       </c>
       <c r="F212" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G212">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H212" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I212" t="s">
         <v>81</v>
@@ -6614,25 +6803,25 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D213">
-        <v>-5.5714285714285703</v>
+        <v>-1.753125</v>
       </c>
       <c r="E213">
-        <v>15.75</v>
+        <v>13.153124999999999</v>
       </c>
       <c r="F213" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G213">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H213" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I213" t="s">
         <v>81</v>
@@ -6640,25 +6829,25 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214">
-        <v>-3.7333333333333329</v>
+        <v>-1.753125</v>
       </c>
       <c r="E214">
-        <v>33</v>
+        <v>13.153124999999999</v>
       </c>
       <c r="F214" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G214">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H214" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I214" t="s">
         <v>81</v>
@@ -6666,25 +6855,25 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B215">
         <v>2</v>
       </c>
       <c r="D215">
-        <v>-5.85</v>
+        <v>-0.40769230769230752</v>
       </c>
       <c r="E215">
-        <v>37.712499999999999</v>
+        <v>21.388461538461538</v>
       </c>
       <c r="F215" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G215">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H215" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I215" t="s">
         <v>81</v>
@@ -6692,25 +6881,25 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>-3.7333333333333329</v>
+        <v>-0.40769230769230752</v>
       </c>
       <c r="E216">
-        <v>33</v>
+        <v>21.388461538461538</v>
       </c>
       <c r="F216" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G216">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H216" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I216" t="s">
         <v>81</v>
@@ -6718,25 +6907,25 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>-1.44444444444444</v>
+        <v>-1.78</v>
       </c>
       <c r="E217">
-        <v>30.911111111111115</v>
+        <v>27.603999999999996</v>
       </c>
       <c r="F217" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G217">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H217" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I217" t="s">
         <v>81</v>
@@ -6744,25 +6933,25 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B218">
         <v>2</v>
       </c>
       <c r="D218">
-        <v>-2.35</v>
+        <v>-1.78</v>
       </c>
       <c r="E218">
-        <v>38.449999999999996</v>
+        <v>27.603999999999996</v>
       </c>
       <c r="F218" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G218">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H218" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I218" t="s">
         <v>81</v>
@@ -6770,25 +6959,25 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D219">
-        <v>-5.85</v>
+        <v>-2.35</v>
       </c>
       <c r="E219">
-        <v>37.712499999999999</v>
+        <v>38.449999999999996</v>
       </c>
       <c r="F219" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G219">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H219" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I219" t="s">
         <v>81</v>
@@ -6796,25 +6985,25 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D220">
-        <v>-5.85</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E220">
-        <v>37.712499999999999</v>
+        <v>33</v>
       </c>
       <c r="F220" t="s">
+        <v>5</v>
+      </c>
+      <c r="G220">
         <v>6</v>
       </c>
-      <c r="G220">
-        <v>8</v>
-      </c>
       <c r="H220" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I220" t="s">
         <v>81</v>
@@ -6822,25 +7011,25 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>-13.557142857142859</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E221">
-        <v>33.514285714285712</v>
+        <v>33</v>
       </c>
       <c r="F221" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G221">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H221" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I221" t="s">
         <v>81</v>
@@ -6848,25 +7037,25 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>-5.85</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E222">
-        <v>37.712499999999999</v>
+        <v>33</v>
       </c>
       <c r="F222" t="s">
+        <v>5</v>
+      </c>
+      <c r="G222">
         <v>6</v>
       </c>
-      <c r="G222">
-        <v>8</v>
-      </c>
       <c r="H222" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I222" t="s">
         <v>81</v>
@@ -6874,25 +7063,25 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D223">
-        <v>-13.3</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E223">
-        <v>39.125</v>
+        <v>33</v>
       </c>
       <c r="F223" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G223">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H223" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I223" t="s">
         <v>81</v>
@@ -6900,25 +7089,25 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D224">
-        <v>-5.5714285714285703</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E224">
-        <v>15.75</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F224" t="s">
+        <v>8</v>
+      </c>
+      <c r="G224">
         <v>7</v>
       </c>
-      <c r="G224">
-        <v>4</v>
-      </c>
       <c r="H224" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I224" t="s">
         <v>81</v>
@@ -6926,7 +7115,7 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B225">
         <v>2</v>
@@ -6941,10 +7130,10 @@
         <v>9</v>
       </c>
       <c r="G225">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H225" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I225" t="s">
         <v>81</v>
@@ -6952,7 +7141,7 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -6967,10 +7156,10 @@
         <v>9</v>
       </c>
       <c r="G226">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H226" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I226" t="s">
         <v>81</v>
@@ -6978,25 +7167,25 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B227">
         <v>2</v>
       </c>
       <c r="D227">
-        <v>-9.16</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E227">
-        <v>26.439999999999998</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F227" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G227">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H227" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I227" t="s">
         <v>81</v>
@@ -7004,25 +7193,25 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="B228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <v>-3.7333333333333329</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E228">
-        <v>33</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F228" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G228">
         <v>7</v>
       </c>
       <c r="H228" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I228" t="s">
         <v>81</v>
@@ -7030,25 +7219,25 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>-9.16</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E229">
-        <v>26.439999999999998</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F229" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G229">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H229" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I229" t="s">
         <v>81</v>
@@ -7056,10 +7245,10 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D230">
         <v>-13.557142857142859</v>
@@ -7071,10 +7260,10 @@
         <v>12</v>
       </c>
       <c r="G230">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H230" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I230" t="s">
         <v>81</v>
@@ -7082,34 +7271,1594 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="B231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D231">
-        <v>-23.125</v>
+        <v>-13.557142857142859</v>
       </c>
       <c r="E231">
-        <v>29.665624999999999</v>
+        <v>33.514285714285712</v>
       </c>
       <c r="F231" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G231">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H231" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I231" t="s">
         <v>81</v>
       </c>
     </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>32</v>
+      </c>
+      <c r="B232">
+        <v>2</v>
+      </c>
+      <c r="D232">
+        <v>-13.3</v>
+      </c>
+      <c r="E232">
+        <v>39.125</v>
+      </c>
+      <c r="F232" t="s">
+        <v>13</v>
+      </c>
+      <c r="G232">
+        <v>9</v>
+      </c>
+      <c r="H232" t="s">
+        <v>60</v>
+      </c>
+      <c r="I232" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>30</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
+      <c r="D233">
+        <v>-23.125</v>
+      </c>
+      <c r="E233">
+        <v>29.665624999999999</v>
+      </c>
+      <c r="F233" t="s">
+        <v>15</v>
+      </c>
+      <c r="G233">
+        <v>8</v>
+      </c>
+      <c r="H233" t="s">
+        <v>60</v>
+      </c>
+      <c r="I233" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>18</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <v>2.3488888888888888</v>
+      </c>
+      <c r="E234">
+        <v>10.31111111111111</v>
+      </c>
+      <c r="F234" t="s">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>1</v>
+      </c>
+      <c r="H234" t="s">
+        <v>43</v>
+      </c>
+      <c r="I234" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>42</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="D235">
+        <v>2.3488888888888888</v>
+      </c>
+      <c r="E235">
+        <v>10.31111111111111</v>
+      </c>
+      <c r="F235" t="s">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>1</v>
+      </c>
+      <c r="H235" t="s">
+        <v>43</v>
+      </c>
+      <c r="I235" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>18</v>
+      </c>
+      <c r="B236">
+        <v>2</v>
+      </c>
+      <c r="D236">
+        <v>-1.753125</v>
+      </c>
+      <c r="E236">
+        <v>13.153124999999999</v>
+      </c>
+      <c r="F236" t="s">
+        <v>1</v>
+      </c>
+      <c r="G236">
+        <v>2</v>
+      </c>
+      <c r="H236" t="s">
+        <v>43</v>
+      </c>
+      <c r="I236" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>44</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>-1.753125</v>
+      </c>
+      <c r="E237">
+        <v>13.153124999999999</v>
+      </c>
+      <c r="F237" t="s">
+        <v>1</v>
+      </c>
+      <c r="G237">
+        <v>2</v>
+      </c>
+      <c r="H237" t="s">
+        <v>43</v>
+      </c>
+      <c r="I237" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>19</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+      <c r="D238">
+        <v>-1.753125</v>
+      </c>
+      <c r="E238">
+        <v>13.153124999999999</v>
+      </c>
+      <c r="F238" t="s">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>2</v>
+      </c>
+      <c r="H238" t="s">
+        <v>43</v>
+      </c>
+      <c r="I238" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>45</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="D239">
+        <v>-1.753125</v>
+      </c>
+      <c r="E239">
+        <v>13.153124999999999</v>
+      </c>
+      <c r="F239" t="s">
+        <v>1</v>
+      </c>
+      <c r="G239">
+        <v>2</v>
+      </c>
+      <c r="H239" t="s">
+        <v>43</v>
+      </c>
+      <c r="I239" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>44</v>
+      </c>
+      <c r="B240">
+        <v>2</v>
+      </c>
+      <c r="D240">
+        <v>-0.40769230769230752</v>
+      </c>
+      <c r="E240">
+        <v>21.388461538461538</v>
+      </c>
+      <c r="F240" t="s">
+        <v>2</v>
+      </c>
+      <c r="G240">
+        <v>3</v>
+      </c>
+      <c r="H240" t="s">
+        <v>43</v>
+      </c>
+      <c r="I240" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>19</v>
+      </c>
+      <c r="B241">
+        <v>2</v>
+      </c>
+      <c r="D241">
+        <v>-5.5714285714285703</v>
+      </c>
+      <c r="E241">
+        <v>15.75</v>
+      </c>
+      <c r="F241" t="s">
+        <v>7</v>
+      </c>
+      <c r="G241">
+        <v>3</v>
+      </c>
+      <c r="H241" t="s">
+        <v>43</v>
+      </c>
+      <c r="I241" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>42</v>
+      </c>
+      <c r="B242">
+        <v>2</v>
+      </c>
+      <c r="D242">
+        <v>-1.44444444444444</v>
+      </c>
+      <c r="E242">
+        <v>30.911111111111115</v>
+      </c>
+      <c r="F242" t="s">
+        <v>8</v>
+      </c>
+      <c r="G242">
+        <v>2</v>
+      </c>
+      <c r="H242" t="s">
+        <v>43</v>
+      </c>
+      <c r="I242" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>46</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>-1.44444444444444</v>
+      </c>
+      <c r="E243">
+        <v>30.911111111111115</v>
+      </c>
+      <c r="F243" t="s">
+        <v>8</v>
+      </c>
+      <c r="G243">
+        <v>2</v>
+      </c>
+      <c r="H243" t="s">
+        <v>43</v>
+      </c>
+      <c r="I243" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>47</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>-1.44444444444444</v>
+      </c>
+      <c r="E244">
+        <v>30.911111111111115</v>
+      </c>
+      <c r="F244" t="s">
+        <v>8</v>
+      </c>
+      <c r="G244">
+        <v>2</v>
+      </c>
+      <c r="H244" t="s">
+        <v>43</v>
+      </c>
+      <c r="I244" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>48</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>-1.44444444444444</v>
+      </c>
+      <c r="E245">
+        <v>30.911111111111115</v>
+      </c>
+      <c r="F245" t="s">
+        <v>8</v>
+      </c>
+      <c r="G245">
+        <v>2</v>
+      </c>
+      <c r="H245" t="s">
+        <v>43</v>
+      </c>
+      <c r="I245" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>45</v>
+      </c>
+      <c r="B246">
+        <v>2</v>
+      </c>
+      <c r="D246">
+        <v>-12.962999999999999</v>
+      </c>
+      <c r="E246">
+        <v>22.224999999999998</v>
+      </c>
+      <c r="F246" t="s">
+        <v>9</v>
+      </c>
+      <c r="G246">
+        <v>3</v>
+      </c>
+      <c r="H246" t="s">
+        <v>43</v>
+      </c>
+      <c r="I246" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>46</v>
+      </c>
+      <c r="B247">
+        <v>2</v>
+      </c>
+      <c r="D247">
+        <v>-9.16</v>
+      </c>
+      <c r="E247">
+        <v>26.439999999999998</v>
+      </c>
+      <c r="F247" t="s">
+        <v>10</v>
+      </c>
+      <c r="G247">
+        <v>3</v>
+      </c>
+      <c r="H247" t="s">
+        <v>43</v>
+      </c>
+      <c r="I247" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>47</v>
+      </c>
+      <c r="B248">
+        <v>2</v>
+      </c>
+      <c r="D248">
+        <v>-13.122222222222224</v>
+      </c>
+      <c r="E248">
+        <v>29.1944444444444</v>
+      </c>
+      <c r="F248" t="s">
+        <v>11</v>
+      </c>
+      <c r="G248">
+        <v>3</v>
+      </c>
+      <c r="H248" t="s">
+        <v>43</v>
+      </c>
+      <c r="I248" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>48</v>
+      </c>
+      <c r="B249">
+        <v>2</v>
+      </c>
+      <c r="D249">
+        <v>-13.3</v>
+      </c>
+      <c r="E249">
+        <v>39.125</v>
+      </c>
+      <c r="F249" t="s">
+        <v>13</v>
+      </c>
+      <c r="G249">
+        <v>3</v>
+      </c>
+      <c r="H249" t="s">
+        <v>43</v>
+      </c>
+      <c r="I249" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>18</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>2.3488888888888888</v>
+      </c>
+      <c r="E250">
+        <v>10.31111111111111</v>
+      </c>
+      <c r="F250" t="s">
+        <v>0</v>
+      </c>
+      <c r="G250">
+        <v>1</v>
+      </c>
+      <c r="H250" t="s">
+        <v>49</v>
+      </c>
+      <c r="I250" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>18</v>
+      </c>
+      <c r="B251">
+        <v>2</v>
+      </c>
+      <c r="D251">
+        <v>-1.753125</v>
+      </c>
+      <c r="E251">
+        <v>13.153124999999999</v>
+      </c>
+      <c r="F251" t="s">
+        <v>1</v>
+      </c>
+      <c r="G251">
+        <v>2</v>
+      </c>
+      <c r="H251" t="s">
+        <v>49</v>
+      </c>
+      <c r="I251" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>44</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>-1.753125</v>
+      </c>
+      <c r="E252">
+        <v>13.153124999999999</v>
+      </c>
+      <c r="F252" t="s">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>2</v>
+      </c>
+      <c r="H252" t="s">
+        <v>49</v>
+      </c>
+      <c r="I252" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>19</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+      <c r="D253">
+        <v>-1.753125</v>
+      </c>
+      <c r="E253">
+        <v>13.153124999999999</v>
+      </c>
+      <c r="F253" t="s">
+        <v>1</v>
+      </c>
+      <c r="G253">
+        <v>2</v>
+      </c>
+      <c r="H253" t="s">
+        <v>49</v>
+      </c>
+      <c r="I253" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>45</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="D254">
+        <v>-1.753125</v>
+      </c>
+      <c r="E254">
+        <v>13.153124999999999</v>
+      </c>
+      <c r="F254" t="s">
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <v>2</v>
+      </c>
+      <c r="H254" t="s">
+        <v>49</v>
+      </c>
+      <c r="I254" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>50</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>-1.753125</v>
+      </c>
+      <c r="E255">
+        <v>13.153124999999999</v>
+      </c>
+      <c r="F255" t="s">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>2</v>
+      </c>
+      <c r="H255" t="s">
+        <v>49</v>
+      </c>
+      <c r="I255" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>44</v>
+      </c>
+      <c r="B256">
+        <v>2</v>
+      </c>
+      <c r="D256">
+        <v>-0.40769230769230752</v>
+      </c>
+      <c r="E256">
+        <v>21.388461538461538</v>
+      </c>
+      <c r="F256" t="s">
+        <v>2</v>
+      </c>
+      <c r="G256">
+        <v>3</v>
+      </c>
+      <c r="H256" t="s">
+        <v>49</v>
+      </c>
+      <c r="I256" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>52</v>
+      </c>
+      <c r="B257">
+        <v>2</v>
+      </c>
+      <c r="D257">
+        <v>-3.7333333333333329</v>
+      </c>
+      <c r="E257">
+        <v>33</v>
+      </c>
+      <c r="F257" t="s">
+        <v>5</v>
+      </c>
+      <c r="G257">
+        <v>4</v>
+      </c>
+      <c r="H257" t="s">
+        <v>49</v>
+      </c>
+      <c r="I257" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>19</v>
+      </c>
+      <c r="B258">
+        <v>2</v>
+      </c>
+      <c r="D258">
+        <v>-5.5714285714285703</v>
+      </c>
+      <c r="E258">
+        <v>15.75</v>
+      </c>
+      <c r="F258" t="s">
+        <v>7</v>
+      </c>
+      <c r="G258">
+        <v>3</v>
+      </c>
+      <c r="H258" t="s">
+        <v>49</v>
+      </c>
+      <c r="I258" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>51</v>
+      </c>
+      <c r="B259">
+        <v>2</v>
+      </c>
+      <c r="D259">
+        <v>-1.44444444444444</v>
+      </c>
+      <c r="E259">
+        <v>30.911111111111115</v>
+      </c>
+      <c r="F259" t="s">
+        <v>8</v>
+      </c>
+      <c r="G259">
+        <v>4</v>
+      </c>
+      <c r="H259" t="s">
+        <v>49</v>
+      </c>
+      <c r="I259" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>45</v>
+      </c>
+      <c r="B260">
+        <v>2</v>
+      </c>
+      <c r="D260">
+        <v>-12.962999999999999</v>
+      </c>
+      <c r="E260">
+        <v>22.224999999999998</v>
+      </c>
+      <c r="F260" t="s">
+        <v>9</v>
+      </c>
+      <c r="G260">
+        <v>3</v>
+      </c>
+      <c r="H260" t="s">
+        <v>49</v>
+      </c>
+      <c r="I260" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>53</v>
+      </c>
+      <c r="B261">
+        <v>2</v>
+      </c>
+      <c r="D261">
+        <v>-9.16</v>
+      </c>
+      <c r="E261">
+        <v>26.439999999999998</v>
+      </c>
+      <c r="F261" t="s">
+        <v>10</v>
+      </c>
+      <c r="G261">
+        <v>4</v>
+      </c>
+      <c r="H261" t="s">
+        <v>49</v>
+      </c>
+      <c r="I261" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>50</v>
+      </c>
+      <c r="B262">
+        <v>2</v>
+      </c>
+      <c r="D262">
+        <v>-13.122222222222224</v>
+      </c>
+      <c r="E262">
+        <v>29.1944444444444</v>
+      </c>
+      <c r="F262" t="s">
+        <v>11</v>
+      </c>
+      <c r="G262">
+        <v>3</v>
+      </c>
+      <c r="H262" t="s">
+        <v>49</v>
+      </c>
+      <c r="I262" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>52</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <v>-13.122222222222224</v>
+      </c>
+      <c r="E263">
+        <v>29.1944444444444</v>
+      </c>
+      <c r="F263" t="s">
+        <v>11</v>
+      </c>
+      <c r="G263">
+        <v>3</v>
+      </c>
+      <c r="H263" t="s">
+        <v>49</v>
+      </c>
+      <c r="I263" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>51</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="D264">
+        <v>-13.122222222222224</v>
+      </c>
+      <c r="E264">
+        <v>29.1944444444444</v>
+      </c>
+      <c r="F264" t="s">
+        <v>11</v>
+      </c>
+      <c r="G264">
+        <v>3</v>
+      </c>
+      <c r="H264" t="s">
+        <v>49</v>
+      </c>
+      <c r="I264" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>53</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="D265">
+        <v>-13.122222222222224</v>
+      </c>
+      <c r="E265">
+        <v>29.1944444444444</v>
+      </c>
+      <c r="F265" t="s">
+        <v>11</v>
+      </c>
+      <c r="G265">
+        <v>3</v>
+      </c>
+      <c r="H265" t="s">
+        <v>49</v>
+      </c>
+      <c r="I265" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>31</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="D266">
+        <v>-13.122222222222224</v>
+      </c>
+      <c r="E266">
+        <v>29.1944444444444</v>
+      </c>
+      <c r="F266" t="s">
+        <v>11</v>
+      </c>
+      <c r="G266">
+        <v>3</v>
+      </c>
+      <c r="H266" t="s">
+        <v>49</v>
+      </c>
+      <c r="I266" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>31</v>
+      </c>
+      <c r="B267">
+        <v>2</v>
+      </c>
+      <c r="D267">
+        <v>-13.557142857142859</v>
+      </c>
+      <c r="E267">
+        <v>33.514285714285712</v>
+      </c>
+      <c r="F267" t="s">
+        <v>12</v>
+      </c>
+      <c r="G267">
+        <v>4</v>
+      </c>
+      <c r="H267" t="s">
+        <v>49</v>
+      </c>
+      <c r="I267" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>18</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="D268">
+        <v>2.3488888888888888</v>
+      </c>
+      <c r="E268">
+        <v>10.31111111111111</v>
+      </c>
+      <c r="F268" t="s">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>1</v>
+      </c>
+      <c r="H268" t="s">
+        <v>62</v>
+      </c>
+      <c r="I268" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>18</v>
+      </c>
+      <c r="B269">
+        <v>2</v>
+      </c>
+      <c r="D269">
+        <v>-1.753125</v>
+      </c>
+      <c r="E269">
+        <v>13.153124999999999</v>
+      </c>
+      <c r="F269" t="s">
+        <v>1</v>
+      </c>
+      <c r="G269">
+        <v>2</v>
+      </c>
+      <c r="H269" t="s">
+        <v>62</v>
+      </c>
+      <c r="I269" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>44</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+      <c r="D270">
+        <v>-1.753125</v>
+      </c>
+      <c r="E270">
+        <v>13.153124999999999</v>
+      </c>
+      <c r="F270" t="s">
+        <v>1</v>
+      </c>
+      <c r="G270">
+        <v>2</v>
+      </c>
+      <c r="H270" t="s">
+        <v>62</v>
+      </c>
+      <c r="I270" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>44</v>
+      </c>
+      <c r="B271">
+        <v>2</v>
+      </c>
+      <c r="D271">
+        <v>-0.40769230769230752</v>
+      </c>
+      <c r="E271">
+        <v>21.388461538461538</v>
+      </c>
+      <c r="F271" t="s">
+        <v>2</v>
+      </c>
+      <c r="G271">
+        <v>3</v>
+      </c>
+      <c r="H271" t="s">
+        <v>62</v>
+      </c>
+      <c r="I271" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>63</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="D272">
+        <v>-0.40769230769230752</v>
+      </c>
+      <c r="E272">
+        <v>21.388461538461538</v>
+      </c>
+      <c r="F272" t="s">
+        <v>2</v>
+      </c>
+      <c r="G272">
+        <v>3</v>
+      </c>
+      <c r="H272" t="s">
+        <v>62</v>
+      </c>
+      <c r="I272" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>26</v>
+      </c>
+      <c r="B273">
+        <v>2</v>
+      </c>
+      <c r="D273">
+        <v>-2.35</v>
+      </c>
+      <c r="E273">
+        <v>38.449999999999996</v>
+      </c>
+      <c r="F273" t="s">
+        <v>4</v>
+      </c>
+      <c r="G273">
+        <v>9</v>
+      </c>
+      <c r="H273" t="s">
+        <v>62</v>
+      </c>
+      <c r="I273" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>25</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <v>-3.7333333333333329</v>
+      </c>
+      <c r="E274">
+        <v>33</v>
+      </c>
+      <c r="F274" t="s">
+        <v>5</v>
+      </c>
+      <c r="G274">
+        <v>7</v>
+      </c>
+      <c r="H274" t="s">
+        <v>62</v>
+      </c>
+      <c r="I274" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>58</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+      <c r="D275">
+        <v>-3.7333333333333329</v>
+      </c>
+      <c r="E275">
+        <v>33</v>
+      </c>
+      <c r="F275" t="s">
+        <v>5</v>
+      </c>
+      <c r="G275">
+        <v>7</v>
+      </c>
+      <c r="H275" t="s">
+        <v>62</v>
+      </c>
+      <c r="I275" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>66</v>
+      </c>
+      <c r="B276">
+        <v>2</v>
+      </c>
+      <c r="D276">
+        <v>-3.7333333333333329</v>
+      </c>
+      <c r="E276">
+        <v>33</v>
+      </c>
+      <c r="F276" t="s">
+        <v>5</v>
+      </c>
+      <c r="G276">
+        <v>7</v>
+      </c>
+      <c r="H276" t="s">
+        <v>62</v>
+      </c>
+      <c r="I276" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>25</v>
+      </c>
+      <c r="B277">
+        <v>2</v>
+      </c>
+      <c r="D277">
+        <v>-5.85</v>
+      </c>
+      <c r="E277">
+        <v>37.712499999999999</v>
+      </c>
+      <c r="F277" t="s">
+        <v>6</v>
+      </c>
+      <c r="G277">
+        <v>8</v>
+      </c>
+      <c r="H277" t="s">
+        <v>62</v>
+      </c>
+      <c r="I277" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>26</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <v>-5.85</v>
+      </c>
+      <c r="E278">
+        <v>37.712499999999999</v>
+      </c>
+      <c r="F278" t="s">
+        <v>6</v>
+      </c>
+      <c r="G278">
+        <v>8</v>
+      </c>
+      <c r="H278" t="s">
+        <v>62</v>
+      </c>
+      <c r="I278" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>67</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+      <c r="D279">
+        <v>-5.85</v>
+      </c>
+      <c r="E279">
+        <v>37.712499999999999</v>
+      </c>
+      <c r="F279" t="s">
+        <v>6</v>
+      </c>
+      <c r="G279">
+        <v>8</v>
+      </c>
+      <c r="H279" t="s">
+        <v>62</v>
+      </c>
+      <c r="I279" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>68</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+      <c r="D280">
+        <v>-5.85</v>
+      </c>
+      <c r="E280">
+        <v>37.712499999999999</v>
+      </c>
+      <c r="F280" t="s">
+        <v>6</v>
+      </c>
+      <c r="G280">
+        <v>8</v>
+      </c>
+      <c r="H280" t="s">
+        <v>62</v>
+      </c>
+      <c r="I280" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>63</v>
+      </c>
+      <c r="B281">
+        <v>2</v>
+      </c>
+      <c r="D281">
+        <v>-5.5714285714285703</v>
+      </c>
+      <c r="E281">
+        <v>15.75</v>
+      </c>
+      <c r="F281" t="s">
+        <v>7</v>
+      </c>
+      <c r="G281">
+        <v>4</v>
+      </c>
+      <c r="H281" t="s">
+        <v>62</v>
+      </c>
+      <c r="I281" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>64</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+      <c r="D282">
+        <v>-5.5714285714285703</v>
+      </c>
+      <c r="E282">
+        <v>15.75</v>
+      </c>
+      <c r="F282" t="s">
+        <v>7</v>
+      </c>
+      <c r="G282">
+        <v>4</v>
+      </c>
+      <c r="H282" t="s">
+        <v>62</v>
+      </c>
+      <c r="I282" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>58</v>
+      </c>
+      <c r="B283">
+        <v>2</v>
+      </c>
+      <c r="D283">
+        <v>-1.44444444444444</v>
+      </c>
+      <c r="E283">
+        <v>30.911111111111115</v>
+      </c>
+      <c r="F283" t="s">
+        <v>8</v>
+      </c>
+      <c r="G283">
+        <v>8</v>
+      </c>
+      <c r="H283" t="s">
+        <v>62</v>
+      </c>
+      <c r="I283" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>64</v>
+      </c>
+      <c r="B284">
+        <v>2</v>
+      </c>
+      <c r="D284">
+        <v>-12.962999999999999</v>
+      </c>
+      <c r="E284">
+        <v>22.224999999999998</v>
+      </c>
+      <c r="F284" t="s">
+        <v>9</v>
+      </c>
+      <c r="G284">
+        <v>5</v>
+      </c>
+      <c r="H284" t="s">
+        <v>62</v>
+      </c>
+      <c r="I284" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>65</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+      <c r="D285">
+        <v>-12.962999999999999</v>
+      </c>
+      <c r="E285">
+        <v>22.224999999999998</v>
+      </c>
+      <c r="F285" t="s">
+        <v>9</v>
+      </c>
+      <c r="G285">
+        <v>5</v>
+      </c>
+      <c r="H285" t="s">
+        <v>62</v>
+      </c>
+      <c r="I285" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>65</v>
+      </c>
+      <c r="B286">
+        <v>2</v>
+      </c>
+      <c r="D286">
+        <v>-9.16</v>
+      </c>
+      <c r="E286">
+        <v>26.439999999999998</v>
+      </c>
+      <c r="F286" t="s">
+        <v>10</v>
+      </c>
+      <c r="G286">
+        <v>6</v>
+      </c>
+      <c r="H286" t="s">
+        <v>62</v>
+      </c>
+      <c r="I286" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>66</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+      <c r="D287">
+        <v>-9.16</v>
+      </c>
+      <c r="E287">
+        <v>26.439999999999998</v>
+      </c>
+      <c r="F287" t="s">
+        <v>10</v>
+      </c>
+      <c r="G287">
+        <v>6</v>
+      </c>
+      <c r="H287" t="s">
+        <v>62</v>
+      </c>
+      <c r="I287" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>67</v>
+      </c>
+      <c r="B288">
+        <v>2</v>
+      </c>
+      <c r="D288">
+        <v>-13.557142857142859</v>
+      </c>
+      <c r="E288">
+        <v>33.514285714285712</v>
+      </c>
+      <c r="F288" t="s">
+        <v>12</v>
+      </c>
+      <c r="G288">
+        <v>9</v>
+      </c>
+      <c r="H288" t="s">
+        <v>62</v>
+      </c>
+      <c r="I288" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>69</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+      <c r="D289">
+        <v>-13.557142857142859</v>
+      </c>
+      <c r="E289">
+        <v>33.514285714285712</v>
+      </c>
+      <c r="F289" t="s">
+        <v>12</v>
+      </c>
+      <c r="G289">
+        <v>9</v>
+      </c>
+      <c r="H289" t="s">
+        <v>62</v>
+      </c>
+      <c r="I289" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>68</v>
+      </c>
+      <c r="B290">
+        <v>2</v>
+      </c>
+      <c r="D290">
+        <v>-13.3</v>
+      </c>
+      <c r="E290">
+        <v>39.125</v>
+      </c>
+      <c r="F290" t="s">
+        <v>13</v>
+      </c>
+      <c r="G290">
+        <v>9</v>
+      </c>
+      <c r="H290" t="s">
+        <v>62</v>
+      </c>
+      <c r="I290" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>69</v>
+      </c>
+      <c r="B291">
+        <v>2</v>
+      </c>
+      <c r="D291">
+        <v>-23.125</v>
+      </c>
+      <c r="E291">
+        <v>29.665624999999999</v>
+      </c>
+      <c r="F291" t="s">
+        <v>15</v>
+      </c>
+      <c r="G291">
+        <v>10</v>
+      </c>
+      <c r="H291" t="s">
+        <v>62</v>
+      </c>
+      <c r="I291" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I231" xr:uid="{072A6FB6-0869-4E3C-ACA6-94071C505926}">
-    <sortState ref="A2:I231">
-      <sortCondition ref="H1:H231"/>
+  <autoFilter ref="A1:I291" xr:uid="{072A6FB6-0869-4E3C-ACA6-94071C505926}">
+    <sortState ref="A2:I291">
+      <sortCondition ref="H1:H291"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datasets/MigratoryModel/CombinedMigratoryModel_GuthrieZone_Path.xlsx
+++ b/datasets/MigratoryModel/CombinedMigratoryModel_GuthrieZone_Path.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby Ford\Desktop\BantuMigration\Github\datasets\MigratoryModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EC6ABE-42D3-4AE1-B185-29BCAB29D522}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C94B87B-82C4-4614-8C0B-5A1112DC79AC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" xr2:uid="{48220AAF-5FA7-46D3-8056-2130CE6EF7AB}"/>
   </bookViews>
@@ -211,9 +211,6 @@
     <t>F-M</t>
   </si>
   <si>
-    <t>Currie et al., 2015</t>
-  </si>
-  <si>
     <t>F-E</t>
   </si>
   <si>
@@ -287,6 +284,9 @@
   </si>
   <si>
     <t>Current Work - Y-Chromosomal (1,000 reps)</t>
+  </si>
+  <si>
+    <t>Currie et al., 2013</t>
   </si>
 </sst>
 </file>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7D369B-DF5B-472F-B73D-7CCA41A92755}">
   <dimension ref="A1:I291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="L212" sqref="L212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,7 +682,7 @@
         <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -708,10 +708,10 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -737,10 +737,10 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -766,10 +766,10 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -795,10 +795,10 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -824,10 +824,10 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -853,10 +853,10 @@
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -882,10 +882,10 @@
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -911,10 +911,10 @@
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -940,10 +940,10 @@
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -969,10 +969,10 @@
         <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -998,10 +998,10 @@
         <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1027,10 +1027,10 @@
         <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1056,10 +1056,10 @@
         <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1085,10 +1085,10 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1114,10 +1114,10 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1143,10 +1143,10 @@
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1172,10 +1172,10 @@
         <v>6</v>
       </c>
       <c r="H18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1201,10 +1201,10 @@
         <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1230,10 +1230,10 @@
         <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1259,10 +1259,10 @@
         <v>6</v>
       </c>
       <c r="H21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1288,10 +1288,10 @@
         <v>6</v>
       </c>
       <c r="H22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1317,10 +1317,10 @@
         <v>6</v>
       </c>
       <c r="H23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1346,10 +1346,10 @@
         <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1375,10 +1375,10 @@
         <v>7</v>
       </c>
       <c r="H25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1404,10 +1404,10 @@
         <v>7</v>
       </c>
       <c r="H26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1433,10 +1433,10 @@
         <v>8</v>
       </c>
       <c r="H27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1462,10 +1462,10 @@
         <v>8</v>
       </c>
       <c r="H28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1491,10 +1491,10 @@
         <v>9</v>
       </c>
       <c r="H29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1520,10 +1520,10 @@
         <v>8</v>
       </c>
       <c r="H30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1549,10 +1549,10 @@
         <v>8</v>
       </c>
       <c r="H31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1578,10 +1578,10 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1607,10 +1607,10 @@
         <v>2</v>
       </c>
       <c r="H33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1636,10 +1636,10 @@
         <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1665,10 +1665,10 @@
         <v>4</v>
       </c>
       <c r="H35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1694,10 +1694,10 @@
         <v>4</v>
       </c>
       <c r="H36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1723,10 +1723,10 @@
         <v>5</v>
       </c>
       <c r="H37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1752,15 +1752,15 @@
         <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1781,10 +1781,10 @@
         <v>5</v>
       </c>
       <c r="H39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1810,10 +1810,10 @@
         <v>9</v>
       </c>
       <c r="H40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1839,10 +1839,10 @@
         <v>7</v>
       </c>
       <c r="H41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1868,10 +1868,10 @@
         <v>7</v>
       </c>
       <c r="H42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -1897,10 +1897,10 @@
         <v>8</v>
       </c>
       <c r="H43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1926,10 +1926,10 @@
         <v>8</v>
       </c>
       <c r="H44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1955,10 +1955,10 @@
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -1984,10 +1984,10 @@
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2013,10 +2013,10 @@
         <v>6</v>
       </c>
       <c r="H47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2042,15 +2042,15 @@
         <v>6</v>
       </c>
       <c r="H48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -2071,15 +2071,15 @@
         <v>6</v>
       </c>
       <c r="H49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -2100,15 +2100,15 @@
         <v>6</v>
       </c>
       <c r="H50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -2129,10 +2129,10 @@
         <v>7</v>
       </c>
       <c r="H51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2158,15 +2158,15 @@
         <v>6</v>
       </c>
       <c r="H52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -2187,15 +2187,15 @@
         <v>7</v>
       </c>
       <c r="H53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -2216,10 +2216,10 @@
         <v>8</v>
       </c>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2245,10 +2245,10 @@
         <v>8</v>
       </c>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2274,10 +2274,10 @@
         <v>8</v>
       </c>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2303,10 +2303,10 @@
         <v>9</v>
       </c>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2332,10 +2332,10 @@
         <v>9</v>
       </c>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2361,10 +2361,10 @@
         <v>10</v>
       </c>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2390,10 +2390,10 @@
         <v>7</v>
       </c>
       <c r="H60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2419,10 +2419,10 @@
         <v>9</v>
       </c>
       <c r="H61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2448,10 +2448,10 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2477,10 +2477,10 @@
         <v>2</v>
       </c>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2506,10 +2506,10 @@
         <v>2</v>
       </c>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2535,10 +2535,10 @@
         <v>4</v>
       </c>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -2564,10 +2564,10 @@
         <v>4</v>
       </c>
       <c r="H66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2593,10 +2593,10 @@
         <v>5</v>
       </c>
       <c r="H67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2622,15 +2622,15 @@
         <v>5</v>
       </c>
       <c r="H68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -2651,10 +2651,10 @@
         <v>5</v>
       </c>
       <c r="H69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2680,10 +2680,10 @@
         <v>9</v>
       </c>
       <c r="H70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -2709,10 +2709,10 @@
         <v>7</v>
       </c>
       <c r="H71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -2738,10 +2738,10 @@
         <v>7</v>
       </c>
       <c r="H72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -2767,10 +2767,10 @@
         <v>8</v>
       </c>
       <c r="H73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -2796,10 +2796,10 @@
         <v>8</v>
       </c>
       <c r="H74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -2825,10 +2825,10 @@
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -2854,10 +2854,10 @@
         <v>3</v>
       </c>
       <c r="H76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -2883,10 +2883,10 @@
         <v>6</v>
       </c>
       <c r="H77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -2912,10 +2912,10 @@
         <v>6</v>
       </c>
       <c r="H78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -2941,10 +2941,10 @@
         <v>8</v>
       </c>
       <c r="H79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -2970,10 +2970,10 @@
         <v>8</v>
       </c>
       <c r="H80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -2999,10 +2999,10 @@
         <v>7</v>
       </c>
       <c r="H81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -3028,15 +3028,15 @@
         <v>7</v>
       </c>
       <c r="H82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -3057,10 +3057,10 @@
         <v>6</v>
       </c>
       <c r="H83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -3086,10 +3086,10 @@
         <v>6</v>
       </c>
       <c r="H84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I84" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3115,10 +3115,10 @@
         <v>6</v>
       </c>
       <c r="H85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -3144,10 +3144,10 @@
         <v>6</v>
       </c>
       <c r="H86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I86" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3173,10 +3173,10 @@
         <v>7</v>
       </c>
       <c r="H87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I87" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3202,10 +3202,10 @@
         <v>7</v>
       </c>
       <c r="H88" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I88" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3231,10 +3231,10 @@
         <v>8</v>
       </c>
       <c r="H89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I89" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3260,10 +3260,10 @@
         <v>9</v>
       </c>
       <c r="H90" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I90" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -3289,10 +3289,10 @@
         <v>7</v>
       </c>
       <c r="H91" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I91" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -3318,10 +3318,10 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I92" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -3347,10 +3347,10 @@
         <v>2</v>
       </c>
       <c r="H93" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I93" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -3376,10 +3376,10 @@
         <v>2</v>
       </c>
       <c r="H94" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I94" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -3405,10 +3405,10 @@
         <v>4</v>
       </c>
       <c r="H95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I95" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -3434,10 +3434,10 @@
         <v>4</v>
       </c>
       <c r="H96" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -3463,10 +3463,10 @@
         <v>5</v>
       </c>
       <c r="H97" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I97" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -3492,15 +3492,15 @@
         <v>5</v>
       </c>
       <c r="H98" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I98" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -3521,15 +3521,15 @@
         <v>5</v>
       </c>
       <c r="H99" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I99" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -3550,15 +3550,15 @@
         <v>8</v>
       </c>
       <c r="H100" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I100" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -3579,15 +3579,15 @@
         <v>7</v>
       </c>
       <c r="H101" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I101" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -3608,15 +3608,15 @@
         <v>7</v>
       </c>
       <c r="H102" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I102" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B103">
         <v>2</v>
@@ -3637,15 +3637,15 @@
         <v>9</v>
       </c>
       <c r="H103" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I103" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B104">
         <v>2</v>
@@ -3666,10 +3666,10 @@
         <v>8</v>
       </c>
       <c r="H104" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I104" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -3695,10 +3695,10 @@
         <v>3</v>
       </c>
       <c r="H105" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I105" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -3724,10 +3724,10 @@
         <v>3</v>
       </c>
       <c r="H106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I106" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -3753,15 +3753,15 @@
         <v>6</v>
       </c>
       <c r="H107" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I107" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -3782,15 +3782,15 @@
         <v>6</v>
       </c>
       <c r="H108" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I108" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -3811,15 +3811,15 @@
         <v>6</v>
       </c>
       <c r="H109" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I109" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -3840,10 +3840,10 @@
         <v>6</v>
       </c>
       <c r="H110" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I110" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -3869,10 +3869,10 @@
         <v>6</v>
       </c>
       <c r="H111" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I111" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -3898,15 +3898,15 @@
         <v>8</v>
       </c>
       <c r="H112" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I112" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B113">
         <v>2</v>
@@ -3927,10 +3927,10 @@
         <v>7</v>
       </c>
       <c r="H113" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I113" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -3956,10 +3956,10 @@
         <v>7</v>
       </c>
       <c r="H114" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I114" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -3985,10 +3985,10 @@
         <v>7</v>
       </c>
       <c r="H115" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I115" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4014,10 +4014,10 @@
         <v>7</v>
       </c>
       <c r="H116" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I116" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -4043,10 +4043,10 @@
         <v>8</v>
       </c>
       <c r="H117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I117" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -4072,10 +4072,10 @@
         <v>8</v>
       </c>
       <c r="H118" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I118" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -4101,10 +4101,10 @@
         <v>9</v>
       </c>
       <c r="H119" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I119" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -4130,10 +4130,10 @@
         <v>7</v>
       </c>
       <c r="H120" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I120" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -4159,10 +4159,10 @@
         <v>8</v>
       </c>
       <c r="H121" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I121" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -4188,10 +4188,10 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I122" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -4217,10 +4217,10 @@
         <v>2</v>
       </c>
       <c r="H123" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I123" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -4246,10 +4246,10 @@
         <v>2</v>
       </c>
       <c r="H124" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I124" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -4275,10 +4275,10 @@
         <v>3</v>
       </c>
       <c r="H125" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I125" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -4304,15 +4304,15 @@
         <v>3</v>
       </c>
       <c r="H126" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I126" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -4333,10 +4333,10 @@
         <v>3</v>
       </c>
       <c r="H127" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I127" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -4362,10 +4362,10 @@
         <v>4</v>
       </c>
       <c r="H128" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I128" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -4391,10 +4391,10 @@
         <v>4</v>
       </c>
       <c r="H129" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I129" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -4420,15 +4420,15 @@
         <v>4</v>
       </c>
       <c r="H130" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I130" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -4449,15 +4449,15 @@
         <v>6</v>
       </c>
       <c r="H131" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I131" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -4478,15 +4478,15 @@
         <v>6</v>
       </c>
       <c r="H132" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I132" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B133">
         <v>2</v>
@@ -4507,15 +4507,15 @@
         <v>6</v>
       </c>
       <c r="H133" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I133" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B134">
         <v>2</v>
@@ -4536,15 +4536,15 @@
         <v>7</v>
       </c>
       <c r="H134" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I134" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B135">
         <v>2</v>
@@ -4565,15 +4565,15 @@
         <v>7</v>
       </c>
       <c r="H135" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I135" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B136">
         <v>2</v>
@@ -4594,10 +4594,10 @@
         <v>4</v>
       </c>
       <c r="H136" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I136" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -4623,15 +4623,15 @@
         <v>5</v>
       </c>
       <c r="H137" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I137" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -4652,10 +4652,10 @@
         <v>5</v>
       </c>
       <c r="H138" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I138" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -4681,10 +4681,10 @@
         <v>6</v>
       </c>
       <c r="H139" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I139" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -4710,10 +4710,10 @@
         <v>6</v>
       </c>
       <c r="H140" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I140" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -4739,10 +4739,10 @@
         <v>5</v>
       </c>
       <c r="H141" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I141" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -4768,10 +4768,10 @@
         <v>5</v>
       </c>
       <c r="H142" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I142" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -4797,10 +4797,10 @@
         <v>5</v>
       </c>
       <c r="H143" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I143" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -4826,10 +4826,10 @@
         <v>6</v>
       </c>
       <c r="H144" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I144" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -4855,10 +4855,10 @@
         <v>6</v>
       </c>
       <c r="H145" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I145" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -4884,10 +4884,10 @@
         <v>6</v>
       </c>
       <c r="H146" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I146" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -4913,10 +4913,10 @@
         <v>7</v>
       </c>
       <c r="H147" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I147" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -4942,10 +4942,10 @@
         <v>7</v>
       </c>
       <c r="H148" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I148" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -4971,10 +4971,10 @@
         <v>8</v>
       </c>
       <c r="H149" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I149" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -5000,10 +5000,10 @@
         <v>7</v>
       </c>
       <c r="H150" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I150" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -5029,10 +5029,10 @@
         <v>7</v>
       </c>
       <c r="H151" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I151" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -5058,10 +5058,10 @@
         <v>1</v>
       </c>
       <c r="H152" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I152" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -5087,10 +5087,10 @@
         <v>2</v>
       </c>
       <c r="H153" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I153" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -5116,10 +5116,10 @@
         <v>2</v>
       </c>
       <c r="H154" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I154" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -5145,10 +5145,10 @@
         <v>4</v>
       </c>
       <c r="H155" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I155" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -5174,10 +5174,10 @@
         <v>4</v>
       </c>
       <c r="H156" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I156" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -5203,10 +5203,10 @@
         <v>5</v>
       </c>
       <c r="H157" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I157" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -5232,10 +5232,10 @@
         <v>5</v>
       </c>
       <c r="H158" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I158" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -5261,10 +5261,10 @@
         <v>9</v>
       </c>
       <c r="H159" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I159" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -5290,10 +5290,10 @@
         <v>7</v>
       </c>
       <c r="H160" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I160" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -5319,10 +5319,10 @@
         <v>7</v>
       </c>
       <c r="H161" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I161" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -5348,10 +5348,10 @@
         <v>8</v>
       </c>
       <c r="H162" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I162" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -5377,10 +5377,10 @@
         <v>8</v>
       </c>
       <c r="H163" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I163" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -5406,10 +5406,10 @@
         <v>3</v>
       </c>
       <c r="H164" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I164" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -5435,10 +5435,10 @@
         <v>3</v>
       </c>
       <c r="H165" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I165" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -5464,10 +5464,10 @@
         <v>6</v>
       </c>
       <c r="H166" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I166" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -5493,10 +5493,10 @@
         <v>6</v>
       </c>
       <c r="H167" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I167" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -5522,10 +5522,10 @@
         <v>6</v>
       </c>
       <c r="H168" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I168" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -5551,10 +5551,10 @@
         <v>9</v>
       </c>
       <c r="H169" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I169" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -5580,10 +5580,10 @@
         <v>9</v>
       </c>
       <c r="H170" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I170" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -5609,10 +5609,10 @@
         <v>8</v>
       </c>
       <c r="H171" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I171" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -5638,10 +5638,10 @@
         <v>8</v>
       </c>
       <c r="H172" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I172" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -5667,10 +5667,10 @@
         <v>7</v>
       </c>
       <c r="H173" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I173" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -5696,10 +5696,10 @@
         <v>7</v>
       </c>
       <c r="H174" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I174" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -5725,10 +5725,10 @@
         <v>7</v>
       </c>
       <c r="H175" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I175" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -5754,10 +5754,10 @@
         <v>7</v>
       </c>
       <c r="H176" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I176" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -5783,10 +5783,10 @@
         <v>8</v>
       </c>
       <c r="H177" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I177" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -5812,10 +5812,10 @@
         <v>8</v>
       </c>
       <c r="H178" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I178" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -5841,10 +5841,10 @@
         <v>9</v>
       </c>
       <c r="H179" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I179" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -5870,10 +5870,10 @@
         <v>10</v>
       </c>
       <c r="H180" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I180" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -5899,10 +5899,10 @@
         <v>8</v>
       </c>
       <c r="H181" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I181" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -5928,10 +5928,10 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I182" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -5957,10 +5957,10 @@
         <v>2</v>
       </c>
       <c r="H183" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I183" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -5986,10 +5986,10 @@
         <v>2</v>
       </c>
       <c r="H184" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I184" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -6015,10 +6015,10 @@
         <v>4</v>
       </c>
       <c r="H185" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I185" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -6044,10 +6044,10 @@
         <v>4</v>
       </c>
       <c r="H186" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I186" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -6073,10 +6073,10 @@
         <v>5</v>
       </c>
       <c r="H187" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I187" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -6102,10 +6102,10 @@
         <v>5</v>
       </c>
       <c r="H188" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I188" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -6131,10 +6131,10 @@
         <v>5</v>
       </c>
       <c r="H189" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I189" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -6160,10 +6160,10 @@
         <v>9</v>
       </c>
       <c r="H190" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I190" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -6189,10 +6189,10 @@
         <v>7</v>
       </c>
       <c r="H191" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I191" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -6218,10 +6218,10 @@
         <v>7</v>
       </c>
       <c r="H192" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I192" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -6247,10 +6247,10 @@
         <v>8</v>
       </c>
       <c r="H193" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I193" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -6276,10 +6276,10 @@
         <v>8</v>
       </c>
       <c r="H194" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I194" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -6305,10 +6305,10 @@
         <v>3</v>
       </c>
       <c r="H195" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I195" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -6334,10 +6334,10 @@
         <v>3</v>
       </c>
       <c r="H196" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I196" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -6363,10 +6363,10 @@
         <v>6</v>
       </c>
       <c r="H197" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I197" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -6392,10 +6392,10 @@
         <v>6</v>
       </c>
       <c r="H198" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I198" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -6421,10 +6421,10 @@
         <v>7</v>
       </c>
       <c r="H199" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I199" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -6450,10 +6450,10 @@
         <v>7</v>
       </c>
       <c r="H200" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I200" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -6479,10 +6479,10 @@
         <v>6</v>
       </c>
       <c r="H201" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I201" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -6508,10 +6508,10 @@
         <v>6</v>
       </c>
       <c r="H202" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I202" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -6537,10 +6537,10 @@
         <v>7</v>
       </c>
       <c r="H203" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I203" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -6566,10 +6566,10 @@
         <v>8</v>
       </c>
       <c r="H204" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I204" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -6595,10 +6595,10 @@
         <v>8</v>
       </c>
       <c r="H205" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I205" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -6624,10 +6624,10 @@
         <v>8</v>
       </c>
       <c r="H206" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I206" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -6653,10 +6653,10 @@
         <v>9</v>
       </c>
       <c r="H207" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I207" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -6682,10 +6682,10 @@
         <v>9</v>
       </c>
       <c r="H208" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I208" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -6711,10 +6711,10 @@
         <v>10</v>
       </c>
       <c r="H209" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I209" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -6740,10 +6740,10 @@
         <v>8</v>
       </c>
       <c r="H210" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I210" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -6769,10 +6769,10 @@
         <v>9</v>
       </c>
       <c r="H211" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I211" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -6795,10 +6795,10 @@
         <v>1</v>
       </c>
       <c r="H212" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I212" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -6821,10 +6821,10 @@
         <v>3</v>
       </c>
       <c r="H213" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I213" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -6847,10 +6847,10 @@
         <v>3</v>
       </c>
       <c r="H214" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I214" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -6873,10 +6873,10 @@
         <v>2</v>
       </c>
       <c r="H215" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I215" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -6899,10 +6899,10 @@
         <v>2</v>
       </c>
       <c r="H216" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I216" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -6925,10 +6925,10 @@
         <v>5</v>
       </c>
       <c r="H217" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I217" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -6951,15 +6951,15 @@
         <v>5</v>
       </c>
       <c r="H218" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I218" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B219">
         <v>2</v>
@@ -6977,10 +6977,10 @@
         <v>7</v>
       </c>
       <c r="H219" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I219" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -7003,15 +7003,15 @@
         <v>6</v>
       </c>
       <c r="H220" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I220" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -7029,10 +7029,10 @@
         <v>6</v>
       </c>
       <c r="H221" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I221" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -7055,10 +7055,10 @@
         <v>6</v>
       </c>
       <c r="H222" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I222" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -7081,10 +7081,10 @@
         <v>6</v>
       </c>
       <c r="H223" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I223" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -7107,10 +7107,10 @@
         <v>7</v>
       </c>
       <c r="H224" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I224" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -7133,10 +7133,10 @@
         <v>4</v>
       </c>
       <c r="H225" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I225" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -7159,10 +7159,10 @@
         <v>4</v>
       </c>
       <c r="H226" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I226" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -7185,10 +7185,10 @@
         <v>7</v>
       </c>
       <c r="H227" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I227" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -7211,10 +7211,10 @@
         <v>7</v>
       </c>
       <c r="H228" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I228" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -7237,10 +7237,10 @@
         <v>7</v>
       </c>
       <c r="H229" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I229" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -7263,10 +7263,10 @@
         <v>8</v>
       </c>
       <c r="H230" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I230" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -7289,10 +7289,10 @@
         <v>8</v>
       </c>
       <c r="H231" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I231" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -7315,10 +7315,10 @@
         <v>9</v>
       </c>
       <c r="H232" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I232" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -7341,10 +7341,10 @@
         <v>8</v>
       </c>
       <c r="H233" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I233" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -7370,7 +7370,7 @@
         <v>43</v>
       </c>
       <c r="I234" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -7396,7 +7396,7 @@
         <v>43</v>
       </c>
       <c r="I235" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -7422,7 +7422,7 @@
         <v>43</v>
       </c>
       <c r="I236" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -7448,7 +7448,7 @@
         <v>43</v>
       </c>
       <c r="I237" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -7474,7 +7474,7 @@
         <v>43</v>
       </c>
       <c r="I238" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -7500,7 +7500,7 @@
         <v>43</v>
       </c>
       <c r="I239" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -7526,7 +7526,7 @@
         <v>43</v>
       </c>
       <c r="I240" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -7552,7 +7552,7 @@
         <v>43</v>
       </c>
       <c r="I241" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -7578,7 +7578,7 @@
         <v>43</v>
       </c>
       <c r="I242" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -7604,7 +7604,7 @@
         <v>43</v>
       </c>
       <c r="I243" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -7630,7 +7630,7 @@
         <v>43</v>
       </c>
       <c r="I244" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -7656,7 +7656,7 @@
         <v>43</v>
       </c>
       <c r="I245" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -7682,7 +7682,7 @@
         <v>43</v>
       </c>
       <c r="I246" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -7708,7 +7708,7 @@
         <v>43</v>
       </c>
       <c r="I247" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -7734,7 +7734,7 @@
         <v>43</v>
       </c>
       <c r="I248" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -7760,7 +7760,7 @@
         <v>43</v>
       </c>
       <c r="I249" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -7786,7 +7786,7 @@
         <v>49</v>
       </c>
       <c r="I250" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -7812,7 +7812,7 @@
         <v>49</v>
       </c>
       <c r="I251" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -7838,7 +7838,7 @@
         <v>49</v>
       </c>
       <c r="I252" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -7864,7 +7864,7 @@
         <v>49</v>
       </c>
       <c r="I253" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -7890,7 +7890,7 @@
         <v>49</v>
       </c>
       <c r="I254" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -7916,7 +7916,7 @@
         <v>49</v>
       </c>
       <c r="I255" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -7942,7 +7942,7 @@
         <v>49</v>
       </c>
       <c r="I256" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -7968,7 +7968,7 @@
         <v>49</v>
       </c>
       <c r="I257" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -7994,7 +7994,7 @@
         <v>49</v>
       </c>
       <c r="I258" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -8020,7 +8020,7 @@
         <v>49</v>
       </c>
       <c r="I259" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -8046,7 +8046,7 @@
         <v>49</v>
       </c>
       <c r="I260" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -8072,7 +8072,7 @@
         <v>49</v>
       </c>
       <c r="I261" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -8098,7 +8098,7 @@
         <v>49</v>
       </c>
       <c r="I262" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -8124,7 +8124,7 @@
         <v>49</v>
       </c>
       <c r="I263" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -8150,7 +8150,7 @@
         <v>49</v>
       </c>
       <c r="I264" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -8176,7 +8176,7 @@
         <v>49</v>
       </c>
       <c r="I265" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -8202,7 +8202,7 @@
         <v>49</v>
       </c>
       <c r="I266" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -8228,7 +8228,7 @@
         <v>49</v>
       </c>
       <c r="I267" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -8251,10 +8251,10 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I268" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -8277,10 +8277,10 @@
         <v>2</v>
       </c>
       <c r="H269" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I269" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
@@ -8303,10 +8303,10 @@
         <v>2</v>
       </c>
       <c r="H270" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I270" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -8329,15 +8329,15 @@
         <v>3</v>
       </c>
       <c r="H271" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I271" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -8355,10 +8355,10 @@
         <v>3</v>
       </c>
       <c r="H272" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I272" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -8381,10 +8381,10 @@
         <v>9</v>
       </c>
       <c r="H273" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I273" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -8407,10 +8407,10 @@
         <v>7</v>
       </c>
       <c r="H274" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I274" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -8433,15 +8433,15 @@
         <v>7</v>
       </c>
       <c r="H275" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I275" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B276">
         <v>2</v>
@@ -8459,10 +8459,10 @@
         <v>7</v>
       </c>
       <c r="H276" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I276" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -8485,10 +8485,10 @@
         <v>8</v>
       </c>
       <c r="H277" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I277" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -8511,15 +8511,15 @@
         <v>8</v>
       </c>
       <c r="H278" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I278" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -8537,15 +8537,15 @@
         <v>8</v>
       </c>
       <c r="H279" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I279" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -8563,15 +8563,15 @@
         <v>8</v>
       </c>
       <c r="H280" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I280" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B281">
         <v>2</v>
@@ -8589,15 +8589,15 @@
         <v>4</v>
       </c>
       <c r="H281" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I281" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -8615,10 +8615,10 @@
         <v>4</v>
       </c>
       <c r="H282" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I282" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -8641,15 +8641,15 @@
         <v>8</v>
       </c>
       <c r="H283" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I283" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B284">
         <v>2</v>
@@ -8667,15 +8667,15 @@
         <v>5</v>
       </c>
       <c r="H284" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I284" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -8693,15 +8693,15 @@
         <v>5</v>
       </c>
       <c r="H285" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I285" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B286">
         <v>2</v>
@@ -8719,15 +8719,15 @@
         <v>6</v>
       </c>
       <c r="H286" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I286" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -8745,15 +8745,15 @@
         <v>6</v>
       </c>
       <c r="H287" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I287" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B288">
         <v>2</v>
@@ -8771,15 +8771,15 @@
         <v>9</v>
       </c>
       <c r="H288" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I288" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -8797,15 +8797,15 @@
         <v>9</v>
       </c>
       <c r="H289" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I289" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B290">
         <v>2</v>
@@ -8823,15 +8823,15 @@
         <v>9</v>
       </c>
       <c r="H290" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I290" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B291">
         <v>2</v>
@@ -8849,10 +8849,10 @@
         <v>10</v>
       </c>
       <c r="H291" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I291" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/MigratoryModel/CombinedMigratoryModel_GuthrieZone_Path.xlsx
+++ b/datasets/MigratoryModel/CombinedMigratoryModel_GuthrieZone_Path.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby Ford\Desktop\BantuMigration\Github\datasets\MigratoryModel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby Ford\Desktop\BantuMigration\Github\Datasets\MigratoryModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C94B87B-82C4-4614-8C0B-5A1112DC79AC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFC7E2D-83EC-44D7-AF85-5E7B56F003FC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" xr2:uid="{48220AAF-5FA7-46D3-8056-2130CE6EF7AB}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="ZoneCenterLocations" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MigratoryModel_TableauData!$A$1:$I$291</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MigratoryModel_TableauData!$A$1:$I$201</definedName>
   </definedNames>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="82">
   <si>
     <t>A</t>
   </si>
@@ -272,18 +272,6 @@
   </si>
   <si>
     <t>Reference Work</t>
-  </si>
-  <si>
-    <t>Current Work - Haversine Only</t>
-  </si>
-  <si>
-    <t>D-M</t>
-  </si>
-  <si>
-    <t>Current Work - Guthrie Only</t>
-  </si>
-  <si>
-    <t>Current Work - Y-Chromosomal (1,000 reps)</t>
   </si>
   <si>
     <t>Currie et al., 2013</t>
@@ -638,22 +626,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7D369B-DF5B-472F-B73D-7CCA41A92755}">
-  <dimension ref="A1:I291"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="L212" sqref="L212"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2448,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I62" t="s">
         <v>79</v>
@@ -2477,7 +2466,7 @@
         <v>2</v>
       </c>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I63" t="s">
         <v>79</v>
@@ -2485,13 +2474,13 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D64">
         <v>-1.753125</v>
@@ -2506,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="H64" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I64" t="s">
         <v>79</v>
@@ -2514,13 +2503,13 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B65">
         <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D65">
         <v>-0.40769230769230752</v>
@@ -2532,10 +2521,10 @@
         <v>2</v>
       </c>
       <c r="G65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I65" t="s">
         <v>79</v>
@@ -2561,10 +2550,10 @@
         <v>2</v>
       </c>
       <c r="G66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H66" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I66" t="s">
         <v>79</v>
@@ -2572,28 +2561,28 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67" t="s">
         <v>36</v>
       </c>
       <c r="D67">
-        <v>-1.78</v>
+        <v>-0.40769230769230752</v>
       </c>
       <c r="E67">
-        <v>27.603999999999996</v>
+        <v>21.388461538461538</v>
       </c>
       <c r="F67" t="s">
+        <v>2</v>
+      </c>
+      <c r="G67">
         <v>3</v>
       </c>
-      <c r="G67">
-        <v>5</v>
-      </c>
       <c r="H67" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I67" t="s">
         <v>79</v>
@@ -2601,13 +2590,13 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D68">
         <v>-1.78</v>
@@ -2619,10 +2608,10 @@
         <v>3</v>
       </c>
       <c r="G68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H68" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I68" t="s">
         <v>79</v>
@@ -2630,13 +2619,13 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D69">
         <v>-1.78</v>
@@ -2648,10 +2637,10 @@
         <v>3</v>
       </c>
       <c r="G69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H69" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I69" t="s">
         <v>79</v>
@@ -2659,28 +2648,28 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D70">
-        <v>-2.35</v>
+        <v>-1.78</v>
       </c>
       <c r="E70">
-        <v>38.449999999999996</v>
+        <v>27.603999999999996</v>
       </c>
       <c r="F70" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70">
         <v>4</v>
       </c>
-      <c r="G70">
-        <v>9</v>
-      </c>
       <c r="H70" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I70" t="s">
         <v>79</v>
@@ -2688,28 +2677,28 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C71" t="s">
         <v>36</v>
       </c>
       <c r="D71">
-        <v>-3.7333333333333329</v>
+        <v>-2.35</v>
       </c>
       <c r="E71">
-        <v>33</v>
+        <v>38.449999999999996</v>
       </c>
       <c r="F71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G71">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H71" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I71" t="s">
         <v>79</v>
@@ -2717,7 +2706,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -2726,19 +2715,19 @@
         <v>36</v>
       </c>
       <c r="D72">
-        <v>-3.7333333333333329</v>
+        <v>-2.35</v>
       </c>
       <c r="E72">
-        <v>33</v>
+        <v>38.449999999999996</v>
       </c>
       <c r="F72" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G72">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H72" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I72" t="s">
         <v>79</v>
@@ -2746,7 +2735,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -2755,19 +2744,19 @@
         <v>36</v>
       </c>
       <c r="D73">
-        <v>-5.85</v>
+        <v>-2.35</v>
       </c>
       <c r="E73">
-        <v>37.712499999999999</v>
+        <v>38.449999999999996</v>
       </c>
       <c r="F73" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73">
         <v>6</v>
       </c>
-      <c r="G73">
-        <v>8</v>
-      </c>
       <c r="H73" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I73" t="s">
         <v>79</v>
@@ -2775,28 +2764,28 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D74">
-        <v>-5.85</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E74">
-        <v>37.712499999999999</v>
+        <v>33</v>
       </c>
       <c r="F74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G74">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H74" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I74" t="s">
         <v>79</v>
@@ -2804,28 +2793,28 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="B75">
         <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D75">
-        <v>-5.5714285714285703</v>
+        <v>-5.85</v>
       </c>
       <c r="E75">
-        <v>15.75</v>
+        <v>37.712499999999999</v>
       </c>
       <c r="F75" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75">
         <v>7</v>
       </c>
-      <c r="G75">
-        <v>3</v>
-      </c>
       <c r="H75" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I75" t="s">
         <v>79</v>
@@ -2833,13 +2822,13 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D76">
         <v>-5.5714285714285703</v>
@@ -2851,10 +2840,10 @@
         <v>7</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H76" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I76" t="s">
         <v>79</v>
@@ -2880,10 +2869,10 @@
         <v>8</v>
       </c>
       <c r="G77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H77" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I77" t="s">
         <v>79</v>
@@ -2891,7 +2880,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -2909,10 +2898,10 @@
         <v>8</v>
       </c>
       <c r="G78">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H78" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I78" t="s">
         <v>79</v>
@@ -2920,13 +2909,13 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D79">
         <v>-12.962999999999999</v>
@@ -2938,10 +2927,10 @@
         <v>9</v>
       </c>
       <c r="G79">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H79" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I79" t="s">
         <v>79</v>
@@ -2949,13 +2938,13 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D80">
         <v>-12.962999999999999</v>
@@ -2967,10 +2956,10 @@
         <v>9</v>
       </c>
       <c r="G80">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H80" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I80" t="s">
         <v>79</v>
@@ -2978,7 +2967,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -2996,10 +2985,10 @@
         <v>10</v>
       </c>
       <c r="G81">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H81" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I81" t="s">
         <v>79</v>
@@ -3013,7 +3002,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D82">
         <v>-9.16</v>
@@ -3025,10 +3014,10 @@
         <v>10</v>
       </c>
       <c r="G82">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H82" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I82" t="s">
         <v>79</v>
@@ -3036,28 +3025,28 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C83" t="s">
         <v>36</v>
       </c>
       <c r="D83">
-        <v>-13.122222222222224</v>
+        <v>-9.16</v>
       </c>
       <c r="E83">
-        <v>29.1944444444444</v>
+        <v>26.439999999999998</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G83">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H83" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I83" t="s">
         <v>79</v>
@@ -3065,10 +3054,10 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C84" t="s">
         <v>36</v>
@@ -3086,7 +3075,7 @@
         <v>6</v>
       </c>
       <c r="H84" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I84" t="s">
         <v>79</v>
@@ -3094,7 +3083,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -3115,7 +3104,7 @@
         <v>6</v>
       </c>
       <c r="H85" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I85" t="s">
         <v>79</v>
@@ -3123,13 +3112,13 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D86">
         <v>-13.122222222222224</v>
@@ -3144,7 +3133,7 @@
         <v>6</v>
       </c>
       <c r="H86" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I86" t="s">
         <v>79</v>
@@ -3173,7 +3162,7 @@
         <v>7</v>
       </c>
       <c r="H87" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I87" t="s">
         <v>79</v>
@@ -3202,7 +3191,7 @@
         <v>7</v>
       </c>
       <c r="H88" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I88" t="s">
         <v>79</v>
@@ -3231,7 +3220,7 @@
         <v>8</v>
       </c>
       <c r="H89" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I89" t="s">
         <v>79</v>
@@ -3245,7 +3234,7 @@
         <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D90">
         <v>-15.824999999999999</v>
@@ -3257,10 +3246,10 @@
         <v>14</v>
       </c>
       <c r="G90">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H90" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I90" t="s">
         <v>79</v>
@@ -3274,7 +3263,7 @@
         <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D91">
         <v>-23.125</v>
@@ -3289,7 +3278,7 @@
         <v>7</v>
       </c>
       <c r="H91" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I91" t="s">
         <v>79</v>
@@ -3318,7 +3307,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I92" t="s">
         <v>79</v>
@@ -3347,7 +3336,7 @@
         <v>2</v>
       </c>
       <c r="H93" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I93" t="s">
         <v>79</v>
@@ -3376,7 +3365,7 @@
         <v>2</v>
       </c>
       <c r="H94" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I94" t="s">
         <v>79</v>
@@ -3405,7 +3394,7 @@
         <v>4</v>
       </c>
       <c r="H95" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I95" t="s">
         <v>79</v>
@@ -3434,7 +3423,7 @@
         <v>4</v>
       </c>
       <c r="H96" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I96" t="s">
         <v>79</v>
@@ -3463,7 +3452,7 @@
         <v>5</v>
       </c>
       <c r="H97" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I97" t="s">
         <v>79</v>
@@ -3492,7 +3481,7 @@
         <v>5</v>
       </c>
       <c r="H98" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I98" t="s">
         <v>79</v>
@@ -3500,28 +3489,28 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D99">
-        <v>-1.78</v>
+        <v>-2.35</v>
       </c>
       <c r="E99">
-        <v>27.603999999999996</v>
+        <v>38.449999999999996</v>
       </c>
       <c r="F99" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G99">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H99" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I99" t="s">
         <v>79</v>
@@ -3529,7 +3518,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -3538,19 +3527,19 @@
         <v>36</v>
       </c>
       <c r="D100">
-        <v>-2.35</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E100">
-        <v>38.449999999999996</v>
+        <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G100">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H100" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I100" t="s">
         <v>79</v>
@@ -3558,28 +3547,28 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C101" t="s">
         <v>36</v>
       </c>
       <c r="D101">
-        <v>-2.35</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E101">
-        <v>38.449999999999996</v>
+        <v>33</v>
       </c>
       <c r="F101" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G101">
         <v>7</v>
       </c>
       <c r="H101" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I101" t="s">
         <v>79</v>
@@ -3587,7 +3576,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -3596,19 +3585,19 @@
         <v>36</v>
       </c>
       <c r="D102">
-        <v>-2.35</v>
+        <v>-5.85</v>
       </c>
       <c r="E102">
-        <v>38.449999999999996</v>
+        <v>37.712499999999999</v>
       </c>
       <c r="F102" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G102">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H102" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I102" t="s">
         <v>79</v>
@@ -3616,28 +3605,28 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D103">
-        <v>-3.7333333333333329</v>
+        <v>-5.85</v>
       </c>
       <c r="E103">
-        <v>33</v>
+        <v>37.712499999999999</v>
       </c>
       <c r="F103" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G103">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H103" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I103" t="s">
         <v>79</v>
@@ -3645,28 +3634,28 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="B104">
         <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D104">
-        <v>-5.85</v>
+        <v>-5.5714285714285703</v>
       </c>
       <c r="E104">
-        <v>37.712499999999999</v>
+        <v>15.75</v>
       </c>
       <c r="F104" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G104">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H104" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I104" t="s">
         <v>79</v>
@@ -3674,13 +3663,13 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D105">
         <v>-5.5714285714285703</v>
@@ -3695,7 +3684,7 @@
         <v>3</v>
       </c>
       <c r="H105" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I105" t="s">
         <v>79</v>
@@ -3703,28 +3692,28 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C106" t="s">
         <v>36</v>
       </c>
       <c r="D106">
-        <v>-5.5714285714285703</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E106">
-        <v>15.75</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G106">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H106" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I106" t="s">
         <v>79</v>
@@ -3732,10 +3721,10 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C107" t="s">
         <v>36</v>
@@ -3753,7 +3742,7 @@
         <v>6</v>
       </c>
       <c r="H107" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I107" t="s">
         <v>79</v>
@@ -3761,7 +3750,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -3782,7 +3771,7 @@
         <v>6</v>
       </c>
       <c r="H108" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I108" t="s">
         <v>79</v>
@@ -3790,13 +3779,13 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D109">
         <v>-12.962999999999999</v>
@@ -3808,10 +3797,10 @@
         <v>9</v>
       </c>
       <c r="G109">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H109" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I109" t="s">
         <v>79</v>
@@ -3819,13 +3808,13 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D110">
         <v>-12.962999999999999</v>
@@ -3837,10 +3826,10 @@
         <v>9</v>
       </c>
       <c r="G110">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H110" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I110" t="s">
         <v>79</v>
@@ -3848,28 +3837,28 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D111">
-        <v>-12.962999999999999</v>
+        <v>-9.16</v>
       </c>
       <c r="E111">
-        <v>22.224999999999998</v>
+        <v>26.439999999999998</v>
       </c>
       <c r="F111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G111">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H111" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I111" t="s">
         <v>79</v>
@@ -3898,7 +3887,7 @@
         <v>8</v>
       </c>
       <c r="H112" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I112" t="s">
         <v>79</v>
@@ -3906,7 +3895,7 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B113">
         <v>2</v>
@@ -3927,7 +3916,7 @@
         <v>7</v>
       </c>
       <c r="H113" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I113" t="s">
         <v>79</v>
@@ -3956,7 +3945,7 @@
         <v>7</v>
       </c>
       <c r="H114" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I114" t="s">
         <v>79</v>
@@ -3985,7 +3974,7 @@
         <v>7</v>
       </c>
       <c r="H115" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I115" t="s">
         <v>79</v>
@@ -4014,7 +4003,7 @@
         <v>7</v>
       </c>
       <c r="H116" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I116" t="s">
         <v>79</v>
@@ -4043,7 +4032,7 @@
         <v>8</v>
       </c>
       <c r="H117" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I117" t="s">
         <v>79</v>
@@ -4072,7 +4061,7 @@
         <v>8</v>
       </c>
       <c r="H118" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I118" t="s">
         <v>79</v>
@@ -4101,7 +4090,7 @@
         <v>9</v>
       </c>
       <c r="H119" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I119" t="s">
         <v>79</v>
@@ -4115,7 +4104,7 @@
         <v>2</v>
       </c>
       <c r="C120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D120">
         <v>-15.824999999999999</v>
@@ -4127,10 +4116,10 @@
         <v>14</v>
       </c>
       <c r="G120">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H120" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I120" t="s">
         <v>79</v>
@@ -4159,7 +4148,7 @@
         <v>8</v>
       </c>
       <c r="H121" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I121" t="s">
         <v>79</v>
@@ -4167,13 +4156,10 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B122">
         <v>1</v>
-      </c>
-      <c r="C122" t="s">
-        <v>35</v>
       </c>
       <c r="D122">
         <v>2.3488888888888888</v>
@@ -4188,21 +4174,18 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I122" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B123">
-        <v>2</v>
-      </c>
-      <c r="C123" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D123">
         <v>-1.753125</v>
@@ -4214,24 +4197,21 @@
         <v>1</v>
       </c>
       <c r="G123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H123" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I123" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B124">
-        <v>1</v>
-      </c>
-      <c r="C124" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D124">
         <v>-1.753125</v>
@@ -4243,24 +4223,21 @@
         <v>1</v>
       </c>
       <c r="G124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H124" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I124" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B125">
         <v>2</v>
-      </c>
-      <c r="C125" t="s">
-        <v>36</v>
       </c>
       <c r="D125">
         <v>-0.40769230769230752</v>
@@ -4272,24 +4249,21 @@
         <v>2</v>
       </c>
       <c r="G125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H125" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I125" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B126">
         <v>1</v>
-      </c>
-      <c r="C126" t="s">
-        <v>36</v>
       </c>
       <c r="D126">
         <v>-0.40769230769230752</v>
@@ -4301,53 +4275,47 @@
         <v>2</v>
       </c>
       <c r="G126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H126" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I126" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B127">
         <v>1</v>
       </c>
-      <c r="C127" t="s">
-        <v>36</v>
-      </c>
       <c r="D127">
-        <v>-0.40769230769230752</v>
+        <v>-1.78</v>
       </c>
       <c r="E127">
-        <v>21.388461538461538</v>
+        <v>27.603999999999996</v>
       </c>
       <c r="F127" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G127">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H127" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I127" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="B128">
         <v>2</v>
-      </c>
-      <c r="C128" t="s">
-        <v>36</v>
       </c>
       <c r="D128">
         <v>-1.78</v>
@@ -4359,1213 +4327,1087 @@
         <v>3</v>
       </c>
       <c r="G128">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H128" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I128" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B129">
-        <v>1</v>
-      </c>
-      <c r="C129" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D129">
-        <v>-1.78</v>
+        <v>-2.35</v>
       </c>
       <c r="E129">
-        <v>27.603999999999996</v>
+        <v>38.449999999999996</v>
       </c>
       <c r="F129" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G129">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H129" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I129" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B130">
-        <v>1</v>
-      </c>
-      <c r="C130" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D130">
-        <v>-1.78</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E130">
-        <v>27.603999999999996</v>
+        <v>33</v>
       </c>
       <c r="F130" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G130">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H130" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I130" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
-      <c r="C131" t="s">
-        <v>36</v>
-      </c>
       <c r="D131">
-        <v>-2.35</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E131">
-        <v>38.449999999999996</v>
+        <v>33</v>
       </c>
       <c r="F131" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G131">
         <v>6</v>
       </c>
       <c r="H131" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I131" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
-      <c r="C132" t="s">
-        <v>36</v>
-      </c>
       <c r="D132">
-        <v>-2.35</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E132">
-        <v>38.449999999999996</v>
+        <v>33</v>
       </c>
       <c r="F132" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G132">
         <v>6</v>
       </c>
       <c r="H132" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I132" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B133">
-        <v>2</v>
-      </c>
-      <c r="C133" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>-2.35</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E133">
-        <v>38.449999999999996</v>
+        <v>33</v>
       </c>
       <c r="F133" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G133">
         <v>6</v>
       </c>
       <c r="H133" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I133" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B134">
         <v>2</v>
       </c>
-      <c r="C134" t="s">
-        <v>36</v>
-      </c>
       <c r="D134">
-        <v>-3.7333333333333329</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E134">
-        <v>33</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F134" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G134">
         <v>7</v>
       </c>
       <c r="H134" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I134" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B135">
         <v>2</v>
       </c>
-      <c r="C135" t="s">
-        <v>36</v>
-      </c>
       <c r="D135">
-        <v>-5.85</v>
+        <v>-12.962999999999999</v>
       </c>
       <c r="E135">
-        <v>37.712499999999999</v>
+        <v>22.224999999999998</v>
       </c>
       <c r="F135" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G135">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H135" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I135" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B136">
-        <v>2</v>
-      </c>
-      <c r="C136" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>-5.5714285714285703</v>
+        <v>-12.962999999999999</v>
       </c>
       <c r="E136">
-        <v>15.75</v>
+        <v>22.224999999999998</v>
       </c>
       <c r="F136" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G136">
         <v>4</v>
       </c>
       <c r="H136" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I136" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="B137">
         <v>2</v>
       </c>
-      <c r="C137" t="s">
-        <v>35</v>
-      </c>
       <c r="D137">
-        <v>-1.44444444444444</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E137">
-        <v>30.911111111111115</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F137" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G137">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H137" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I137" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
-      <c r="C138" t="s">
-        <v>36</v>
-      </c>
       <c r="D138">
-        <v>-1.44444444444444</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E138">
-        <v>30.911111111111115</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F138" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G138">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H138" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I138" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
-      <c r="C139" t="s">
-        <v>35</v>
-      </c>
       <c r="D139">
-        <v>-12.962999999999999</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E139">
-        <v>22.224999999999998</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F139" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G139">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H139" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I139" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B140">
         <v>2</v>
       </c>
-      <c r="C140" t="s">
-        <v>35</v>
-      </c>
       <c r="D140">
-        <v>-12.962999999999999</v>
+        <v>-13.557142857142859</v>
       </c>
       <c r="E140">
-        <v>22.224999999999998</v>
+        <v>33.514285714285712</v>
       </c>
       <c r="F140" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G140">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H140" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I140" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B141">
-        <v>2</v>
-      </c>
-      <c r="C141" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D141">
-        <v>-9.16</v>
+        <v>-13.557142857142859</v>
       </c>
       <c r="E141">
-        <v>26.439999999999998</v>
+        <v>33.514285714285712</v>
       </c>
       <c r="F141" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G141">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H141" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I141" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B142">
-        <v>1</v>
-      </c>
-      <c r="C142" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D142">
-        <v>-9.16</v>
+        <v>-13.3</v>
       </c>
       <c r="E142">
-        <v>26.439999999999998</v>
+        <v>39.125</v>
       </c>
       <c r="F142" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G142">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H142" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I142" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B143">
-        <v>1</v>
-      </c>
-      <c r="C143" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D143">
-        <v>-9.16</v>
+        <v>-23.125</v>
       </c>
       <c r="E143">
-        <v>26.439999999999998</v>
+        <v>29.665624999999999</v>
       </c>
       <c r="F143" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G143">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H143" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I143" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B144">
-        <v>2</v>
-      </c>
-      <c r="C144" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D144">
-        <v>-13.122222222222224</v>
+        <v>2.3488888888888888</v>
       </c>
       <c r="E144">
-        <v>29.1944444444444</v>
+        <v>10.31111111111111</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H144" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="I144" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B145">
         <v>1</v>
       </c>
-      <c r="C145" t="s">
-        <v>36</v>
-      </c>
       <c r="D145">
-        <v>-13.122222222222224</v>
+        <v>2.3488888888888888</v>
       </c>
       <c r="E145">
-        <v>29.1944444444444</v>
+        <v>10.31111111111111</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G145">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H145" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="I145" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B146">
-        <v>1</v>
-      </c>
-      <c r="C146" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D146">
-        <v>-13.122222222222224</v>
+        <v>-1.753125</v>
       </c>
       <c r="E146">
-        <v>29.1944444444444</v>
+        <v>13.153124999999999</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G146">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H146" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="I146" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B147">
-        <v>2</v>
-      </c>
-      <c r="C147" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D147">
-        <v>-13.557142857142859</v>
+        <v>-1.753125</v>
       </c>
       <c r="E147">
-        <v>33.514285714285712</v>
+        <v>13.153124999999999</v>
       </c>
       <c r="F147" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G147">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H147" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="I147" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B148">
         <v>1</v>
       </c>
-      <c r="C148" t="s">
-        <v>35</v>
-      </c>
       <c r="D148">
-        <v>-13.557142857142859</v>
+        <v>-1.753125</v>
       </c>
       <c r="E148">
-        <v>33.514285714285712</v>
+        <v>13.153124999999999</v>
       </c>
       <c r="F148" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G148">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H148" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="I148" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B149">
-        <v>2</v>
-      </c>
-      <c r="C149" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>-13.3</v>
+        <v>-1.753125</v>
       </c>
       <c r="E149">
-        <v>39.125</v>
+        <v>13.153124999999999</v>
       </c>
       <c r="F149" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G149">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H149" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="I149" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B150">
         <v>2</v>
       </c>
-      <c r="C150" t="s">
-        <v>35</v>
-      </c>
       <c r="D150">
-        <v>-15.824999999999999</v>
+        <v>-0.40769230769230752</v>
       </c>
       <c r="E150">
-        <v>15.45</v>
+        <v>21.388461538461538</v>
       </c>
       <c r="F150" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G150">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H150" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="I150" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B151">
         <v>2</v>
       </c>
-      <c r="C151" t="s">
-        <v>35</v>
-      </c>
       <c r="D151">
-        <v>-23.125</v>
+        <v>-5.5714285714285703</v>
       </c>
       <c r="E151">
-        <v>29.665624999999999</v>
+        <v>15.75</v>
       </c>
       <c r="F151" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G151">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H151" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="I151" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B152">
-        <v>1</v>
-      </c>
-      <c r="C152" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D152">
-        <v>2.3488888888888888</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E152">
-        <v>10.31111111111111</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F152" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H152" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="I152" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B153">
-        <v>2</v>
-      </c>
-      <c r="C153" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>-1.753125</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E153">
-        <v>13.153124999999999</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F153" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G153">
         <v>2</v>
       </c>
       <c r="H153" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="I153" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B154">
         <v>1</v>
       </c>
-      <c r="C154" t="s">
-        <v>35</v>
-      </c>
       <c r="D154">
-        <v>-1.753125</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E154">
-        <v>13.153124999999999</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F154" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G154">
         <v>2</v>
       </c>
       <c r="H154" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="I154" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
-      <c r="C155" t="s">
-        <v>36</v>
-      </c>
       <c r="D155">
-        <v>-0.40769230769230752</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E155">
-        <v>21.388461538461538</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F155" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G155">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H155" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="I155" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B156">
         <v>2</v>
       </c>
-      <c r="C156" t="s">
-        <v>36</v>
-      </c>
       <c r="D156">
-        <v>-0.40769230769230752</v>
+        <v>-12.962999999999999</v>
       </c>
       <c r="E156">
-        <v>21.388461538461538</v>
+        <v>22.224999999999998</v>
       </c>
       <c r="F156" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G156">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H156" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="I156" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B157">
         <v>2</v>
       </c>
-      <c r="C157" t="s">
-        <v>36</v>
-      </c>
       <c r="D157">
-        <v>-1.78</v>
+        <v>-9.16</v>
       </c>
       <c r="E157">
-        <v>27.603999999999996</v>
+        <v>26.439999999999998</v>
       </c>
       <c r="F157" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157">
         <v>3</v>
       </c>
-      <c r="G157">
-        <v>5</v>
-      </c>
       <c r="H157" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="I157" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B158">
-        <v>1</v>
-      </c>
-      <c r="C158" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D158">
-        <v>-1.78</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E158">
-        <v>27.603999999999996</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F158" t="s">
+        <v>11</v>
+      </c>
+      <c r="G158">
         <v>3</v>
       </c>
-      <c r="G158">
-        <v>5</v>
-      </c>
       <c r="H158" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="I158" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B159">
         <v>2</v>
       </c>
-      <c r="C159" t="s">
-        <v>35</v>
-      </c>
       <c r="D159">
-        <v>-2.35</v>
+        <v>-13.3</v>
       </c>
       <c r="E159">
-        <v>38.449999999999996</v>
+        <v>39.125</v>
       </c>
       <c r="F159" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G159">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H159" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="I159" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B160">
         <v>1</v>
       </c>
-      <c r="C160" t="s">
-        <v>36</v>
-      </c>
       <c r="D160">
-        <v>-3.7333333333333329</v>
+        <v>2.3488888888888888</v>
       </c>
       <c r="E160">
-        <v>33</v>
+        <v>10.31111111111111</v>
       </c>
       <c r="F160" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G160">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="I160" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B161">
         <v>2</v>
       </c>
-      <c r="C161" t="s">
-        <v>36</v>
-      </c>
       <c r="D161">
-        <v>-3.7333333333333329</v>
+        <v>-1.753125</v>
       </c>
       <c r="E161">
-        <v>33</v>
+        <v>13.153124999999999</v>
       </c>
       <c r="F161" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G161">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H161" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="I161" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B162">
-        <v>2</v>
-      </c>
-      <c r="C162" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D162">
-        <v>-5.85</v>
+        <v>-1.753125</v>
       </c>
       <c r="E162">
-        <v>37.712499999999999</v>
+        <v>13.153124999999999</v>
       </c>
       <c r="F162" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G162">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H162" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="I162" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B163">
         <v>1</v>
       </c>
-      <c r="C163" t="s">
-        <v>35</v>
-      </c>
       <c r="D163">
-        <v>-5.85</v>
+        <v>-1.753125</v>
       </c>
       <c r="E163">
-        <v>37.712499999999999</v>
+        <v>13.153124999999999</v>
       </c>
       <c r="F163" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G163">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H163" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="I163" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B164">
-        <v>2</v>
-      </c>
-      <c r="C164" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D164">
-        <v>-5.5714285714285703</v>
+        <v>-1.753125</v>
       </c>
       <c r="E164">
-        <v>15.75</v>
+        <v>13.153124999999999</v>
       </c>
       <c r="F164" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G164">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H164" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="I164" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B165">
         <v>1</v>
       </c>
-      <c r="C165" t="s">
-        <v>36</v>
-      </c>
       <c r="D165">
-        <v>-5.5714285714285703</v>
+        <v>-1.753125</v>
       </c>
       <c r="E165">
-        <v>15.75</v>
+        <v>13.153124999999999</v>
       </c>
       <c r="F165" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G165">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H165" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="I165" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B166">
         <v>2</v>
       </c>
-      <c r="C166" t="s">
-        <v>36</v>
-      </c>
       <c r="D166">
-        <v>-1.44444444444444</v>
+        <v>-0.40769230769230752</v>
       </c>
       <c r="E166">
-        <v>30.911111111111115</v>
+        <v>21.388461538461538</v>
       </c>
       <c r="F166" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G166">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H166" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="I166" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B167">
-        <v>1</v>
-      </c>
-      <c r="C167" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D167">
-        <v>-1.44444444444444</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E167">
-        <v>30.911111111111115</v>
+        <v>33</v>
       </c>
       <c r="F167" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G167">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H167" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="I167" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B168">
-        <v>1</v>
-      </c>
-      <c r="C168" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D168">
-        <v>-1.44444444444444</v>
+        <v>-5.5714285714285703</v>
       </c>
       <c r="E168">
-        <v>30.911111111111115</v>
+        <v>15.75</v>
       </c>
       <c r="F168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G168">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H168" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="I168" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B169">
-        <v>1</v>
-      </c>
-      <c r="C169" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D169">
-        <v>-12.962999999999999</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E169">
-        <v>22.224999999999998</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F169" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G169">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H169" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="I169" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B170">
         <v>2</v>
-      </c>
-      <c r="C170" t="s">
-        <v>35</v>
       </c>
       <c r="D170">
         <v>-12.962999999999999</v>
@@ -5577,24 +5419,21 @@
         <v>9</v>
       </c>
       <c r="G170">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H170" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="I170" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B171">
-        <v>1</v>
-      </c>
-      <c r="C171" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D171">
         <v>-9.16</v>
@@ -5606,53 +5445,47 @@
         <v>10</v>
       </c>
       <c r="G171">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H171" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="I171" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B172">
         <v>2</v>
       </c>
-      <c r="C172" t="s">
-        <v>36</v>
-      </c>
       <c r="D172">
-        <v>-9.16</v>
+        <v>-13.122222222222224</v>
       </c>
       <c r="E172">
-        <v>26.439999999999998</v>
+        <v>29.1944444444444</v>
       </c>
       <c r="F172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G172">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H172" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="I172" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B173">
-        <v>2</v>
-      </c>
-      <c r="C173" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D173">
         <v>-13.122222222222224</v>
@@ -5664,24 +5497,21 @@
         <v>11</v>
       </c>
       <c r="G173">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H173" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="I173" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B174">
         <v>1</v>
-      </c>
-      <c r="C174" t="s">
-        <v>36</v>
       </c>
       <c r="D174">
         <v>-13.122222222222224</v>
@@ -5693,24 +5523,21 @@
         <v>11</v>
       </c>
       <c r="G174">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H174" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="I174" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B175">
         <v>1</v>
-      </c>
-      <c r="C175" t="s">
-        <v>35</v>
       </c>
       <c r="D175">
         <v>-13.122222222222224</v>
@@ -5722,24 +5549,21 @@
         <v>11</v>
       </c>
       <c r="G175">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H175" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="I175" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B176">
         <v>1</v>
-      </c>
-      <c r="C176" t="s">
-        <v>35</v>
       </c>
       <c r="D176">
         <v>-13.122222222222224</v>
@@ -5751,13 +5575,13 @@
         <v>11</v>
       </c>
       <c r="G176">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H176" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="I176" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -5767,9 +5591,6 @@
       <c r="B177">
         <v>2</v>
       </c>
-      <c r="C177" t="s">
-        <v>35</v>
-      </c>
       <c r="D177">
         <v>-13.557142857142859</v>
       </c>
@@ -5780,3087 +5601,640 @@
         <v>12</v>
       </c>
       <c r="G177">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H177" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="I177" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B178">
         <v>1</v>
       </c>
-      <c r="C178" t="s">
-        <v>35</v>
-      </c>
       <c r="D178">
-        <v>-13.557142857142859</v>
+        <v>2.3488888888888888</v>
       </c>
       <c r="E178">
-        <v>33.514285714285712</v>
+        <v>10.31111111111111</v>
       </c>
       <c r="F178" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G178">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="I178" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B179">
         <v>2</v>
       </c>
-      <c r="C179" t="s">
-        <v>35</v>
-      </c>
       <c r="D179">
-        <v>-13.3</v>
+        <v>-1.753125</v>
       </c>
       <c r="E179">
-        <v>39.125</v>
+        <v>13.153124999999999</v>
       </c>
       <c r="F179" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G179">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H179" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="I179" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B180">
-        <v>2</v>
-      </c>
-      <c r="C180" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>-15.824999999999999</v>
+        <v>-1.753125</v>
       </c>
       <c r="E180">
-        <v>15.45</v>
+        <v>13.153124999999999</v>
       </c>
       <c r="F180" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G180">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H180" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="I180" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B181">
         <v>2</v>
       </c>
-      <c r="C181" t="s">
-        <v>35</v>
-      </c>
       <c r="D181">
-        <v>-23.125</v>
+        <v>-0.40769230769230752</v>
       </c>
       <c r="E181">
-        <v>29.665624999999999</v>
+        <v>21.388461538461538</v>
       </c>
       <c r="F181" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G181">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H181" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="I181" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B182">
         <v>1</v>
       </c>
-      <c r="C182" t="s">
-        <v>35</v>
-      </c>
       <c r="D182">
-        <v>2.3488888888888888</v>
+        <v>-0.40769230769230752</v>
       </c>
       <c r="E182">
-        <v>10.31111111111111</v>
+        <v>21.388461538461538</v>
       </c>
       <c r="F182" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H182" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I182" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B183">
         <v>2</v>
       </c>
-      <c r="C183" t="s">
-        <v>35</v>
-      </c>
       <c r="D183">
-        <v>-1.753125</v>
+        <v>-2.35</v>
       </c>
       <c r="E183">
-        <v>13.153124999999999</v>
+        <v>38.449999999999996</v>
       </c>
       <c r="F183" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G183">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H183" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I183" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B184">
         <v>1</v>
       </c>
-      <c r="C184" t="s">
-        <v>35</v>
-      </c>
       <c r="D184">
-        <v>-1.753125</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E184">
-        <v>13.153124999999999</v>
+        <v>33</v>
       </c>
       <c r="F184" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G184">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H184" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I184" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="B185">
-        <v>2</v>
-      </c>
-      <c r="C185" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>-0.40769230769230752</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E185">
-        <v>21.388461538461538</v>
+        <v>33</v>
       </c>
       <c r="F185" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G185">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H185" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I185" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="B186">
-        <v>1</v>
-      </c>
-      <c r="C186" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D186">
-        <v>-0.40769230769230752</v>
+        <v>-3.7333333333333329</v>
       </c>
       <c r="E186">
-        <v>21.388461538461538</v>
+        <v>33</v>
       </c>
       <c r="F186" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G186">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H186" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I186" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B187">
         <v>2</v>
       </c>
-      <c r="C187" t="s">
-        <v>35</v>
-      </c>
       <c r="D187">
-        <v>-1.78</v>
+        <v>-5.85</v>
       </c>
       <c r="E187">
-        <v>27.603999999999996</v>
+        <v>37.712499999999999</v>
       </c>
       <c r="F187" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G187">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H187" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I187" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B188">
         <v>1</v>
       </c>
-      <c r="C188" t="s">
-        <v>35</v>
-      </c>
       <c r="D188">
-        <v>-1.78</v>
+        <v>-5.85</v>
       </c>
       <c r="E188">
-        <v>27.603999999999996</v>
+        <v>37.712499999999999</v>
       </c>
       <c r="F188" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G188">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H188" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I188" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="B189">
         <v>1</v>
       </c>
-      <c r="C189" t="s">
-        <v>35</v>
-      </c>
       <c r="D189">
-        <v>-1.78</v>
+        <v>-5.85</v>
       </c>
       <c r="E189">
-        <v>27.603999999999996</v>
+        <v>37.712499999999999</v>
       </c>
       <c r="F189" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G189">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H189" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I189" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="B190">
-        <v>2</v>
-      </c>
-      <c r="C190" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D190">
-        <v>-2.35</v>
+        <v>-5.85</v>
       </c>
       <c r="E190">
-        <v>38.449999999999996</v>
+        <v>37.712499999999999</v>
       </c>
       <c r="F190" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G190">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H190" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I190" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="B191">
         <v>2</v>
       </c>
-      <c r="C191" t="s">
-        <v>36</v>
-      </c>
       <c r="D191">
-        <v>-3.7333333333333329</v>
+        <v>-5.5714285714285703</v>
       </c>
       <c r="E191">
-        <v>33</v>
+        <v>15.75</v>
       </c>
       <c r="F191" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G191">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H191" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I191" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B192">
         <v>1</v>
       </c>
-      <c r="C192" t="s">
-        <v>36</v>
-      </c>
       <c r="D192">
-        <v>-3.7333333333333329</v>
+        <v>-5.5714285714285703</v>
       </c>
       <c r="E192">
-        <v>33</v>
+        <v>15.75</v>
       </c>
       <c r="F192" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G192">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H192" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I192" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B193">
         <v>2</v>
       </c>
-      <c r="C193" t="s">
-        <v>36</v>
-      </c>
       <c r="D193">
-        <v>-5.85</v>
+        <v>-1.44444444444444</v>
       </c>
       <c r="E193">
-        <v>37.712499999999999</v>
+        <v>30.911111111111115</v>
       </c>
       <c r="F193" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G193">
         <v>8</v>
       </c>
       <c r="H193" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I193" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="B194">
-        <v>1</v>
-      </c>
-      <c r="C194" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D194">
-        <v>-5.85</v>
+        <v>-12.962999999999999</v>
       </c>
       <c r="E194">
-        <v>37.712499999999999</v>
+        <v>22.224999999999998</v>
       </c>
       <c r="F194" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G194">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H194" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I194" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B195">
-        <v>2</v>
-      </c>
-      <c r="C195" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D195">
-        <v>-5.5714285714285703</v>
+        <v>-12.962999999999999</v>
       </c>
       <c r="E195">
-        <v>15.75</v>
+        <v>22.224999999999998</v>
       </c>
       <c r="F195" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G195">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H195" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I195" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B196">
-        <v>1</v>
-      </c>
-      <c r="C196" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D196">
-        <v>-5.5714285714285703</v>
+        <v>-9.16</v>
       </c>
       <c r="E196">
-        <v>15.75</v>
+        <v>26.439999999999998</v>
       </c>
       <c r="F196" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G196">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H196" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I196" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="B197">
-        <v>2</v>
-      </c>
-      <c r="C197" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>-1.44444444444444</v>
+        <v>-9.16</v>
       </c>
       <c r="E197">
-        <v>30.911111111111115</v>
+        <v>26.439999999999998</v>
       </c>
       <c r="F197" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G197">
         <v>6</v>
       </c>
       <c r="H197" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I197" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="B198">
-        <v>1</v>
-      </c>
-      <c r="C198" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D198">
-        <v>-1.44444444444444</v>
+        <v>-13.557142857142859</v>
       </c>
       <c r="E198">
-        <v>30.911111111111115</v>
+        <v>33.514285714285712</v>
       </c>
       <c r="F198" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G198">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H198" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I198" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B199">
-        <v>2</v>
-      </c>
-      <c r="C199" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D199">
-        <v>-12.962999999999999</v>
+        <v>-13.557142857142859</v>
       </c>
       <c r="E199">
-        <v>22.224999999999998</v>
+        <v>33.514285714285712</v>
       </c>
       <c r="F199" t="s">
+        <v>12</v>
+      </c>
+      <c r="G199">
         <v>9</v>
       </c>
-      <c r="G199">
-        <v>7</v>
-      </c>
       <c r="H199" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I199" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="B200">
-        <v>1</v>
-      </c>
-      <c r="C200" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D200">
-        <v>-12.962999999999999</v>
+        <v>-13.3</v>
       </c>
       <c r="E200">
-        <v>22.224999999999998</v>
+        <v>39.125</v>
       </c>
       <c r="F200" t="s">
+        <v>13</v>
+      </c>
+      <c r="G200">
         <v>9</v>
       </c>
-      <c r="G200">
-        <v>7</v>
-      </c>
       <c r="H200" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I200" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="B201">
         <v>2</v>
       </c>
-      <c r="C201" t="s">
-        <v>35</v>
-      </c>
       <c r="D201">
-        <v>-9.16</v>
+        <v>-23.125</v>
       </c>
       <c r="E201">
-        <v>26.439999999999998</v>
+        <v>29.665624999999999</v>
       </c>
       <c r="F201" t="s">
+        <v>15</v>
+      </c>
+      <c r="G201">
         <v>10</v>
       </c>
-      <c r="G201">
-        <v>6</v>
-      </c>
       <c r="H201" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I201" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>27</v>
-      </c>
-      <c r="B202">
-        <v>1</v>
-      </c>
-      <c r="C202" t="s">
-        <v>35</v>
-      </c>
-      <c r="D202">
-        <v>-9.16</v>
-      </c>
-      <c r="E202">
-        <v>26.439999999999998</v>
-      </c>
-      <c r="F202" t="s">
-        <v>10</v>
-      </c>
-      <c r="G202">
-        <v>6</v>
-      </c>
-      <c r="H202" t="s">
-        <v>84</v>
-      </c>
-      <c r="I202" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>29</v>
-      </c>
-      <c r="B203">
-        <v>1</v>
-      </c>
-      <c r="C203" t="s">
-        <v>35</v>
-      </c>
-      <c r="D203">
-        <v>-9.16</v>
-      </c>
-      <c r="E203">
-        <v>26.439999999999998</v>
-      </c>
-      <c r="F203" t="s">
-        <v>10</v>
-      </c>
-      <c r="G203">
-        <v>7</v>
-      </c>
-      <c r="H203" t="s">
-        <v>84</v>
-      </c>
-      <c r="I203" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>29</v>
-      </c>
-      <c r="B204">
-        <v>2</v>
-      </c>
-      <c r="C204" t="s">
-        <v>35</v>
-      </c>
-      <c r="D204">
-        <v>-13.122222222222224</v>
-      </c>
-      <c r="E204">
-        <v>29.1944444444444</v>
-      </c>
-      <c r="F204" t="s">
-        <v>11</v>
-      </c>
-      <c r="G204">
-        <v>8</v>
-      </c>
-      <c r="H204" t="s">
-        <v>84</v>
-      </c>
-      <c r="I204" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>30</v>
-      </c>
-      <c r="B205">
-        <v>1</v>
-      </c>
-      <c r="C205" t="s">
-        <v>35</v>
-      </c>
-      <c r="D205">
-        <v>-13.122222222222224</v>
-      </c>
-      <c r="E205">
-        <v>29.1944444444444</v>
-      </c>
-      <c r="F205" t="s">
-        <v>11</v>
-      </c>
-      <c r="G205">
-        <v>8</v>
-      </c>
-      <c r="H205" t="s">
-        <v>84</v>
-      </c>
-      <c r="I205" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>31</v>
-      </c>
-      <c r="B206">
-        <v>1</v>
-      </c>
-      <c r="C206" t="s">
-        <v>35</v>
-      </c>
-      <c r="D206">
-        <v>-13.122222222222224</v>
-      </c>
-      <c r="E206">
-        <v>29.1944444444444</v>
-      </c>
-      <c r="F206" t="s">
-        <v>11</v>
-      </c>
-      <c r="G206">
-        <v>8</v>
-      </c>
-      <c r="H206" t="s">
-        <v>84</v>
-      </c>
-      <c r="I206" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>31</v>
-      </c>
-      <c r="B207">
-        <v>2</v>
-      </c>
-      <c r="C207" t="s">
-        <v>35</v>
-      </c>
-      <c r="D207">
-        <v>-13.557142857142859</v>
-      </c>
-      <c r="E207">
-        <v>33.514285714285712</v>
-      </c>
-      <c r="F207" t="s">
-        <v>12</v>
-      </c>
-      <c r="G207">
-        <v>9</v>
-      </c>
-      <c r="H207" t="s">
-        <v>84</v>
-      </c>
-      <c r="I207" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>32</v>
-      </c>
-      <c r="B208">
-        <v>1</v>
-      </c>
-      <c r="C208" t="s">
-        <v>35</v>
-      </c>
-      <c r="D208">
-        <v>-13.557142857142859</v>
-      </c>
-      <c r="E208">
-        <v>33.514285714285712</v>
-      </c>
-      <c r="F208" t="s">
-        <v>12</v>
-      </c>
-      <c r="G208">
-        <v>9</v>
-      </c>
-      <c r="H208" t="s">
-        <v>84</v>
-      </c>
-      <c r="I208" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>32</v>
-      </c>
-      <c r="B209">
-        <v>2</v>
-      </c>
-      <c r="C209" t="s">
-        <v>35</v>
-      </c>
-      <c r="D209">
-        <v>-13.3</v>
-      </c>
-      <c r="E209">
-        <v>39.125</v>
-      </c>
-      <c r="F209" t="s">
-        <v>13</v>
-      </c>
-      <c r="G209">
-        <v>10</v>
-      </c>
-      <c r="H209" t="s">
-        <v>84</v>
-      </c>
-      <c r="I209" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>28</v>
-      </c>
-      <c r="B210">
-        <v>2</v>
-      </c>
-      <c r="C210" t="s">
-        <v>35</v>
-      </c>
-      <c r="D210">
-        <v>-15.824999999999999</v>
-      </c>
-      <c r="E210">
-        <v>15.45</v>
-      </c>
-      <c r="F210" t="s">
-        <v>14</v>
-      </c>
-      <c r="G210">
-        <v>8</v>
-      </c>
-      <c r="H210" t="s">
-        <v>84</v>
-      </c>
-      <c r="I210" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>30</v>
-      </c>
-      <c r="B211">
-        <v>2</v>
-      </c>
-      <c r="C211" t="s">
-        <v>35</v>
-      </c>
-      <c r="D211">
-        <v>-23.125</v>
-      </c>
-      <c r="E211">
-        <v>29.665624999999999</v>
-      </c>
-      <c r="F211" t="s">
-        <v>15</v>
-      </c>
-      <c r="G211">
-        <v>9</v>
-      </c>
-      <c r="H211" t="s">
-        <v>84</v>
-      </c>
-      <c r="I211" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>54</v>
-      </c>
-      <c r="B212">
-        <v>1</v>
-      </c>
-      <c r="D212">
-        <v>2.3488888888888888</v>
-      </c>
-      <c r="E212">
-        <v>10.31111111111111</v>
-      </c>
-      <c r="F212" t="s">
-        <v>0</v>
-      </c>
-      <c r="G212">
-        <v>1</v>
-      </c>
-      <c r="H212" t="s">
-        <v>85</v>
-      </c>
-      <c r="I212" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>45</v>
-      </c>
-      <c r="B213">
-        <v>1</v>
-      </c>
-      <c r="D213">
-        <v>-1.753125</v>
-      </c>
-      <c r="E213">
-        <v>13.153124999999999</v>
-      </c>
-      <c r="F213" t="s">
-        <v>1</v>
-      </c>
-      <c r="G213">
-        <v>3</v>
-      </c>
-      <c r="H213" t="s">
-        <v>85</v>
-      </c>
-      <c r="I213" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>55</v>
-      </c>
-      <c r="B214">
-        <v>2</v>
-      </c>
-      <c r="D214">
-        <v>-1.753125</v>
-      </c>
-      <c r="E214">
-        <v>13.153124999999999</v>
-      </c>
-      <c r="F214" t="s">
-        <v>1</v>
-      </c>
-      <c r="G214">
-        <v>3</v>
-      </c>
-      <c r="H214" t="s">
-        <v>85</v>
-      </c>
-      <c r="I214" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>54</v>
-      </c>
-      <c r="B215">
-        <v>2</v>
-      </c>
-      <c r="D215">
-        <v>-0.40769230769230752</v>
-      </c>
-      <c r="E215">
-        <v>21.388461538461538</v>
-      </c>
-      <c r="F215" t="s">
-        <v>2</v>
-      </c>
-      <c r="G215">
-        <v>2</v>
-      </c>
-      <c r="H215" t="s">
-        <v>85</v>
-      </c>
-      <c r="I215" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>55</v>
-      </c>
-      <c r="B216">
-        <v>1</v>
-      </c>
-      <c r="D216">
-        <v>-0.40769230769230752</v>
-      </c>
-      <c r="E216">
-        <v>21.388461538461538</v>
-      </c>
-      <c r="F216" t="s">
-        <v>2</v>
-      </c>
-      <c r="G216">
-        <v>2</v>
-      </c>
-      <c r="H216" t="s">
-        <v>85</v>
-      </c>
-      <c r="I216" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>57</v>
-      </c>
-      <c r="B217">
-        <v>1</v>
-      </c>
-      <c r="D217">
-        <v>-1.78</v>
-      </c>
-      <c r="E217">
-        <v>27.603999999999996</v>
-      </c>
-      <c r="F217" t="s">
-        <v>3</v>
-      </c>
-      <c r="G217">
-        <v>5</v>
-      </c>
-      <c r="H217" t="s">
-        <v>85</v>
-      </c>
-      <c r="I217" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>56</v>
-      </c>
-      <c r="B218">
-        <v>2</v>
-      </c>
-      <c r="D218">
-        <v>-1.78</v>
-      </c>
-      <c r="E218">
-        <v>27.603999999999996</v>
-      </c>
-      <c r="F218" t="s">
-        <v>3</v>
-      </c>
-      <c r="G218">
-        <v>5</v>
-      </c>
-      <c r="H218" t="s">
-        <v>85</v>
-      </c>
-      <c r="I218" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>60</v>
-      </c>
-      <c r="B219">
-        <v>2</v>
-      </c>
-      <c r="D219">
-        <v>-2.35</v>
-      </c>
-      <c r="E219">
-        <v>38.449999999999996</v>
-      </c>
-      <c r="F219" t="s">
-        <v>4</v>
-      </c>
-      <c r="G219">
-        <v>7</v>
-      </c>
-      <c r="H219" t="s">
-        <v>85</v>
-      </c>
-      <c r="I219" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>57</v>
-      </c>
-      <c r="B220">
-        <v>2</v>
-      </c>
-      <c r="D220">
-        <v>-3.7333333333333329</v>
-      </c>
-      <c r="E220">
-        <v>33</v>
-      </c>
-      <c r="F220" t="s">
-        <v>5</v>
-      </c>
-      <c r="G220">
-        <v>6</v>
-      </c>
-      <c r="H220" t="s">
-        <v>85</v>
-      </c>
-      <c r="I220" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>60</v>
-      </c>
-      <c r="B221">
-        <v>1</v>
-      </c>
-      <c r="D221">
-        <v>-3.7333333333333329</v>
-      </c>
-      <c r="E221">
-        <v>33</v>
-      </c>
-      <c r="F221" t="s">
-        <v>5</v>
-      </c>
-      <c r="G221">
-        <v>6</v>
-      </c>
-      <c r="H221" t="s">
-        <v>85</v>
-      </c>
-      <c r="I221" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>58</v>
-      </c>
-      <c r="B222">
-        <v>1</v>
-      </c>
-      <c r="D222">
-        <v>-3.7333333333333329</v>
-      </c>
-      <c r="E222">
-        <v>33</v>
-      </c>
-      <c r="F222" t="s">
-        <v>5</v>
-      </c>
-      <c r="G222">
-        <v>6</v>
-      </c>
-      <c r="H222" t="s">
-        <v>85</v>
-      </c>
-      <c r="I222" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>59</v>
-      </c>
-      <c r="B223">
-        <v>1</v>
-      </c>
-      <c r="D223">
-        <v>-3.7333333333333329</v>
-      </c>
-      <c r="E223">
-        <v>33</v>
-      </c>
-      <c r="F223" t="s">
-        <v>5</v>
-      </c>
-      <c r="G223">
-        <v>6</v>
-      </c>
-      <c r="H223" t="s">
-        <v>85</v>
-      </c>
-      <c r="I223" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>58</v>
-      </c>
-      <c r="B224">
-        <v>2</v>
-      </c>
-      <c r="D224">
-        <v>-1.44444444444444</v>
-      </c>
-      <c r="E224">
-        <v>30.911111111111115</v>
-      </c>
-      <c r="F224" t="s">
-        <v>8</v>
-      </c>
-      <c r="G224">
-        <v>7</v>
-      </c>
-      <c r="H224" t="s">
-        <v>85</v>
-      </c>
-      <c r="I224" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>45</v>
-      </c>
-      <c r="B225">
-        <v>2</v>
-      </c>
-      <c r="D225">
-        <v>-12.962999999999999</v>
-      </c>
-      <c r="E225">
-        <v>22.224999999999998</v>
-      </c>
-      <c r="F225" t="s">
-        <v>9</v>
-      </c>
-      <c r="G225">
-        <v>4</v>
-      </c>
-      <c r="H225" t="s">
-        <v>85</v>
-      </c>
-      <c r="I225" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>56</v>
-      </c>
-      <c r="B226">
-        <v>1</v>
-      </c>
-      <c r="D226">
-        <v>-12.962999999999999</v>
-      </c>
-      <c r="E226">
-        <v>22.224999999999998</v>
-      </c>
-      <c r="F226" t="s">
-        <v>9</v>
-      </c>
-      <c r="G226">
-        <v>4</v>
-      </c>
-      <c r="H226" t="s">
-        <v>85</v>
-      </c>
-      <c r="I226" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>59</v>
-      </c>
-      <c r="B227">
-        <v>2</v>
-      </c>
-      <c r="D227">
-        <v>-13.122222222222224</v>
-      </c>
-      <c r="E227">
-        <v>29.1944444444444</v>
-      </c>
-      <c r="F227" t="s">
-        <v>11</v>
-      </c>
-      <c r="G227">
-        <v>7</v>
-      </c>
-      <c r="H227" t="s">
-        <v>85</v>
-      </c>
-      <c r="I227" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>31</v>
-      </c>
-      <c r="B228">
-        <v>1</v>
-      </c>
-      <c r="D228">
-        <v>-13.122222222222224</v>
-      </c>
-      <c r="E228">
-        <v>29.1944444444444</v>
-      </c>
-      <c r="F228" t="s">
-        <v>11</v>
-      </c>
-      <c r="G228">
-        <v>7</v>
-      </c>
-      <c r="H228" t="s">
-        <v>85</v>
-      </c>
-      <c r="I228" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>30</v>
-      </c>
-      <c r="B229">
-        <v>1</v>
-      </c>
-      <c r="D229">
-        <v>-13.122222222222224</v>
-      </c>
-      <c r="E229">
-        <v>29.1944444444444</v>
-      </c>
-      <c r="F229" t="s">
-        <v>11</v>
-      </c>
-      <c r="G229">
-        <v>7</v>
-      </c>
-      <c r="H229" t="s">
-        <v>85</v>
-      </c>
-      <c r="I229" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>31</v>
-      </c>
-      <c r="B230">
-        <v>2</v>
-      </c>
-      <c r="D230">
-        <v>-13.557142857142859</v>
-      </c>
-      <c r="E230">
-        <v>33.514285714285712</v>
-      </c>
-      <c r="F230" t="s">
-        <v>12</v>
-      </c>
-      <c r="G230">
-        <v>8</v>
-      </c>
-      <c r="H230" t="s">
-        <v>85</v>
-      </c>
-      <c r="I230" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>32</v>
-      </c>
-      <c r="B231">
-        <v>1</v>
-      </c>
-      <c r="D231">
-        <v>-13.557142857142859</v>
-      </c>
-      <c r="E231">
-        <v>33.514285714285712</v>
-      </c>
-      <c r="F231" t="s">
-        <v>12</v>
-      </c>
-      <c r="G231">
-        <v>8</v>
-      </c>
-      <c r="H231" t="s">
-        <v>85</v>
-      </c>
-      <c r="I231" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>32</v>
-      </c>
-      <c r="B232">
-        <v>2</v>
-      </c>
-      <c r="D232">
-        <v>-13.3</v>
-      </c>
-      <c r="E232">
-        <v>39.125</v>
-      </c>
-      <c r="F232" t="s">
-        <v>13</v>
-      </c>
-      <c r="G232">
-        <v>9</v>
-      </c>
-      <c r="H232" t="s">
-        <v>85</v>
-      </c>
-      <c r="I232" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>30</v>
-      </c>
-      <c r="B233">
-        <v>2</v>
-      </c>
-      <c r="D233">
-        <v>-23.125</v>
-      </c>
-      <c r="E233">
-        <v>29.665624999999999</v>
-      </c>
-      <c r="F233" t="s">
-        <v>15</v>
-      </c>
-      <c r="G233">
-        <v>8</v>
-      </c>
-      <c r="H233" t="s">
-        <v>85</v>
-      </c>
-      <c r="I233" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>18</v>
-      </c>
-      <c r="B234">
-        <v>1</v>
-      </c>
-      <c r="D234">
-        <v>2.3488888888888888</v>
-      </c>
-      <c r="E234">
-        <v>10.31111111111111</v>
-      </c>
-      <c r="F234" t="s">
-        <v>0</v>
-      </c>
-      <c r="G234">
-        <v>1</v>
-      </c>
-      <c r="H234" t="s">
-        <v>43</v>
-      </c>
-      <c r="I234" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>42</v>
-      </c>
-      <c r="B235">
-        <v>1</v>
-      </c>
-      <c r="D235">
-        <v>2.3488888888888888</v>
-      </c>
-      <c r="E235">
-        <v>10.31111111111111</v>
-      </c>
-      <c r="F235" t="s">
-        <v>0</v>
-      </c>
-      <c r="G235">
-        <v>1</v>
-      </c>
-      <c r="H235" t="s">
-        <v>43</v>
-      </c>
-      <c r="I235" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>18</v>
-      </c>
-      <c r="B236">
-        <v>2</v>
-      </c>
-      <c r="D236">
-        <v>-1.753125</v>
-      </c>
-      <c r="E236">
-        <v>13.153124999999999</v>
-      </c>
-      <c r="F236" t="s">
-        <v>1</v>
-      </c>
-      <c r="G236">
-        <v>2</v>
-      </c>
-      <c r="H236" t="s">
-        <v>43</v>
-      </c>
-      <c r="I236" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>44</v>
-      </c>
-      <c r="B237">
-        <v>1</v>
-      </c>
-      <c r="D237">
-        <v>-1.753125</v>
-      </c>
-      <c r="E237">
-        <v>13.153124999999999</v>
-      </c>
-      <c r="F237" t="s">
-        <v>1</v>
-      </c>
-      <c r="G237">
-        <v>2</v>
-      </c>
-      <c r="H237" t="s">
-        <v>43</v>
-      </c>
-      <c r="I237" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>19</v>
-      </c>
-      <c r="B238">
-        <v>1</v>
-      </c>
-      <c r="D238">
-        <v>-1.753125</v>
-      </c>
-      <c r="E238">
-        <v>13.153124999999999</v>
-      </c>
-      <c r="F238" t="s">
-        <v>1</v>
-      </c>
-      <c r="G238">
-        <v>2</v>
-      </c>
-      <c r="H238" t="s">
-        <v>43</v>
-      </c>
-      <c r="I238" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>45</v>
-      </c>
-      <c r="B239">
-        <v>1</v>
-      </c>
-      <c r="D239">
-        <v>-1.753125</v>
-      </c>
-      <c r="E239">
-        <v>13.153124999999999</v>
-      </c>
-      <c r="F239" t="s">
-        <v>1</v>
-      </c>
-      <c r="G239">
-        <v>2</v>
-      </c>
-      <c r="H239" t="s">
-        <v>43</v>
-      </c>
-      <c r="I239" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>44</v>
-      </c>
-      <c r="B240">
-        <v>2</v>
-      </c>
-      <c r="D240">
-        <v>-0.40769230769230752</v>
-      </c>
-      <c r="E240">
-        <v>21.388461538461538</v>
-      </c>
-      <c r="F240" t="s">
-        <v>2</v>
-      </c>
-      <c r="G240">
-        <v>3</v>
-      </c>
-      <c r="H240" t="s">
-        <v>43</v>
-      </c>
-      <c r="I240" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>19</v>
-      </c>
-      <c r="B241">
-        <v>2</v>
-      </c>
-      <c r="D241">
-        <v>-5.5714285714285703</v>
-      </c>
-      <c r="E241">
-        <v>15.75</v>
-      </c>
-      <c r="F241" t="s">
-        <v>7</v>
-      </c>
-      <c r="G241">
-        <v>3</v>
-      </c>
-      <c r="H241" t="s">
-        <v>43</v>
-      </c>
-      <c r="I241" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>42</v>
-      </c>
-      <c r="B242">
-        <v>2</v>
-      </c>
-      <c r="D242">
-        <v>-1.44444444444444</v>
-      </c>
-      <c r="E242">
-        <v>30.911111111111115</v>
-      </c>
-      <c r="F242" t="s">
-        <v>8</v>
-      </c>
-      <c r="G242">
-        <v>2</v>
-      </c>
-      <c r="H242" t="s">
-        <v>43</v>
-      </c>
-      <c r="I242" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>46</v>
-      </c>
-      <c r="B243">
-        <v>1</v>
-      </c>
-      <c r="D243">
-        <v>-1.44444444444444</v>
-      </c>
-      <c r="E243">
-        <v>30.911111111111115</v>
-      </c>
-      <c r="F243" t="s">
-        <v>8</v>
-      </c>
-      <c r="G243">
-        <v>2</v>
-      </c>
-      <c r="H243" t="s">
-        <v>43</v>
-      </c>
-      <c r="I243" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>47</v>
-      </c>
-      <c r="B244">
-        <v>1</v>
-      </c>
-      <c r="D244">
-        <v>-1.44444444444444</v>
-      </c>
-      <c r="E244">
-        <v>30.911111111111115</v>
-      </c>
-      <c r="F244" t="s">
-        <v>8</v>
-      </c>
-      <c r="G244">
-        <v>2</v>
-      </c>
-      <c r="H244" t="s">
-        <v>43</v>
-      </c>
-      <c r="I244" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>48</v>
-      </c>
-      <c r="B245">
-        <v>1</v>
-      </c>
-      <c r="D245">
-        <v>-1.44444444444444</v>
-      </c>
-      <c r="E245">
-        <v>30.911111111111115</v>
-      </c>
-      <c r="F245" t="s">
-        <v>8</v>
-      </c>
-      <c r="G245">
-        <v>2</v>
-      </c>
-      <c r="H245" t="s">
-        <v>43</v>
-      </c>
-      <c r="I245" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>45</v>
-      </c>
-      <c r="B246">
-        <v>2</v>
-      </c>
-      <c r="D246">
-        <v>-12.962999999999999</v>
-      </c>
-      <c r="E246">
-        <v>22.224999999999998</v>
-      </c>
-      <c r="F246" t="s">
-        <v>9</v>
-      </c>
-      <c r="G246">
-        <v>3</v>
-      </c>
-      <c r="H246" t="s">
-        <v>43</v>
-      </c>
-      <c r="I246" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>46</v>
-      </c>
-      <c r="B247">
-        <v>2</v>
-      </c>
-      <c r="D247">
-        <v>-9.16</v>
-      </c>
-      <c r="E247">
-        <v>26.439999999999998</v>
-      </c>
-      <c r="F247" t="s">
-        <v>10</v>
-      </c>
-      <c r="G247">
-        <v>3</v>
-      </c>
-      <c r="H247" t="s">
-        <v>43</v>
-      </c>
-      <c r="I247" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>47</v>
-      </c>
-      <c r="B248">
-        <v>2</v>
-      </c>
-      <c r="D248">
-        <v>-13.122222222222224</v>
-      </c>
-      <c r="E248">
-        <v>29.1944444444444</v>
-      </c>
-      <c r="F248" t="s">
-        <v>11</v>
-      </c>
-      <c r="G248">
-        <v>3</v>
-      </c>
-      <c r="H248" t="s">
-        <v>43</v>
-      </c>
-      <c r="I248" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>48</v>
-      </c>
-      <c r="B249">
-        <v>2</v>
-      </c>
-      <c r="D249">
-        <v>-13.3</v>
-      </c>
-      <c r="E249">
-        <v>39.125</v>
-      </c>
-      <c r="F249" t="s">
-        <v>13</v>
-      </c>
-      <c r="G249">
-        <v>3</v>
-      </c>
-      <c r="H249" t="s">
-        <v>43</v>
-      </c>
-      <c r="I249" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>18</v>
-      </c>
-      <c r="B250">
-        <v>1</v>
-      </c>
-      <c r="D250">
-        <v>2.3488888888888888</v>
-      </c>
-      <c r="E250">
-        <v>10.31111111111111</v>
-      </c>
-      <c r="F250" t="s">
-        <v>0</v>
-      </c>
-      <c r="G250">
-        <v>1</v>
-      </c>
-      <c r="H250" t="s">
-        <v>49</v>
-      </c>
-      <c r="I250" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>18</v>
-      </c>
-      <c r="B251">
-        <v>2</v>
-      </c>
-      <c r="D251">
-        <v>-1.753125</v>
-      </c>
-      <c r="E251">
-        <v>13.153124999999999</v>
-      </c>
-      <c r="F251" t="s">
-        <v>1</v>
-      </c>
-      <c r="G251">
-        <v>2</v>
-      </c>
-      <c r="H251" t="s">
-        <v>49</v>
-      </c>
-      <c r="I251" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>44</v>
-      </c>
-      <c r="B252">
-        <v>1</v>
-      </c>
-      <c r="D252">
-        <v>-1.753125</v>
-      </c>
-      <c r="E252">
-        <v>13.153124999999999</v>
-      </c>
-      <c r="F252" t="s">
-        <v>1</v>
-      </c>
-      <c r="G252">
-        <v>2</v>
-      </c>
-      <c r="H252" t="s">
-        <v>49</v>
-      </c>
-      <c r="I252" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>19</v>
-      </c>
-      <c r="B253">
-        <v>1</v>
-      </c>
-      <c r="D253">
-        <v>-1.753125</v>
-      </c>
-      <c r="E253">
-        <v>13.153124999999999</v>
-      </c>
-      <c r="F253" t="s">
-        <v>1</v>
-      </c>
-      <c r="G253">
-        <v>2</v>
-      </c>
-      <c r="H253" t="s">
-        <v>49</v>
-      </c>
-      <c r="I253" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>45</v>
-      </c>
-      <c r="B254">
-        <v>1</v>
-      </c>
-      <c r="D254">
-        <v>-1.753125</v>
-      </c>
-      <c r="E254">
-        <v>13.153124999999999</v>
-      </c>
-      <c r="F254" t="s">
-        <v>1</v>
-      </c>
-      <c r="G254">
-        <v>2</v>
-      </c>
-      <c r="H254" t="s">
-        <v>49</v>
-      </c>
-      <c r="I254" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>50</v>
-      </c>
-      <c r="B255">
-        <v>1</v>
-      </c>
-      <c r="D255">
-        <v>-1.753125</v>
-      </c>
-      <c r="E255">
-        <v>13.153124999999999</v>
-      </c>
-      <c r="F255" t="s">
-        <v>1</v>
-      </c>
-      <c r="G255">
-        <v>2</v>
-      </c>
-      <c r="H255" t="s">
-        <v>49</v>
-      </c>
-      <c r="I255" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>44</v>
-      </c>
-      <c r="B256">
-        <v>2</v>
-      </c>
-      <c r="D256">
-        <v>-0.40769230769230752</v>
-      </c>
-      <c r="E256">
-        <v>21.388461538461538</v>
-      </c>
-      <c r="F256" t="s">
-        <v>2</v>
-      </c>
-      <c r="G256">
-        <v>3</v>
-      </c>
-      <c r="H256" t="s">
-        <v>49</v>
-      </c>
-      <c r="I256" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>52</v>
-      </c>
-      <c r="B257">
-        <v>2</v>
-      </c>
-      <c r="D257">
-        <v>-3.7333333333333329</v>
-      </c>
-      <c r="E257">
-        <v>33</v>
-      </c>
-      <c r="F257" t="s">
-        <v>5</v>
-      </c>
-      <c r="G257">
-        <v>4</v>
-      </c>
-      <c r="H257" t="s">
-        <v>49</v>
-      </c>
-      <c r="I257" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>19</v>
-      </c>
-      <c r="B258">
-        <v>2</v>
-      </c>
-      <c r="D258">
-        <v>-5.5714285714285703</v>
-      </c>
-      <c r="E258">
-        <v>15.75</v>
-      </c>
-      <c r="F258" t="s">
-        <v>7</v>
-      </c>
-      <c r="G258">
-        <v>3</v>
-      </c>
-      <c r="H258" t="s">
-        <v>49</v>
-      </c>
-      <c r="I258" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>51</v>
-      </c>
-      <c r="B259">
-        <v>2</v>
-      </c>
-      <c r="D259">
-        <v>-1.44444444444444</v>
-      </c>
-      <c r="E259">
-        <v>30.911111111111115</v>
-      </c>
-      <c r="F259" t="s">
-        <v>8</v>
-      </c>
-      <c r="G259">
-        <v>4</v>
-      </c>
-      <c r="H259" t="s">
-        <v>49</v>
-      </c>
-      <c r="I259" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>45</v>
-      </c>
-      <c r="B260">
-        <v>2</v>
-      </c>
-      <c r="D260">
-        <v>-12.962999999999999</v>
-      </c>
-      <c r="E260">
-        <v>22.224999999999998</v>
-      </c>
-      <c r="F260" t="s">
-        <v>9</v>
-      </c>
-      <c r="G260">
-        <v>3</v>
-      </c>
-      <c r="H260" t="s">
-        <v>49</v>
-      </c>
-      <c r="I260" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>53</v>
-      </c>
-      <c r="B261">
-        <v>2</v>
-      </c>
-      <c r="D261">
-        <v>-9.16</v>
-      </c>
-      <c r="E261">
-        <v>26.439999999999998</v>
-      </c>
-      <c r="F261" t="s">
-        <v>10</v>
-      </c>
-      <c r="G261">
-        <v>4</v>
-      </c>
-      <c r="H261" t="s">
-        <v>49</v>
-      </c>
-      <c r="I261" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>50</v>
-      </c>
-      <c r="B262">
-        <v>2</v>
-      </c>
-      <c r="D262">
-        <v>-13.122222222222224</v>
-      </c>
-      <c r="E262">
-        <v>29.1944444444444</v>
-      </c>
-      <c r="F262" t="s">
-        <v>11</v>
-      </c>
-      <c r="G262">
-        <v>3</v>
-      </c>
-      <c r="H262" t="s">
-        <v>49</v>
-      </c>
-      <c r="I262" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>52</v>
-      </c>
-      <c r="B263">
-        <v>1</v>
-      </c>
-      <c r="D263">
-        <v>-13.122222222222224</v>
-      </c>
-      <c r="E263">
-        <v>29.1944444444444</v>
-      </c>
-      <c r="F263" t="s">
-        <v>11</v>
-      </c>
-      <c r="G263">
-        <v>3</v>
-      </c>
-      <c r="H263" t="s">
-        <v>49</v>
-      </c>
-      <c r="I263" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>51</v>
-      </c>
-      <c r="B264">
-        <v>1</v>
-      </c>
-      <c r="D264">
-        <v>-13.122222222222224</v>
-      </c>
-      <c r="E264">
-        <v>29.1944444444444</v>
-      </c>
-      <c r="F264" t="s">
-        <v>11</v>
-      </c>
-      <c r="G264">
-        <v>3</v>
-      </c>
-      <c r="H264" t="s">
-        <v>49</v>
-      </c>
-      <c r="I264" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>53</v>
-      </c>
-      <c r="B265">
-        <v>1</v>
-      </c>
-      <c r="D265">
-        <v>-13.122222222222224</v>
-      </c>
-      <c r="E265">
-        <v>29.1944444444444</v>
-      </c>
-      <c r="F265" t="s">
-        <v>11</v>
-      </c>
-      <c r="G265">
-        <v>3</v>
-      </c>
-      <c r="H265" t="s">
-        <v>49</v>
-      </c>
-      <c r="I265" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>31</v>
-      </c>
-      <c r="B266">
-        <v>1</v>
-      </c>
-      <c r="D266">
-        <v>-13.122222222222224</v>
-      </c>
-      <c r="E266">
-        <v>29.1944444444444</v>
-      </c>
-      <c r="F266" t="s">
-        <v>11</v>
-      </c>
-      <c r="G266">
-        <v>3</v>
-      </c>
-      <c r="H266" t="s">
-        <v>49</v>
-      </c>
-      <c r="I266" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>31</v>
-      </c>
-      <c r="B267">
-        <v>2</v>
-      </c>
-      <c r="D267">
-        <v>-13.557142857142859</v>
-      </c>
-      <c r="E267">
-        <v>33.514285714285712</v>
-      </c>
-      <c r="F267" t="s">
-        <v>12</v>
-      </c>
-      <c r="G267">
-        <v>4</v>
-      </c>
-      <c r="H267" t="s">
-        <v>49</v>
-      </c>
-      <c r="I267" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>18</v>
-      </c>
-      <c r="B268">
-        <v>1</v>
-      </c>
-      <c r="D268">
-        <v>2.3488888888888888</v>
-      </c>
-      <c r="E268">
-        <v>10.31111111111111</v>
-      </c>
-      <c r="F268" t="s">
-        <v>0</v>
-      </c>
-      <c r="G268">
-        <v>1</v>
-      </c>
-      <c r="H268" t="s">
-        <v>61</v>
-      </c>
-      <c r="I268" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>18</v>
-      </c>
-      <c r="B269">
-        <v>2</v>
-      </c>
-      <c r="D269">
-        <v>-1.753125</v>
-      </c>
-      <c r="E269">
-        <v>13.153124999999999</v>
-      </c>
-      <c r="F269" t="s">
-        <v>1</v>
-      </c>
-      <c r="G269">
-        <v>2</v>
-      </c>
-      <c r="H269" t="s">
-        <v>61</v>
-      </c>
-      <c r="I269" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>44</v>
-      </c>
-      <c r="B270">
-        <v>1</v>
-      </c>
-      <c r="D270">
-        <v>-1.753125</v>
-      </c>
-      <c r="E270">
-        <v>13.153124999999999</v>
-      </c>
-      <c r="F270" t="s">
-        <v>1</v>
-      </c>
-      <c r="G270">
-        <v>2</v>
-      </c>
-      <c r="H270" t="s">
-        <v>61</v>
-      </c>
-      <c r="I270" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>44</v>
-      </c>
-      <c r="B271">
-        <v>2</v>
-      </c>
-      <c r="D271">
-        <v>-0.40769230769230752</v>
-      </c>
-      <c r="E271">
-        <v>21.388461538461538</v>
-      </c>
-      <c r="F271" t="s">
-        <v>2</v>
-      </c>
-      <c r="G271">
-        <v>3</v>
-      </c>
-      <c r="H271" t="s">
-        <v>61</v>
-      </c>
-      <c r="I271" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>62</v>
-      </c>
-      <c r="B272">
-        <v>1</v>
-      </c>
-      <c r="D272">
-        <v>-0.40769230769230752</v>
-      </c>
-      <c r="E272">
-        <v>21.388461538461538</v>
-      </c>
-      <c r="F272" t="s">
-        <v>2</v>
-      </c>
-      <c r="G272">
-        <v>3</v>
-      </c>
-      <c r="H272" t="s">
-        <v>61</v>
-      </c>
-      <c r="I272" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>26</v>
-      </c>
-      <c r="B273">
-        <v>2</v>
-      </c>
-      <c r="D273">
-        <v>-2.35</v>
-      </c>
-      <c r="E273">
-        <v>38.449999999999996</v>
-      </c>
-      <c r="F273" t="s">
-        <v>4</v>
-      </c>
-      <c r="G273">
-        <v>9</v>
-      </c>
-      <c r="H273" t="s">
-        <v>61</v>
-      </c>
-      <c r="I273" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>25</v>
-      </c>
-      <c r="B274">
-        <v>1</v>
-      </c>
-      <c r="D274">
-        <v>-3.7333333333333329</v>
-      </c>
-      <c r="E274">
-        <v>33</v>
-      </c>
-      <c r="F274" t="s">
-        <v>5</v>
-      </c>
-      <c r="G274">
-        <v>7</v>
-      </c>
-      <c r="H274" t="s">
-        <v>61</v>
-      </c>
-      <c r="I274" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>58</v>
-      </c>
-      <c r="B275">
-        <v>1</v>
-      </c>
-      <c r="D275">
-        <v>-3.7333333333333329</v>
-      </c>
-      <c r="E275">
-        <v>33</v>
-      </c>
-      <c r="F275" t="s">
-        <v>5</v>
-      </c>
-      <c r="G275">
-        <v>7</v>
-      </c>
-      <c r="H275" t="s">
-        <v>61</v>
-      </c>
-      <c r="I275" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>65</v>
-      </c>
-      <c r="B276">
-        <v>2</v>
-      </c>
-      <c r="D276">
-        <v>-3.7333333333333329</v>
-      </c>
-      <c r="E276">
-        <v>33</v>
-      </c>
-      <c r="F276" t="s">
-        <v>5</v>
-      </c>
-      <c r="G276">
-        <v>7</v>
-      </c>
-      <c r="H276" t="s">
-        <v>61</v>
-      </c>
-      <c r="I276" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>25</v>
-      </c>
-      <c r="B277">
-        <v>2</v>
-      </c>
-      <c r="D277">
-        <v>-5.85</v>
-      </c>
-      <c r="E277">
-        <v>37.712499999999999</v>
-      </c>
-      <c r="F277" t="s">
-        <v>6</v>
-      </c>
-      <c r="G277">
-        <v>8</v>
-      </c>
-      <c r="H277" t="s">
-        <v>61</v>
-      </c>
-      <c r="I277" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>26</v>
-      </c>
-      <c r="B278">
-        <v>1</v>
-      </c>
-      <c r="D278">
-        <v>-5.85</v>
-      </c>
-      <c r="E278">
-        <v>37.712499999999999</v>
-      </c>
-      <c r="F278" t="s">
-        <v>6</v>
-      </c>
-      <c r="G278">
-        <v>8</v>
-      </c>
-      <c r="H278" t="s">
-        <v>61</v>
-      </c>
-      <c r="I278" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>66</v>
-      </c>
-      <c r="B279">
-        <v>1</v>
-      </c>
-      <c r="D279">
-        <v>-5.85</v>
-      </c>
-      <c r="E279">
-        <v>37.712499999999999</v>
-      </c>
-      <c r="F279" t="s">
-        <v>6</v>
-      </c>
-      <c r="G279">
-        <v>8</v>
-      </c>
-      <c r="H279" t="s">
-        <v>61</v>
-      </c>
-      <c r="I279" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>67</v>
-      </c>
-      <c r="B280">
-        <v>1</v>
-      </c>
-      <c r="D280">
-        <v>-5.85</v>
-      </c>
-      <c r="E280">
-        <v>37.712499999999999</v>
-      </c>
-      <c r="F280" t="s">
-        <v>6</v>
-      </c>
-      <c r="G280">
-        <v>8</v>
-      </c>
-      <c r="H280" t="s">
-        <v>61</v>
-      </c>
-      <c r="I280" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>62</v>
-      </c>
-      <c r="B281">
-        <v>2</v>
-      </c>
-      <c r="D281">
-        <v>-5.5714285714285703</v>
-      </c>
-      <c r="E281">
-        <v>15.75</v>
-      </c>
-      <c r="F281" t="s">
-        <v>7</v>
-      </c>
-      <c r="G281">
-        <v>4</v>
-      </c>
-      <c r="H281" t="s">
-        <v>61</v>
-      </c>
-      <c r="I281" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>63</v>
-      </c>
-      <c r="B282">
-        <v>1</v>
-      </c>
-      <c r="D282">
-        <v>-5.5714285714285703</v>
-      </c>
-      <c r="E282">
-        <v>15.75</v>
-      </c>
-      <c r="F282" t="s">
-        <v>7</v>
-      </c>
-      <c r="G282">
-        <v>4</v>
-      </c>
-      <c r="H282" t="s">
-        <v>61</v>
-      </c>
-      <c r="I282" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>58</v>
-      </c>
-      <c r="B283">
-        <v>2</v>
-      </c>
-      <c r="D283">
-        <v>-1.44444444444444</v>
-      </c>
-      <c r="E283">
-        <v>30.911111111111115</v>
-      </c>
-      <c r="F283" t="s">
-        <v>8</v>
-      </c>
-      <c r="G283">
-        <v>8</v>
-      </c>
-      <c r="H283" t="s">
-        <v>61</v>
-      </c>
-      <c r="I283" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>63</v>
-      </c>
-      <c r="B284">
-        <v>2</v>
-      </c>
-      <c r="D284">
-        <v>-12.962999999999999</v>
-      </c>
-      <c r="E284">
-        <v>22.224999999999998</v>
-      </c>
-      <c r="F284" t="s">
-        <v>9</v>
-      </c>
-      <c r="G284">
-        <v>5</v>
-      </c>
-      <c r="H284" t="s">
-        <v>61</v>
-      </c>
-      <c r="I284" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>64</v>
-      </c>
-      <c r="B285">
-        <v>1</v>
-      </c>
-      <c r="D285">
-        <v>-12.962999999999999</v>
-      </c>
-      <c r="E285">
-        <v>22.224999999999998</v>
-      </c>
-      <c r="F285" t="s">
-        <v>9</v>
-      </c>
-      <c r="G285">
-        <v>5</v>
-      </c>
-      <c r="H285" t="s">
-        <v>61</v>
-      </c>
-      <c r="I285" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>64</v>
-      </c>
-      <c r="B286">
-        <v>2</v>
-      </c>
-      <c r="D286">
-        <v>-9.16</v>
-      </c>
-      <c r="E286">
-        <v>26.439999999999998</v>
-      </c>
-      <c r="F286" t="s">
-        <v>10</v>
-      </c>
-      <c r="G286">
-        <v>6</v>
-      </c>
-      <c r="H286" t="s">
-        <v>61</v>
-      </c>
-      <c r="I286" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>65</v>
-      </c>
-      <c r="B287">
-        <v>1</v>
-      </c>
-      <c r="D287">
-        <v>-9.16</v>
-      </c>
-      <c r="E287">
-        <v>26.439999999999998</v>
-      </c>
-      <c r="F287" t="s">
-        <v>10</v>
-      </c>
-      <c r="G287">
-        <v>6</v>
-      </c>
-      <c r="H287" t="s">
-        <v>61</v>
-      </c>
-      <c r="I287" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>66</v>
-      </c>
-      <c r="B288">
-        <v>2</v>
-      </c>
-      <c r="D288">
-        <v>-13.557142857142859</v>
-      </c>
-      <c r="E288">
-        <v>33.514285714285712</v>
-      </c>
-      <c r="F288" t="s">
-        <v>12</v>
-      </c>
-      <c r="G288">
-        <v>9</v>
-      </c>
-      <c r="H288" t="s">
-        <v>61</v>
-      </c>
-      <c r="I288" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>68</v>
-      </c>
-      <c r="B289">
-        <v>1</v>
-      </c>
-      <c r="D289">
-        <v>-13.557142857142859</v>
-      </c>
-      <c r="E289">
-        <v>33.514285714285712</v>
-      </c>
-      <c r="F289" t="s">
-        <v>12</v>
-      </c>
-      <c r="G289">
-        <v>9</v>
-      </c>
-      <c r="H289" t="s">
-        <v>61</v>
-      </c>
-      <c r="I289" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>67</v>
-      </c>
-      <c r="B290">
-        <v>2</v>
-      </c>
-      <c r="D290">
-        <v>-13.3</v>
-      </c>
-      <c r="E290">
-        <v>39.125</v>
-      </c>
-      <c r="F290" t="s">
-        <v>13</v>
-      </c>
-      <c r="G290">
-        <v>9</v>
-      </c>
-      <c r="H290" t="s">
-        <v>61</v>
-      </c>
-      <c r="I290" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>68</v>
-      </c>
-      <c r="B291">
-        <v>2</v>
-      </c>
-      <c r="D291">
-        <v>-23.125</v>
-      </c>
-      <c r="E291">
-        <v>29.665624999999999</v>
-      </c>
-      <c r="F291" t="s">
-        <v>15</v>
-      </c>
-      <c r="G291">
-        <v>10</v>
-      </c>
-      <c r="H291" t="s">
-        <v>61</v>
-      </c>
-      <c r="I291" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I291" xr:uid="{072A6FB6-0869-4E3C-ACA6-94071C505926}">
-    <sortState ref="A2:I291">
-      <sortCondition ref="H1:H291"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
